--- a/docs/우럭아왜우럭 API 설계.xlsx
+++ b/docs/우럭아왜우럭 API 설계.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\UrukGame\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\바탕 화면\jinha\우럭아왜우럭\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812BC8C5-E746-4DAD-B4A7-C38C2545DEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2085F863-4F96-44E9-83BC-AB41BB05707D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="우럭아왜우럭 API 설계" sheetId="1" r:id="rId1"/>
-    <sheet name="API 응답(작성중)" sheetId="2" r:id="rId2"/>
+    <sheet name="API 명세" sheetId="1" r:id="rId1"/>
+    <sheet name="API response code" sheetId="2" r:id="rId2"/>
+    <sheet name="DML" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="205">
   <si>
     <t>Method</t>
   </si>
@@ -83,9 +84,6 @@
     <t>/inventory</t>
   </si>
   <si>
-    <t>인벤토리(=장비) 조회</t>
-  </si>
-  <si>
     <t>/inventory/upgrade</t>
   </si>
   <si>
@@ -384,10 +382,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>hiveUID(string)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>user(object)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -412,18 +406,317 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>INSERT INTO ‘account’ VALUES(user_id, player_id, nation, language);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>(작성중 02.03~)</t>
   </si>
   <si>
-    <t>성공</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>실패</t>
+    <t>레벨업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>피로도 감소</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 변동</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>진주 변동</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>player_id</t>
+  </si>
+  <si>
+    <t>nation</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>fatigue</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>pearl</t>
+  </si>
+  <si>
+    <t>inventory</t>
+  </si>
+  <si>
+    <t>item_type_id</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>item_count</t>
+  </si>
+  <si>
+    <t>boat</t>
+  </si>
+  <si>
+    <t>boat_id</t>
+  </si>
+  <si>
+    <t>durability</t>
+  </si>
+  <si>
+    <t>fuel</t>
+  </si>
+  <si>
+    <t>departure_time</t>
+  </si>
+  <si>
+    <t>map_id</t>
+  </si>
+  <si>
+    <t>water_tank</t>
+  </si>
+  <si>
+    <t>fish_id</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>caught_time</t>
+  </si>
+  <si>
+    <t>mailbox</t>
+  </si>
+  <si>
+    <t>recv_date</t>
+  </si>
+  <si>
+    <t>expr_date</t>
+  </si>
+  <si>
+    <t>collection</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>wind_volume</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>tide</t>
+  </si>
+  <si>
+    <t>auction</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>equip_slot</t>
+  </si>
+  <si>
+    <t>fishing_rod_id</t>
+  </si>
+  <si>
+    <t>reel_id</t>
+  </si>
+  <si>
+    <t>fishing_line_id</t>
+  </si>
+  <si>
+    <t>bait_id</t>
+  </si>
+  <si>
+    <t>hook_id</t>
+  </si>
+  <si>
+    <t>weight_id</t>
+  </si>
+  <si>
+    <t>경험치 획득</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>weather(object)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO 'boat' VALUES(...)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기 배 제공</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>position이 필요할까?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 이동</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'boat' SET map_id =? WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'user' SET level =?, exp =? WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'user' SET exp =? WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'user' SET fatigue =? WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'user' SET gold=? WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'user' SET pearl =? WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO 'user' VALUES (...)</t>
+  </si>
+  <si>
+    <t>INSERT INTO ‘account’ VALUES(...);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 로그인 시</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기 획득</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO 'water_tank' VALUES(...)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM 'water_tank' WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 획득</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO 'inventory' VALUES(...)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 판매</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE FROM 'inventory' WHERE user_id=?, item_type_id=?, item_id=?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도 소모</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM 'mailbox’ WHERE 'user_id'=?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mailBox(object)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterTank(object)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO 'mailbox' VALUES(...)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId(int)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM ‘weather’ WHERE 'user_id'=?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM ‘inventory' WHERE 'user_id'=?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>inventory(object)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiveID(string)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId(int), mapId(int)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 조회</t>
+  </si>
+  <si>
+    <t>인벤토리 조회</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물함으로 아이템 전송</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(작성중 02.04~)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 물고기의 상세정보도 출력하고싶은데 어떻게 할까</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리에 해당 아이템의 개수가 부족합니다.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +724,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,8 +898,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -784,6 +1097,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -918,18 +1243,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1057,25 +1380,65 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1119,6 +1482,7 @@
     <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="42" xr:uid="{2EE4DEED-1AC1-48C2-B09E-4ED54AE61EB8}"/>
+    <cellStyle name="표준 3" xfId="43" xr:uid="{D206C47A-91F1-4390-9BAD-64519BD5A4E4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1433,32 +1797,32 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59.875" customWidth="1"/>
+    <col min="4" max="4" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1475,19 +1839,12 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1498,16 +1855,13 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>195</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1518,30 +1872,24 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1551,8 +1899,14 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1562,11 +1916,17 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
+      <c r="D7" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1576,8 +1936,9 @@
       <c r="C8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1585,249 +1946,276 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D18" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>6</v>
       </c>
       <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
         <v>40</v>
       </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>6</v>
       </c>
       <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
         <v>42</v>
       </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
         <v>44</v>
       </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>6</v>
       </c>
       <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
         <v>46</v>
       </c>
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>6</v>
       </c>
       <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
         <v>48</v>
       </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D24" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>6</v>
       </c>
       <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
         <v>50</v>
       </c>
-      <c r="C25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>6</v>
       </c>
       <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
         <v>52</v>
       </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>6</v>
       </c>
       <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
         <v>54</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" t="s">
         <v>55</v>
       </c>
-      <c r="G27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>6</v>
       </c>
       <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
         <v>57</v>
       </c>
-      <c r="C28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>6</v>
       </c>
       <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
         <v>59</v>
       </c>
-      <c r="C29" t="s">
+      <c r="F29" t="s">
         <v>60</v>
       </c>
-      <c r="G29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>6</v>
       </c>
       <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
         <v>62</v>
-      </c>
-      <c r="C30" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1836,217 +2224,722 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D026DD-3163-41FA-9329-52BDE255F628}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="D2" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
         <v>200</v>
-      </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>400</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
       </c>
       <c r="C3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>400</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>401</v>
+      </c>
+      <c r="B5" t="s">
         <v>77</v>
-      </c>
-      <c r="D3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>401</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>403</v>
-      </c>
-      <c r="B5" t="s">
-        <v>80</v>
       </c>
       <c r="C5" t="s">
         <v>99</v>
       </c>
       <c r="D5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>403</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>404</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>404</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>500</v>
+      </c>
+      <c r="B8" t="s">
         <v>84</v>
       </c>
-      <c r="C6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>500</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
         <v>85</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" t="s">
         <v>87</v>
       </c>
-      <c r="D7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="C25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79EE227B-0D66-4E24-950B-DE4C63847A18}">
+  <dimension ref="A1:D68"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="6" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" s="6" customFormat="1">
+      <c r="A8" s="8"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="B12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="10" t="s">
+        <v>128</v>
+      </c>
       <c r="B13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+      <c r="C13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="B14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="B15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="10" t="s">
+        <v>131</v>
+      </c>
       <c r="B16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="6" customFormat="1"/>
+    <row r="18" spans="1:4">
+      <c r="A18" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="10" t="s">
+        <v>133</v>
+      </c>
       <c r="B20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" t="s">
-        <v>73</v>
+        <v>199</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" s="6" customFormat="1">
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="6" customFormat="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="17"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="11"/>
+    </row>
+    <row r="37" spans="1:3" s="6" customFormat="1">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="1:3" s="6" customFormat="1">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="1:3" s="6" customFormat="1">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="6" customFormat="1"/>
+    <row r="56" spans="1:3">
+      <c r="A56" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" s="12"/>
+    </row>
+    <row r="60" spans="1:3" s="6" customFormat="1">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="16" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/우럭아왜우럭 API 설계.xlsx
+++ b/docs/우럭아왜우럭 API 설계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\바탕 화면\jinha\우럭아왜우럭\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BE68F9-5E92-4A6D-9DA5-EE8EBE263D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4556E7-0999-4DB7-AEB8-8CDA841201BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5710" yWindow="30" windowWidth="25830" windowHeight="18320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API 명세" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="DML" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="250">
   <si>
     <t>Method</t>
   </si>
@@ -84,798 +85,836 @@
     <t>선택한 채비 업그레이드</t>
   </si>
   <si>
+    <t>/boat</t>
+  </si>
+  <si>
+    <t>사용중인 배 조회</t>
+  </si>
+  <si>
+    <t>/boat/upgrade</t>
+  </si>
+  <si>
+    <t>배 업그레이드</t>
+  </si>
+  <si>
+    <t>/boat/refuel</t>
+  </si>
+  <si>
+    <t>배 연료 구매</t>
+  </si>
+  <si>
+    <t>/mailBox</t>
+  </si>
+  <si>
+    <t>선물함 조회</t>
+  </si>
+  <si>
+    <t>/mailBox/receive</t>
+  </si>
+  <si>
+    <t>선물 아이템 수령</t>
+  </si>
+  <si>
+    <t>/collection</t>
+  </si>
+  <si>
+    <t>도감 조회</t>
+  </si>
+  <si>
+    <t>/shop</t>
+  </si>
+  <si>
+    <t>상점 조회</t>
+  </si>
+  <si>
+    <t>상점 아이템 구매</t>
+  </si>
+  <si>
+    <t>/shop/sell</t>
+  </si>
+  <si>
+    <t>상점에 아이템 판매</t>
+  </si>
+  <si>
+    <t>/waterTank</t>
+  </si>
+  <si>
+    <t>수조 조회</t>
+  </si>
+  <si>
+    <t>/auction</t>
+  </si>
+  <si>
+    <t>경매 조회</t>
+  </si>
+  <si>
+    <t>/auction/sellFish</t>
+  </si>
+  <si>
+    <t>경매에 물고기 판매</t>
+  </si>
+  <si>
+    <t>/departure</t>
+  </si>
+  <si>
+    <t>출항</t>
+  </si>
+  <si>
+    <t>/arrival</t>
+  </si>
+  <si>
+    <t>입항</t>
+  </si>
+  <si>
+    <t>/fishing/start</t>
+  </si>
+  <si>
+    <t>/fishing/end</t>
+  </si>
+  <si>
+    <t>낚시 취소</t>
+  </si>
+  <si>
+    <t>response_code</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>response_type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>response_msg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid가 존재하지 않습니다</t>
+  </si>
+  <si>
+    <t>장비의 내구도가 모자랍니다.</t>
+  </si>
+  <si>
+    <t>소모품이 모자랍니다</t>
+  </si>
+  <si>
+    <t>연료가 모자랍니다</t>
+  </si>
+  <si>
+    <t>배의 내구도가 모자랍니다.</t>
+  </si>
+  <si>
+    <t>골드가 모자랍니다.</t>
+  </si>
+  <si>
+    <t>구매 가능한 시간을 초과했습니다.</t>
+  </si>
+  <si>
+    <t>Bad Request</t>
+  </si>
+  <si>
+    <t>Success</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트가 유효하지 않은 요청을 보낸 경우</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>request body나 parameter를 확인하세요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unauthorized </t>
+  </si>
+  <si>
+    <t>해당 서버에 클라이언트 인증이 실패한 경우</t>
+  </si>
+  <si>
+    <t>Forbidden</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트가 인증은 됐지만 요청한 자원에 대한 권한은 없는 경우</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터를 가져올 수 없습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청한 자원이 존재하지 않는 경우</t>
+  </si>
+  <si>
+    <t>Not Found</t>
+  </si>
+  <si>
+    <t>Internal Server Error</t>
+  </si>
+  <si>
+    <t>서버에서 발생된 일반적인 에러</t>
+  </si>
+  <si>
+    <t>서버에서 문제가 발생했습니다. 에러 상황을 전달해주세요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">hive 계정이 존재하지 않습니다. </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물함</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>배</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성(레벨,연료,내구도등)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>타임아웃</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한이 없습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증에 실패했습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공적으로 응답합니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 중인 유저가 아닙니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨이 부족하여 해당 지역에 접근하지 못합니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기를 놓쳤습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정</t>
+  </si>
+  <si>
+    <t>배 내구도 수리</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 수심보다 깊게 내릴 수 없습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>user(object)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM ‘account’ WHERE 'player_id'=?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM ‘user’ WHERE 'user_id'=?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>account(object)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(작성중 02.03~)</t>
+  </si>
+  <si>
+    <t>레벨업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>피로도 감소</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 변동</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>진주 변동</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>player_id</t>
+  </si>
+  <si>
+    <t>nation</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>fatigue</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>pearl</t>
+  </si>
+  <si>
+    <t>inventory</t>
+  </si>
+  <si>
+    <t>item_type_id</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>item_count</t>
+  </si>
+  <si>
+    <t>boat</t>
+  </si>
+  <si>
+    <t>boat_id</t>
+  </si>
+  <si>
+    <t>durability</t>
+  </si>
+  <si>
+    <t>fuel</t>
+  </si>
+  <si>
+    <t>departure_time</t>
+  </si>
+  <si>
+    <t>map_id</t>
+  </si>
+  <si>
+    <t>water_tank</t>
+  </si>
+  <si>
+    <t>fish_id</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>caught_time</t>
+  </si>
+  <si>
+    <t>mailbox</t>
+  </si>
+  <si>
+    <t>recv_date</t>
+  </si>
+  <si>
+    <t>expr_date</t>
+  </si>
+  <si>
+    <t>collection</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>wind_volume</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>tide</t>
+  </si>
+  <si>
+    <t>auction</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>경험치 획득</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>weather(object)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO 'boat' VALUES(...)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기 배 제공</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>position이 필요할까?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 이동</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'boat' SET map_id =? WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'user' SET level =?, exp =? WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'user' SET exp =? WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'user' SET fatigue =? WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'user' SET gold=? WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'user' SET pearl =? WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO 'user' VALUES (...)</t>
+  </si>
+  <si>
+    <t>INSERT INTO ‘account’ VALUES(...);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 로그인 시</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기 획득</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO 'water_tank' VALUES(...)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM 'water_tank' WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 획득</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO 'inventory' VALUES(...)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 판매</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE FROM 'inventory' WHERE user_id=?, item_type_id=?, item_id=?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도 소모</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM 'mailbox’ WHERE 'user_id'=?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO 'mailbox' VALUES(...)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId(int)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM ‘weather’ WHERE 'user_id'=?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM ‘inventory' WHERE 'user_id'=?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiveID(string)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId(int), mapId(int)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 조회</t>
+  </si>
+  <si>
+    <t>(작성중 02.04~)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리에 해당 아이템의 개수가 부족합니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>requestHeader</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공 responseBody</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패 responseBody</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/shop/buy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시 시작</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>map[array]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>inventory[array]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM ‘map_data'</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipment(object)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>같은 장비가 두개면? 어떤거 업그레이드?.?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>장착한 채비 조회</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId(int), itemTypeId(int), itemId(int)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipSlot(object)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 채비 장착해제</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/equipSlot/unequip</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/inventory/equip</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 채비 장착</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/inventory</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리(=장비) 조회</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용중인 배 조회</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_upgrade_data를 참조하고, 업그레이드 가능한 상황일 시 UPDATE 'inventory' SET item_id =? WHERE user_id =?, item_type_id =?, item_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈 차감&amp;연료 증가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>연료 구매</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'boat' SET fuel=? WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM ‘boat' WHERE 'user_id'=?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>collection[array]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId(int), depth(int)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mailBox[array]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM ‘inventory’ WHERE 'user_id'=?, is_equipped=1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_equipped</t>
+  </si>
+  <si>
+    <t>UPDATE 'boat' SET durability=? WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>장착 또는 장착 해제</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/inventory/repair</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/boat/repair</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 내구도 수리</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물 수령</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화면 User. 배면 Boat. 장비면 inventory. INSERT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>도감 조회</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM 'collection' WHERE 'user_id'=?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 획득</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterTank[array]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매 조회</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM ‘auction’ WHERE 'user_id'=?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>auction[array]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선 delete로 하고 추후에 flag속성으로 바꿀 예정</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE FROM 'water_tank' WHERE user_id=?, num =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨제한.내구도.채비유무.유저 상태..등 확인하고 승인or반려</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 상태 확인하고 승인 or반려</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>피로도 감소. 내구도 감소</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'inventory' SET durability=? WHERE user_id =?, item_type_id =?, item_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'inventory' SET is_equipped=? WHERE user_id =?, item_type_id =?, item_id =?, is_equipped =?, durability &gt;0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>/equipSlot</t>
-  </si>
-  <si>
-    <t>/boat</t>
-  </si>
-  <si>
-    <t>사용중인 배 조회</t>
-  </si>
-  <si>
-    <t>/boat/upgrade</t>
-  </si>
-  <si>
-    <t>배 업그레이드</t>
-  </si>
-  <si>
-    <t>/boat/refuel</t>
-  </si>
-  <si>
-    <t>배 연료 구매</t>
-  </si>
-  <si>
-    <t>/mailBox</t>
-  </si>
-  <si>
-    <t>선물함 조회</t>
-  </si>
-  <si>
-    <t>/mailBox/receive</t>
-  </si>
-  <si>
-    <t>선물 아이템 수령</t>
-  </si>
-  <si>
-    <t>/collection</t>
-  </si>
-  <si>
-    <t>도감 조회</t>
-  </si>
-  <si>
-    <t>/shop</t>
-  </si>
-  <si>
-    <t>상점 조회</t>
-  </si>
-  <si>
-    <t>상점 아이템 구매</t>
-  </si>
-  <si>
-    <t>/shop/sell</t>
-  </si>
-  <si>
-    <t>상점에 아이템 판매</t>
-  </si>
-  <si>
-    <t>/waterTank</t>
-  </si>
-  <si>
-    <t>수조 조회</t>
-  </si>
-  <si>
-    <t>/auction</t>
-  </si>
-  <si>
-    <t>경매 조회</t>
-  </si>
-  <si>
-    <t>/auction/sellFish</t>
-  </si>
-  <si>
-    <t>경매에 물고기 판매</t>
-  </si>
-  <si>
-    <t>/departure</t>
-  </si>
-  <si>
-    <t>출항</t>
-  </si>
-  <si>
-    <t>/arrival</t>
-  </si>
-  <si>
-    <t>입항</t>
-  </si>
-  <si>
-    <t>/fishing/start</t>
-  </si>
-  <si>
-    <t>/fishing/end</t>
-  </si>
-  <si>
-    <t>낚시 취소</t>
-  </si>
-  <si>
-    <t>response_code</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>response_type</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>response_msg</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid가 존재하지 않습니다</t>
-  </si>
-  <si>
-    <t>장비의 내구도가 모자랍니다.</t>
-  </si>
-  <si>
-    <t>소모품이 모자랍니다</t>
-  </si>
-  <si>
-    <t>연료가 모자랍니다</t>
-  </si>
-  <si>
-    <t>배의 내구도가 모자랍니다.</t>
-  </si>
-  <si>
-    <t>골드가 모자랍니다.</t>
-  </si>
-  <si>
-    <t>구매 가능한 시간을 초과했습니다.</t>
-  </si>
-  <si>
-    <t>Bad Request</t>
-  </si>
-  <si>
-    <t>Success</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>클라이언트가 유효하지 않은 요청을 보낸 경우</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>request body나 parameter를 확인하세요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unauthorized </t>
-  </si>
-  <si>
-    <t>해당 서버에 클라이언트 인증이 실패한 경우</t>
-  </si>
-  <si>
-    <t>Forbidden</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>클라이언트가 인증은 됐지만 요청한 자원에 대한 권한은 없는 경우</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터를 가져올 수 없습니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>요청한 자원이 존재하지 않는 경우</t>
-  </si>
-  <si>
-    <t>Not Found</t>
-  </si>
-  <si>
-    <t>Internal Server Error</t>
-  </si>
-  <si>
-    <t>서버에서 발생된 일반적인 에러</t>
-  </si>
-  <si>
-    <t>서버에서 문제가 발생했습니다. 에러 상황을 전달해주세요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">hive 계정이 존재하지 않습니다. </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>물고기</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>재화</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>인벤토리</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>선물함</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>배</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>특성(레벨,연료,내구도등)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>타임아웃</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한이 없습니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증에 실패했습니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>성공적으로 응답합니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 중인 유저가 아닙니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨이 부족하여 해당 지역에 접근하지 못합니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>물고기를 놓쳤습니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정</t>
-  </si>
-  <si>
-    <t>배 내구도 수리</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 수심보다 깊게 내릴 수 없습니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>user(object)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM ‘account’ WHERE 'player_id'=?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM ‘user’ WHERE 'user_id'=?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>account(object)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(작성중 02.03~)</t>
-  </si>
-  <si>
-    <t>레벨업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>피로도 감소</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>골드 변동</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>진주 변동</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>account</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>player_id</t>
-  </si>
-  <si>
-    <t>nation</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>nickname</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>exp</t>
-  </si>
-  <si>
-    <t>fatigue</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>pearl</t>
-  </si>
-  <si>
-    <t>inventory</t>
-  </si>
-  <si>
-    <t>item_type_id</t>
-  </si>
-  <si>
-    <t>item_id</t>
-  </si>
-  <si>
-    <t>item_count</t>
-  </si>
-  <si>
-    <t>boat</t>
-  </si>
-  <si>
-    <t>boat_id</t>
-  </si>
-  <si>
-    <t>durability</t>
-  </si>
-  <si>
-    <t>fuel</t>
-  </si>
-  <si>
-    <t>departure_time</t>
-  </si>
-  <si>
-    <t>map_id</t>
-  </si>
-  <si>
-    <t>water_tank</t>
-  </si>
-  <si>
-    <t>fish_id</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>caught_time</t>
-  </si>
-  <si>
-    <t>mailbox</t>
-  </si>
-  <si>
-    <t>recv_date</t>
-  </si>
-  <si>
-    <t>expr_date</t>
-  </si>
-  <si>
-    <t>collection</t>
-  </si>
-  <si>
-    <t>weather</t>
-  </si>
-  <si>
-    <t>wind_volume</t>
-  </si>
-  <si>
-    <t>temperature</t>
-  </si>
-  <si>
-    <t>tide</t>
-  </si>
-  <si>
-    <t>auction</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>equip_slot</t>
-  </si>
-  <si>
-    <t>fishing_rod_id</t>
-  </si>
-  <si>
-    <t>reel_id</t>
-  </si>
-  <si>
-    <t>fishing_line_id</t>
-  </si>
-  <si>
-    <t>bait_id</t>
-  </si>
-  <si>
-    <t>hook_id</t>
-  </si>
-  <si>
-    <t>weight_id</t>
-  </si>
-  <si>
-    <t>경험치 획득</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>weather(object)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO 'boat' VALUES(...)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>초기 배 제공</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>position이 필요할까?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역 이동</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE 'boat' SET map_id =? WHERE user_id =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE 'user' SET level =?, exp =? WHERE user_id =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE 'user' SET exp =? WHERE user_id =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE 'user' SET fatigue =? WHERE user_id =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE 'user' SET gold=? WHERE user_id =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE 'user' SET pearl =? WHERE user_id =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO 'user' VALUES (...)</t>
-  </si>
-  <si>
-    <t>INSERT INTO ‘account’ VALUES(...);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>최초 로그인 시</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>물고기 획득</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO 'water_tank' VALUES(...)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM 'water_tank' WHERE user_id =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 획득</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO 'inventory' VALUES(...)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 판매</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELETE FROM 'inventory' WHERE user_id=?, item_type_id=?, item_id=?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>내구도 소모</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM 'mailbox’ WHERE 'user_id'=?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO 'mailbox' VALUES(...)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId(int)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM ‘weather’ WHERE 'user_id'=?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM ‘inventory' WHERE 'user_id'=?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>action</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiveID(string)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId(int), mapId(int)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>인벤토리 조회</t>
-  </si>
-  <si>
-    <t>(작성중 02.04~)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>인벤토리에 해당 아이템의 개수가 부족합니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 API 에서 공통으로 사용할 정보는 요청/응답 HEADER 에 기록하면 좋습니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>requestHeader</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>성공 responseBody</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>실패 responseBody</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>/shop/buy</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시 시작</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>map[array]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>inventory[array]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM ‘map_data'</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipment(object)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>같은 장비가 두개면? 어떤거 업그레이드?.?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>장착한 채비 조회</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId(int), itemTypeId(int), itemId(int)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipSlot(object)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택한 채비 장착해제</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>/equipSlot/unequip</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>/inventory/equip</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택한 채비 장착</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>/inventory</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>인벤토리(=장비) 조회</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용중인 배 조회</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>equip_upgrade_data를 참조하고, 업그레이드 가능한 상황일 시 UPDATE 'inventory' SET item_id =? WHERE user_id =?, item_type_id =?, item_id =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>[장착중] 상태로 표시</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>[장착중] 상태 해제</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>boat_upgrade_data를 참조하고, 조건 만족 시 UPDATE 'boat'' SET boat_id =?, durability =?, fuel =? WHERE user_id =?, boat_id =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈 차감&amp;연료 증가</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>연료 구매</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE 'boat' SET fuel=? WHERE user_id =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM ‘boat' WHERE 'user_id'=?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>collection[array]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId(int), depth(int)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>mailBox[array]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM ‘inventory’ WHERE 'user_id'=?, is_equipped=1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_equipped</t>
-  </si>
-  <si>
-    <t>UPDATE 'boat' SET durability=? WHERE user_id =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE 'boat' SET durability=? WHERE user_id =?, item_type_id =?, item_id =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>장착 또는 장착 해제</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE 'boat' SET is_equipped=? WHERE user_id =?, item_type_id =?, item_id =?, is_equipped =?, durability &gt;0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>/inventory/repair</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>/boat/repair</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비 내구도 수리</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>선물 수령</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>재화면 User. 배면 Boat. 장비면 inventory. INSERT</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>도감 조회</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM 'collection' WHERE 'user_id'=?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>보상 획득</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>waterTank[array]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>경매 조회</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM ‘auction’ WHERE 'user_id'=?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>auction[array]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>우선 delete로 하고 추후에 flag속성으로 바꿀 예정</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELETE FROM 'water_tank' WHERE user_id=?, num =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨제한.내구도.채비유무.유저 상태..등 확인하고 승인or반려</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 상태 확인하고 승인 or반려</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>피로도 감소. 내구도 감소</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'boat'' SET boat_id =?, durability =?, fuel =? WHERE user_id =?, boat_id =?</t>
+  </si>
+  <si>
+    <t>boat_upgrade_data를 참조하고 조건 만족하는 경우</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd는?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>boat(object)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(경매에)물고기 판매</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>auction table에도 미리 추가 or 경매 테이블 조회할 때 수조에서 있는 물고기들 그 때 추가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId(int), fishNum(int)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/weeklyRanking</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주간 순위 조회</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop table?</t>
+  </si>
+  <si>
+    <t>ranking table?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO 'collection' VALUES(...)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡은 어종 도감에 추가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>변화값 업데이트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'weather' SET wind_volume =? WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'weather' SET temperature =? WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'weather' SET tide =? WHERE user_id =?</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1641,38 +1680,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2031,36 +2070,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="72.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="A1" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:11">
@@ -2074,16 +2113,16 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>4</v>
@@ -2095,35 +2134,32 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>180</v>
+      <c r="E3" s="25" t="s">
+        <v>172</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>187</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="25"/>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2131,14 +2167,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2152,10 +2190,10 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2169,10 +2207,10 @@
         <v>14</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" t="s">
@@ -2189,83 +2227,87 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="26"/>
+      <c r="E8" s="5" t="s">
+        <v>236</v>
+      </c>
       <c r="F8" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>195</v>
+        <v>184</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>205</v>
+      <c r="B9" s="24" t="s">
+        <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F9" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H10" s="25" t="s">
         <v>199</v>
-      </c>
-      <c r="F10" t="s">
-        <v>196</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>203</v>
+      <c r="B11" s="24" t="s">
+        <v>194</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>209</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:11" s="5" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>225</v>
+      <c r="B12" s="24" t="s">
+        <v>211</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+        <v>213</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:11">
@@ -2273,310 +2315,344 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="C13" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F13" t="s">
-        <v>200</v>
-      </c>
-      <c r="H13" s="26"/>
+        <v>191</v>
+      </c>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>210</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>21</v>
+      <c r="B15" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F15" s="26"/>
+        <v>168</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F16" s="26"/>
+        <v>168</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>235</v>
+      </c>
       <c r="H16" s="26" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F17" s="26"/>
-      <c r="H17" s="27" t="s">
-        <v>212</v>
+        <v>168</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>226</v>
+      <c r="B18" s="23" t="s">
+        <v>212</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
+        <v>94</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>235</v>
+      </c>
       <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
         <v>27</v>
       </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
       <c r="E19" s="5" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F19" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="5" customFormat="1">
       <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
+      <c r="E20" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
         <v>31</v>
       </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
       <c r="E21" s="5" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F21" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
         <v>33</v>
       </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F22" s="26"/>
-      <c r="H22" s="26"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="H22" s="25" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>191</v>
+      <c r="B23" s="22" t="s">
+        <v>182</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="H23" s="26"/>
+        <v>34</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
         <v>36</v>
       </c>
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="H24" s="26"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
         <v>38</v>
       </c>
-      <c r="C25" t="s">
-        <v>39</v>
-      </c>
       <c r="E25" s="5" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
         <v>40</v>
       </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
       <c r="E26" s="5" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F26" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
         <v>42</v>
       </c>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
+      <c r="E27" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" t="s">
         <v>44</v>
       </c>
-      <c r="C28" t="s">
-        <v>45</v>
-      </c>
       <c r="E28" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F28" s="26"/>
+        <v>173</v>
+      </c>
+      <c r="F28" s="25"/>
       <c r="H28" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
         <v>46</v>
       </c>
-      <c r="C29" t="s">
-        <v>47</v>
-      </c>
       <c r="E29" t="s">
-        <v>176</v>
-      </c>
-      <c r="F29" s="26"/>
+        <v>168</v>
+      </c>
+      <c r="F29" s="25"/>
       <c r="H29" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="20" t="s">
-        <v>48</v>
+      <c r="B30" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F30" s="26"/>
+        <v>205</v>
+      </c>
+      <c r="F30" s="25"/>
       <c r="H30" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
         <v>49</v>
       </c>
-      <c r="C31" t="s">
-        <v>50</v>
-      </c>
       <c r="E31" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F31" s="26"/>
+        <v>168</v>
+      </c>
+      <c r="F31" s="25"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C32" t="s">
+        <v>241</v>
+      </c>
+      <c r="E32" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="25"/>
+      <c r="H32" s="25" t="s">
+        <v>243</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2593,41 +2669,41 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="A1" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2635,10 +2711,10 @@
         <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2646,13 +2722,13 @@
         <v>400</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2660,13 +2736,13 @@
         <v>401</v>
       </c>
       <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
         <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2674,13 +2750,13 @@
         <v>403</v>
       </c>
       <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
         <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2688,13 +2764,13 @@
         <v>404</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
         <v>69</v>
-      </c>
-      <c r="D7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2702,118 +2778,118 @@
         <v>500</v>
       </c>
       <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
         <v>72</v>
-      </c>
-      <c r="C8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="B13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="B16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="C19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="C25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2828,75 +2904,78 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79EE227B-0D66-4E24-950B-DE4C63847A18}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1">
-      <c r="A1" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="A1" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="5"/>
     </row>
@@ -2905,163 +2984,163 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" t="s">
         <v>151</v>
-      </c>
-      <c r="C13" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="5" customFormat="1"/>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C19" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D19" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B22" s="6"/>
       <c r="D22" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="5" customFormat="1">
       <c r="A23" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="5" customFormat="1">
       <c r="A24" s="9" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="5" customFormat="1">
@@ -3069,201 +3148,216 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D26" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" s="5" customFormat="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="5" customFormat="1">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B34" t="s">
-        <v>166</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="9" t="s">
+      <c r="B36" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="9" t="s">
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="9" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="9" t="s">
-        <v>133</v>
-      </c>
       <c r="B38" s="10"/>
     </row>
-    <row r="39" spans="1:3" s="5" customFormat="1">
+    <row r="39" spans="1:4" s="5" customFormat="1">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C42" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" t="s">
-        <v>228</v>
-      </c>
-      <c r="C42" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="9" t="s">
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="9" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="9" t="s">
-        <v>136</v>
-      </c>
       <c r="B46" s="6"/>
     </row>
-    <row r="47" spans="1:3" s="5" customFormat="1">
+    <row r="47" spans="1:4" s="5" customFormat="1">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="A48" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B48" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="B49" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B50" s="6"/>
     </row>
@@ -3273,106 +3367,84 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="5" customFormat="1"/>
     <row r="58" spans="1:3">
       <c r="A58" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B58" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B61" s="11"/>
     </row>
     <row r="62" spans="1:3" s="5" customFormat="1">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="15" t="s">
-        <v>150</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/우럭아왜우럭 API 설계.xlsx
+++ b/docs/우럭아왜우럭 API 설계.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\바탕 화면\jinha\우럭아왜우럭\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\UrukGame\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4556E7-0999-4DB7-AEB8-8CDA841201BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEC64EE-AAFF-46E3-AC46-81C3761FC365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API 명세" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,11 @@
     <sheet name="DML" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="264">
   <si>
     <t>Method</t>
   </si>
@@ -130,791 +129,849 @@
     <t>상점 아이템 구매</t>
   </si>
   <si>
+    <t>상점에 아이템 판매</t>
+  </si>
+  <si>
+    <t>/waterTank</t>
+  </si>
+  <si>
+    <t>수조 조회</t>
+  </si>
+  <si>
+    <t>/auction</t>
+  </si>
+  <si>
+    <t>경매 조회</t>
+  </si>
+  <si>
+    <t>/auction/sellFish</t>
+  </si>
+  <si>
+    <t>경매에 물고기 판매</t>
+  </si>
+  <si>
+    <t>/departure</t>
+  </si>
+  <si>
+    <t>출항</t>
+  </si>
+  <si>
+    <t>/arrival</t>
+  </si>
+  <si>
+    <t>입항</t>
+  </si>
+  <si>
+    <t>/fishing/start</t>
+  </si>
+  <si>
+    <t>/fishing/end</t>
+  </si>
+  <si>
+    <t>낚시 취소</t>
+  </si>
+  <si>
+    <t>response_code</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>response_type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>response_msg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid가 존재하지 않습니다</t>
+  </si>
+  <si>
+    <t>장비의 내구도가 모자랍니다.</t>
+  </si>
+  <si>
+    <t>소모품이 모자랍니다</t>
+  </si>
+  <si>
+    <t>연료가 모자랍니다</t>
+  </si>
+  <si>
+    <t>배의 내구도가 모자랍니다.</t>
+  </si>
+  <si>
+    <t>골드가 모자랍니다.</t>
+  </si>
+  <si>
+    <t>구매 가능한 시간을 초과했습니다.</t>
+  </si>
+  <si>
+    <t>Bad Request</t>
+  </si>
+  <si>
+    <t>Success</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트가 유효하지 않은 요청을 보낸 경우</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>request body나 parameter를 확인하세요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unauthorized </t>
+  </si>
+  <si>
+    <t>해당 서버에 클라이언트 인증이 실패한 경우</t>
+  </si>
+  <si>
+    <t>Forbidden</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라이언트가 인증은 됐지만 요청한 자원에 대한 권한은 없는 경우</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터를 가져올 수 없습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청한 자원이 존재하지 않는 경우</t>
+  </si>
+  <si>
+    <t>Not Found</t>
+  </si>
+  <si>
+    <t>Internal Server Error</t>
+  </si>
+  <si>
+    <t>서버에서 발생된 일반적인 에러</t>
+  </si>
+  <si>
+    <t>서버에서 문제가 발생했습니다. 에러 상황을 전달해주세요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">hive 계정이 존재하지 않습니다. </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물함</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>배</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>특성(레벨,연료,내구도등)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>타임아웃</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한이 없습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증에 실패했습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공적으로 응답합니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 중인 유저가 아닙니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨이 부족하여 해당 지역에 접근하지 못합니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기를 놓쳤습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정</t>
+  </si>
+  <si>
+    <t>배 내구도 수리</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 수심보다 깊게 내릴 수 없습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>user(object)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM ‘account’ WHERE 'player_id'=?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM ‘user’ WHERE 'user_id'=?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>account(object)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(작성중 02.03~)</t>
+  </si>
+  <si>
+    <t>레벨업</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>피로도 감소</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 변동</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>진주 변동</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>player_id</t>
+  </si>
+  <si>
+    <t>nation</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>fatigue</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>pearl</t>
+  </si>
+  <si>
+    <t>inventory</t>
+  </si>
+  <si>
+    <t>item_type_id</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>item_count</t>
+  </si>
+  <si>
+    <t>boat</t>
+  </si>
+  <si>
+    <t>boat_id</t>
+  </si>
+  <si>
+    <t>durability</t>
+  </si>
+  <si>
+    <t>fuel</t>
+  </si>
+  <si>
+    <t>departure_time</t>
+  </si>
+  <si>
+    <t>map_id</t>
+  </si>
+  <si>
+    <t>water_tank</t>
+  </si>
+  <si>
+    <t>fish_id</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>caught_time</t>
+  </si>
+  <si>
+    <t>mailbox</t>
+  </si>
+  <si>
+    <t>recv_date</t>
+  </si>
+  <si>
+    <t>expr_date</t>
+  </si>
+  <si>
+    <t>collection</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>wind_volume</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>tide</t>
+  </si>
+  <si>
+    <t>auction</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>경험치 획득</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>weather(object)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO 'boat' VALUES(...)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기 배 제공</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역 이동</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'boat' SET map_id =? WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'user' SET level =?, exp =? WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'user' SET exp =? WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'user' SET fatigue =? WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'user' SET gold=? WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'user' SET pearl =? WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO 'user' VALUES (...)</t>
+  </si>
+  <si>
+    <t>INSERT INTO ‘account’ VALUES(...);</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 로그인 시</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기 획득</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO 'water_tank' VALUES(...)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM 'water_tank' WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 획득</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO 'inventory' VALUES(...)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도 소모</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM 'mailbox’ WHERE 'user_id'=?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO 'mailbox' VALUES(...)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId(int)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM ‘weather’ WHERE 'user_id'=?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM ‘inventory' WHERE 'user_id'=?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hiveID(string)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId(int), mapId(int)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 조회</t>
+  </si>
+  <si>
+    <t>인벤토리에 해당 아이템의 개수가 부족합니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>requestHeader</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공 responseBody</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패 responseBody</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/shop/buy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시 시작</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>map[array]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>inventory[array]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM ‘map_data'</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipment(object)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>장착한 채비 조회</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId(int), itemTypeId(int), itemId(int)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipSlot(object)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 채비 장착해제</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/equipSlot/unequip</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/inventory/equip</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 채비 장착</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/inventory</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리(=장비) 조회</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용중인 배 조회</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_upgrade_data를 참조하고, 업그레이드 가능한 상황일 시 UPDATE 'inventory' SET item_id =? WHERE user_id =?, item_type_id =?, item_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈 차감&amp;연료 증가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>연료 구매</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'boat' SET fuel=? WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM ‘boat' WHERE 'user_id'=?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>collection[array]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId(int), depth(int)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mailBox[array]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM ‘inventory’ WHERE 'user_id'=?, is_equipped=1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_equipped</t>
+  </si>
+  <si>
+    <t>UPDATE 'boat' SET durability=? WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>장착 또는 장착 해제</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/inventory/repair</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/boat/repair</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 내구도 수리</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물 수령</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화면 User. 배면 Boat. 장비면 inventory. INSERT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>도감 조회</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM 'collection' WHERE 'user_id'=?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 획득</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>waterTank[array]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매 조회</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM ‘auction’ WHERE 'user_id'=?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>auction[array]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선 delete로 하고 추후에 flag속성으로 바꿀 예정</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE FROM 'water_tank' WHERE user_id=?, num =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨제한.내구도.채비유무.유저 상태..등 확인하고 승인or반려</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 상태 확인하고 승인 or반려</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>피로도 감소. 내구도 감소</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'inventory' SET durability=? WHERE user_id =?, item_type_id =?, item_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'inventory' SET is_equipped=? WHERE user_id =?, item_type_id =?, item_id =?, is_equipped =?, durability &gt;0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/equipSlot</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'boat'' SET boat_id =?, durability =?, fuel =? WHERE user_id =?, boat_id =?</t>
+  </si>
+  <si>
+    <t>boat_upgrade_data를 참조하고 조건 만족하는 경우</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd는?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>boat(object)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(경매에)물고기 판매</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>auction table에도 미리 추가 or 경매 테이블 조회할 때 수조에서 있는 물고기들 그 때 추가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId(int), fishNum(int)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/weeklyRanking</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주간 순위 조회</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO 'collection' VALUES(...)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡은 어종 도감에 추가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>변화값 업데이트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'weather' SET wind_volume =? WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'weather' SET temperature =? WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'weather' SET tide =? WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranking[array]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranking</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>week_date</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold_sum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM ‘ranking’ WHERE 'user_id'=?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM ‘shop’ WHERE 'user_id'=?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_type_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_count</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 아이템 구매</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(상점에)아이템 판매</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId(int), itemNum(int)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE FROM 'inventory' WHERE user_id=?, num=?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>/shop/sell</t>
-  </si>
-  <si>
-    <t>상점에 아이템 판매</t>
-  </si>
-  <si>
-    <t>/waterTank</t>
-  </si>
-  <si>
-    <t>수조 조회</t>
-  </si>
-  <si>
-    <t>/auction</t>
-  </si>
-  <si>
-    <t>경매 조회</t>
-  </si>
-  <si>
-    <t>/auction/sellFish</t>
-  </si>
-  <si>
-    <t>경매에 물고기 판매</t>
-  </si>
-  <si>
-    <t>/departure</t>
-  </si>
-  <si>
-    <t>출항</t>
-  </si>
-  <si>
-    <t>/arrival</t>
-  </si>
-  <si>
-    <t>입항</t>
-  </si>
-  <si>
-    <t>/fishing/start</t>
-  </si>
-  <si>
-    <t>/fishing/end</t>
-  </si>
-  <si>
-    <t>낚시 취소</t>
-  </si>
-  <si>
-    <t>response_code</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>response_type</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>response_msg</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid가 존재하지 않습니다</t>
-  </si>
-  <si>
-    <t>장비의 내구도가 모자랍니다.</t>
-  </si>
-  <si>
-    <t>소모품이 모자랍니다</t>
-  </si>
-  <si>
-    <t>연료가 모자랍니다</t>
-  </si>
-  <si>
-    <t>배의 내구도가 모자랍니다.</t>
-  </si>
-  <si>
-    <t>골드가 모자랍니다.</t>
-  </si>
-  <si>
-    <t>구매 가능한 시간을 초과했습니다.</t>
-  </si>
-  <si>
-    <t>Bad Request</t>
-  </si>
-  <si>
-    <t>Success</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>클라이언트가 유효하지 않은 요청을 보낸 경우</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>request body나 parameter를 확인하세요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unauthorized </t>
-  </si>
-  <si>
-    <t>해당 서버에 클라이언트 인증이 실패한 경우</t>
-  </si>
-  <si>
-    <t>Forbidden</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>클라이언트가 인증은 됐지만 요청한 자원에 대한 권한은 없는 경우</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터를 가져올 수 없습니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>요청한 자원이 존재하지 않는 경우</t>
-  </si>
-  <si>
-    <t>Not Found</t>
-  </si>
-  <si>
-    <t>Internal Server Error</t>
-  </si>
-  <si>
-    <t>서버에서 발생된 일반적인 에러</t>
-  </si>
-  <si>
-    <t>서버에서 문제가 발생했습니다. 에러 상황을 전달해주세요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">hive 계정이 존재하지 않습니다. </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>물고기</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>재화</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>인벤토리</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>선물함</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>배</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>특성(레벨,연료,내구도등)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>타임아웃</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한이 없습니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증에 실패했습니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>성공적으로 응답합니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 중인 유저가 아닙니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨이 부족하여 해당 지역에 접근하지 못합니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>물고기를 놓쳤습니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정</t>
-  </si>
-  <si>
-    <t>배 내구도 수리</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 수심보다 깊게 내릴 수 없습니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>user(object)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>/user</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM ‘account’ WHERE 'player_id'=?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM ‘user’ WHERE 'user_id'=?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>account(object)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(작성중 02.03~)</t>
-  </si>
-  <si>
-    <t>레벨업</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>피로도 감소</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>골드 변동</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>진주 변동</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>account</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>player_id</t>
-  </si>
-  <si>
-    <t>nation</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>nickname</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>exp</t>
-  </si>
-  <si>
-    <t>fatigue</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>pearl</t>
-  </si>
-  <si>
-    <t>inventory</t>
-  </si>
-  <si>
-    <t>item_type_id</t>
-  </si>
-  <si>
-    <t>item_id</t>
-  </si>
-  <si>
-    <t>item_count</t>
-  </si>
-  <si>
-    <t>boat</t>
-  </si>
-  <si>
-    <t>boat_id</t>
-  </si>
-  <si>
-    <t>durability</t>
-  </si>
-  <si>
-    <t>fuel</t>
-  </si>
-  <si>
-    <t>departure_time</t>
-  </si>
-  <si>
-    <t>map_id</t>
-  </si>
-  <si>
-    <t>water_tank</t>
-  </si>
-  <si>
-    <t>fish_id</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>caught_time</t>
-  </si>
-  <si>
-    <t>mailbox</t>
-  </si>
-  <si>
-    <t>recv_date</t>
-  </si>
-  <si>
-    <t>expr_date</t>
-  </si>
-  <si>
-    <t>collection</t>
-  </si>
-  <si>
-    <t>weather</t>
-  </si>
-  <si>
-    <t>wind_volume</t>
-  </si>
-  <si>
-    <t>temperature</t>
-  </si>
-  <si>
-    <t>tide</t>
-  </si>
-  <si>
-    <t>auction</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>경험치 획득</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>weather(object)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO 'boat' VALUES(...)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>초기 배 제공</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>position이 필요할까?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역 이동</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE 'boat' SET map_id =? WHERE user_id =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE 'user' SET level =?, exp =? WHERE user_id =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE 'user' SET exp =? WHERE user_id =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE 'user' SET fatigue =? WHERE user_id =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE 'user' SET gold=? WHERE user_id =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE 'user' SET pearl =? WHERE user_id =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO 'user' VALUES (...)</t>
-  </si>
-  <si>
-    <t>INSERT INTO ‘account’ VALUES(...);</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>최초 로그인 시</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>물고기 획득</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO 'water_tank' VALUES(...)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM 'water_tank' WHERE user_id =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 획득</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO 'inventory' VALUES(...)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 판매</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELETE FROM 'inventory' WHERE user_id=?, item_type_id=?, item_id=?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>내구도 소모</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM 'mailbox’ WHERE 'user_id'=?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO 'mailbox' VALUES(...)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId(int)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM ‘weather’ WHERE 'user_id'=?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM ‘inventory' WHERE 'user_id'=?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>action</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>hiveID(string)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId(int), mapId(int)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>인벤토리 조회</t>
-  </si>
-  <si>
-    <t>(작성중 02.04~)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>인벤토리에 해당 아이템의 개수가 부족합니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>requestHeader</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>성공 responseBody</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>실패 responseBody</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>/shop/buy</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시 시작</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>map[array]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>inventory[array]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM ‘map_data'</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipment(object)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>같은 장비가 두개면? 어떤거 업그레이드?.?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>장착한 채비 조회</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId(int), itemTypeId(int), itemId(int)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipSlot(object)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택한 채비 장착해제</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>/equipSlot/unequip</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>/inventory/equip</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택한 채비 장착</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>/inventory</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>인벤토리(=장비) 조회</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용중인 배 조회</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>equip_upgrade_data를 참조하고, 업그레이드 가능한 상황일 시 UPDATE 'inventory' SET item_id =? WHERE user_id =?, item_type_id =?, item_id =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈 차감&amp;연료 증가</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>연료 구매</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE 'boat' SET fuel=? WHERE user_id =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM ‘boat' WHERE 'user_id'=?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>collection[array]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId(int), depth(int)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>mailBox[array]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM ‘inventory’ WHERE 'user_id'=?, is_equipped=1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_equipped</t>
-  </si>
-  <si>
-    <t>UPDATE 'boat' SET durability=? WHERE user_id =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>장착 또는 장착 해제</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>/inventory/repair</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>/boat/repair</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비 내구도 수리</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>선물 수령</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>재화면 User. 배면 Boat. 장비면 inventory. INSERT</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>도감 조회</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM 'collection' WHERE 'user_id'=?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>보상 획득</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>waterTank[array]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>경매 조회</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM ‘auction’ WHERE 'user_id'=?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>auction[array]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>우선 delete로 하고 추후에 flag속성으로 바꿀 예정</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELETE FROM 'water_tank' WHERE user_id=?, num =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨제한.내구도.채비유무.유저 상태..등 확인하고 승인or반려</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 상태 확인하고 승인 or반려</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>피로도 감소. 내구도 감소</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE 'inventory' SET durability=? WHERE user_id =?, item_type_id =?, item_id =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE 'inventory' SET is_equipped=? WHERE user_id =?, item_type_id =?, item_id =?, is_equipped =?, durability &gt;0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>/equipSlot</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>업그레이드</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE 'boat'' SET boat_id =?, durability =?, fuel =? WHERE user_id =?, boat_id =?</t>
-  </si>
-  <si>
-    <t>boat_upgrade_data를 참조하고 조건 만족하는 경우</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwd는?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>boat(object)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(경매에)물고기 판매</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>auction table에도 미리 추가 or 경매 테이블 조회할 때 수조에서 있는 물고기들 그 때 추가</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId(int), fishNum(int)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>/weeklyRanking</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>주간 순위 조회</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop table?</t>
-  </si>
-  <si>
-    <t>ranking table?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT INTO 'collection' VALUES(...)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>잡은 어종 도감에 추가</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>변화값 업데이트</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE 'weather' SET wind_volume =? WHERE user_id =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE 'weather' SET temperature =? WHERE user_id =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE 'weather' SET tide =? WHERE user_id =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기서 아이템은 인벤토리 아이템이라 /inventory로 묶을지 /shop으로 묵을지 고민</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop[array]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_num</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 배의 좌표를 표현할 position을 넣을까</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>같은 장비가 두개면? 어떤거 업그레이드?</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1117,7 +1174,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1348,12 +1405,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1628,7 +1679,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1704,14 +1755,17 @@
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2072,8 +2126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2090,16 +2144,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:11">
@@ -2113,16 +2165,16 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>4</v>
@@ -2141,10 +2193,10 @@
         <v>7</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2157,9 +2209,11 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="25" t="s">
+        <v>168</v>
+      </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2167,16 +2221,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2190,10 +2244,10 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2207,10 +2261,10 @@
         <v>14</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" t="s">
@@ -2228,13 +2282,13 @@
         <v>17</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>186</v>
+        <v>179</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2242,16 +2296,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2265,13 +2319,13 @@
         <v>19</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F10" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="5" customFormat="1">
@@ -2279,52 +2333,52 @@
         <v>5</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="H11" s="26"/>
+        <v>180</v>
+      </c>
+      <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:11" s="5" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="H12" s="26"/>
+        <v>182</v>
+      </c>
+      <c r="H12" s="25"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F13" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H13" s="5"/>
     </row>
@@ -2333,18 +2387,18 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C14" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="H14" s="26"/>
+        <v>185</v>
+      </c>
+      <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
@@ -2354,13 +2408,13 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>235</v>
+        <v>164</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2374,13 +2428,13 @@
         <v>23</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>233</v>
+        <v>164</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2394,13 +2448,13 @@
         <v>25</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>200</v>
+        <v>164</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2408,18 +2462,18 @@
         <v>5</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="H18" s="26"/>
+        <v>164</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
@@ -2432,10 +2486,10 @@
         <v>27</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F19" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="5" customFormat="1">
@@ -2449,10 +2503,10 @@
         <v>29</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2466,10 +2520,10 @@
         <v>31</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2482,55 +2536,67 @@
       <c r="C22" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="H22" s="25" t="s">
-        <v>242</v>
-      </c>
+      <c r="E22" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="H23" s="25"/>
+      <c r="E23" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" t="s">
         <v>35</v>
       </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="H24" s="25"/>
+      <c r="E24" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
         <v>37</v>
       </c>
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
       <c r="E25" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F25" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2538,16 +2604,16 @@
         <v>5</v>
       </c>
       <c r="B26" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
         <v>39</v>
       </c>
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
       <c r="E26" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F26" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2555,16 +2621,16 @@
         <v>5</v>
       </c>
       <c r="B27" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
         <v>41</v>
       </c>
-      <c r="C27" t="s">
-        <v>42</v>
-      </c>
       <c r="E27" s="5" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2572,17 +2638,19 @@
         <v>5</v>
       </c>
       <c r="B28" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
         <v>43</v>
       </c>
-      <c r="C28" t="s">
-        <v>44</v>
-      </c>
       <c r="E28" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F28" s="25"/>
+        <v>169</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="H28" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2590,17 +2658,19 @@
         <v>5</v>
       </c>
       <c r="B29" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
         <v>45</v>
       </c>
-      <c r="C29" t="s">
-        <v>46</v>
-      </c>
       <c r="E29" t="s">
-        <v>168</v>
-      </c>
-      <c r="F29" s="25"/>
+        <v>164</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="H29" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2608,17 +2678,19 @@
         <v>5</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F30" s="25"/>
+        <v>199</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="H30" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2626,33 +2698,35 @@
         <v>5</v>
       </c>
       <c r="B31" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
         <v>48</v>
       </c>
-      <c r="C31" t="s">
-        <v>49</v>
-      </c>
       <c r="E31" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F31" s="25"/>
+        <v>164</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C32" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E32" t="s">
-        <v>168</v>
-      </c>
-      <c r="F32" s="25"/>
-      <c r="H32" s="25" t="s">
-        <v>243</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="H32" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2669,7 +2743,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2682,28 +2756,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="A1" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2711,10 +2785,10 @@
         <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2722,13 +2796,13 @@
         <v>400</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2736,13 +2810,13 @@
         <v>401</v>
       </c>
       <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
         <v>64</v>
-      </c>
-      <c r="C5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2750,13 +2824,13 @@
         <v>403</v>
       </c>
       <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
         <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2764,13 +2838,13 @@
         <v>404</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
         <v>68</v>
-      </c>
-      <c r="D7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2778,118 +2852,118 @@
         <v>500</v>
       </c>
       <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
         <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="B13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="B16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="C18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="C25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2904,9 +2978,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79EE227B-0D66-4E24-950B-DE4C63847A18}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2919,63 +2993,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1">
-      <c r="A1" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="5"/>
     </row>
@@ -2984,467 +3056,553 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="5" customFormat="1"/>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="5" customFormat="1">
       <c r="A19" s="12" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" t="s">
-        <v>164</v>
-      </c>
-      <c r="D19" t="s">
-        <v>223</v>
+        <v>172</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" t="s">
-        <v>176</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>170</v>
+      <c r="A20" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" t="s">
+        <v>257</v>
+      </c>
+      <c r="D20" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="D22" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="5" customFormat="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>228</v>
+        <v>121</v>
+      </c>
+      <c r="D23" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="5" customFormat="1">
       <c r="A24" s="9" t="s">
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="5" customFormat="1">
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B26" t="s">
-        <v>146</v>
-      </c>
-      <c r="C26" s="16" t="s">
+      <c r="A25" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="5" customFormat="1">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" t="s">
         <v>145</v>
       </c>
-      <c r="D26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>231</v>
-      </c>
       <c r="C28" s="5" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" t="s">
-        <v>165</v>
+        <v>123</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="13" t="s">
-        <v>126</v>
+      <c r="A30" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="B30" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="5" customFormat="1">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C32" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="5" customFormat="1">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="5" customFormat="1">
+      <c r="A36" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C36" s="16"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D34" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="9" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="10"/>
+    </row>
+    <row r="41" spans="1:4" s="5" customFormat="1">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B38" s="10"/>
-    </row>
-    <row r="39" spans="1:4" s="5" customFormat="1">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="5" t="s">
+      <c r="B42" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="5" customFormat="1">
+      <c r="A43" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="C43" s="16"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B42" t="s">
-        <v>214</v>
-      </c>
-      <c r="C42" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="9" t="s">
-        <v>122</v>
+      <c r="C44" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="9" t="s">
-        <v>134</v>
+        <v>119</v>
+      </c>
+      <c r="B45" t="s">
+        <v>208</v>
+      </c>
+      <c r="C45" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B49" s="6"/>
+    </row>
+    <row r="50" spans="1:3" s="5" customFormat="1">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B46" s="6"/>
-    </row>
-    <row r="47" spans="1:4" s="5" customFormat="1">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B48" t="s">
-        <v>216</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B49" t="s">
-        <v>245</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="1:3" s="5" customFormat="1">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
+      <c r="B51" t="s">
+        <v>210</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>169</v>
+      <c r="A52" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" t="s">
+        <v>237</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="6"/>
+    </row>
+    <row r="54" spans="1:3" s="5" customFormat="1">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B58" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="5" customFormat="1"/>
+    <row r="61" spans="1:3">
+      <c r="A61" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B61" t="s">
+        <v>214</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="5" customFormat="1">
+      <c r="A62" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" s="11"/>
+    </row>
+    <row r="66" spans="1:3" s="5" customFormat="1">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="5" customFormat="1">
+      <c r="A68" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="5" customFormat="1">
+      <c r="A69" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C54" s="5" t="s">
+    </row>
+    <row r="70" spans="1:3" s="5" customFormat="1">
+      <c r="A70" s="27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="5" customFormat="1">
+      <c r="A71" s="27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="27" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" s="5" customFormat="1"/>
-    <row r="58" spans="1:3">
-      <c r="A58" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="B58" t="s">
-        <v>220</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B61" s="11"/>
-    </row>
-    <row r="62" spans="1:3" s="5" customFormat="1">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/우럭아왜우럭 API 설계.xlsx
+++ b/docs/우럭아왜우럭 API 설계.xlsx
@@ -8,21 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\UrukGame\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEC64EE-AAFF-46E3-AC46-81C3761FC365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C152BB-4C55-4FAF-86EE-5A21BA4CEEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{83EBD1F1-D894-4B36-90FB-EB8F16775886}"/>
   </bookViews>
   <sheets>
     <sheet name="API 명세" sheetId="1" r:id="rId1"/>
     <sheet name="API error 응답" sheetId="2" r:id="rId2"/>
     <sheet name="DML" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="275">
   <si>
     <t>Method</t>
   </si>
@@ -69,9 +80,6 @@
     <t>날씨 정보 조회</t>
   </si>
   <si>
-    <t>바람, 기온, 조류</t>
-  </si>
-  <si>
     <t>/map</t>
   </si>
   <si>
@@ -168,9 +176,6 @@
     <t>/fishing/end</t>
   </si>
   <si>
-    <t>낚시 취소</t>
-  </si>
-  <si>
     <t>response_code</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -183,163 +188,18 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>userid가 존재하지 않습니다</t>
-  </si>
-  <si>
-    <t>장비의 내구도가 모자랍니다.</t>
-  </si>
-  <si>
-    <t>소모품이 모자랍니다</t>
-  </si>
-  <si>
-    <t>연료가 모자랍니다</t>
-  </si>
-  <si>
-    <t>배의 내구도가 모자랍니다.</t>
-  </si>
-  <si>
-    <t>골드가 모자랍니다.</t>
-  </si>
-  <si>
-    <t>구매 가능한 시간을 초과했습니다.</t>
-  </si>
-  <si>
-    <t>Bad Request</t>
-  </si>
-  <si>
     <t>Success</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>클라이언트가 유효하지 않은 요청을 보낸 경우</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>request body나 parameter를 확인하세요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unauthorized </t>
-  </si>
-  <si>
-    <t>해당 서버에 클라이언트 인증이 실패한 경우</t>
-  </si>
-  <si>
-    <t>Forbidden</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>클라이언트가 인증은 됐지만 요청한 자원에 대한 권한은 없는 경우</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터를 가져올 수 없습니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>요청한 자원이 존재하지 않는 경우</t>
-  </si>
-  <si>
-    <t>Not Found</t>
-  </si>
-  <si>
-    <t>Internal Server Error</t>
-  </si>
-  <si>
-    <t>서버에서 발생된 일반적인 에러</t>
-  </si>
-  <si>
-    <t>서버에서 문제가 발생했습니다. 에러 상황을 전달해주세요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">hive 계정이 존재하지 않습니다. </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>물고기</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>재화</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>인벤토리</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>선물함</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>배</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>특성(레벨,연료,내구도등)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>낚시</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>타임아웃</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한이 없습니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증에 실패했습니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>성공적으로 응답합니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>비고</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>로그인 중인 유저가 아닙니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨이 부족하여 해당 지역에 접근하지 못합니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>물고기를 놓쳤습니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정</t>
-  </si>
-  <si>
     <t>배 내구도 수리</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>최대 수심보다 깊게 내릴 수 없습니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>user(object)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -364,9 +224,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>(작성중 02.03~)</t>
-  </si>
-  <si>
     <t>레벨업</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -570,10 +427,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT * FROM 'mailbox’ WHERE 'user_id'=?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>INSERT INTO 'mailbox' VALUES(...)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -582,10 +435,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT * FROM ‘weather’ WHERE 'user_id'=?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>SELECT * FROM ‘inventory' WHERE 'user_id'=?</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -613,10 +462,6 @@
     <t>인벤토리 조회</t>
   </si>
   <si>
-    <t>인벤토리에 해당 아이템의 개수가 부족합니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>requestHeader</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -625,10 +470,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>실패 responseBody</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>/shop/buy</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -693,14 +534,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>equip_upgrade_data를 참조하고, 업그레이드 가능한 상황일 시 UPDATE 'inventory' SET item_id =? WHERE user_id =?, item_type_id =?, item_id =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈 차감&amp;연료 증가</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>연료 구매</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -709,10 +542,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT * FROM ‘boat' WHERE 'user_id'=?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>collection[array]</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -756,18 +585,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>재화면 User. 배면 Boat. 장비면 inventory. INSERT</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>도감 조회</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT * FROM 'collection' WHERE 'user_id'=?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>보상 획득</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -796,26 +617,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>레벨제한.내구도.채비유무.유저 상태..등 확인하고 승인or반려</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 상태 확인하고 승인 or반려</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>피로도 감소. 내구도 감소</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE 'inventory' SET durability=? WHERE user_id =?, item_type_id =?, item_id =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE 'inventory' SET is_equipped=? WHERE user_id =?, item_type_id =?, item_id =?, is_equipped =?, durability &gt;0</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>/equipSlot</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -827,10 +628,6 @@
     <t>UPDATE 'boat'' SET boat_id =?, durability =?, fuel =? WHERE user_id =?, boat_id =?</t>
   </si>
   <si>
-    <t>boat_upgrade_data를 참조하고 조건 만족하는 경우</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>pwd는?</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -943,10 +740,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>userId(int), itemNum(int)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>DELETE FROM 'inventory' WHERE user_id=?, num=?</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -955,10 +748,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>여기서 아이템은 인벤토리 아이템이라 /inventory로 묶을지 /shop으로 묵을지 고민</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>shop[array]</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -967,11 +756,432 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>실시간 배의 좌표를 표현할 position을 넣을까</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>같은 장비가 두개면? 어떤거 업그레이드?</t>
+    <t>InvalidError</t>
+  </si>
+  <si>
+    <t>UnknownUser</t>
+  </si>
+  <si>
+    <t>UnknownItemType</t>
+  </si>
+  <si>
+    <t>알 수 없는 아이템타입</t>
+  </si>
+  <si>
+    <t>UnknownItem</t>
+  </si>
+  <si>
+    <t>UnknownMap</t>
+  </si>
+  <si>
+    <t>UnknownMail</t>
+  </si>
+  <si>
+    <t>알 수 없는 메일</t>
+  </si>
+  <si>
+    <t>UnknownHiveUID</t>
+  </si>
+  <si>
+    <t>알 수 없는 HiveUID</t>
+  </si>
+  <si>
+    <t>알 수 없는 세션</t>
+  </si>
+  <si>
+    <t>UnknownFish</t>
+  </si>
+  <si>
+    <t>알 수 없는 물고기</t>
+  </si>
+  <si>
+    <t>UpgradeFailure</t>
+  </si>
+  <si>
+    <t>FishingFailure</t>
+  </si>
+  <si>
+    <t>MaxLevel</t>
+  </si>
+  <si>
+    <t>MaxGrade</t>
+  </si>
+  <si>
+    <t>낚시 종료</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvalidWaterDepth</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnknownSession</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SessionExpire</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldShortage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PearlShortage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FatigueShortage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>InventorySpaceShortage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvalidFishState</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비가 완료되지 않았습니다.</t>
+  </si>
+  <si>
+    <t>로그인중인 유저가 아니라 다른 유저로 요청하면? 그래서 세션도 넘겨야하나</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoatDurabilityShortage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrepDurabilityShortage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId(int), itemNum(int), itemCount(int)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId(int), mailNum(int)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM 'mailbox’ WHERE user_id=?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM 'collection' WHERE user_id=?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM ‘weather’ WHERE user_id=?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM ‘boat' WHERE user_id=?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE FROM 'mailbox' WHERE user_id=?, num=? + INSERT 재화면 User. 배면 Boat. 장비면 Inventory.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelShortage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CountShortage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotReady</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공했습니다.</t>
+  </si>
+  <si>
+    <t>세션이 만료되었습니다.</t>
+  </si>
+  <si>
+    <t>유통기한(3일)이 지난 물고기입니다.</t>
+  </si>
+  <si>
+    <t>진주가 부족합니다.</t>
+  </si>
+  <si>
+    <t>채비의 내구도가 부족합니다.</t>
+  </si>
+  <si>
+    <t>인벤토리의 공간이 부족합니다.</t>
+  </si>
+  <si>
+    <t>수심이 잘못 설정되었습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>레벨보다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>낮습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개수보다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개수가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부족합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>강화에 실패하였습니다.</t>
+  </si>
+  <si>
+    <t>낚시에 실패하였습니다.</t>
+  </si>
+  <si>
+    <t>이미 최대 레벨입니다.</t>
+  </si>
+  <si>
+    <t>이미 최대 등급입니다.</t>
+  </si>
+  <si>
+    <t>골드가 부족합니다.</t>
+  </si>
+  <si>
+    <t>피로도가 부족합니다.</t>
+  </si>
+  <si>
+    <t>UPDATE 'inventory' SET item_id=? WHERE user_id =?, num =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'inventory' SET durability=? WHERE user_id =?, num =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE 'inventory' SET is_equipped=? WHERE user_id =?, num =?, is_equipped =?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_upgrade_data를 참조</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish(object) or equipment(object)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 남은 내구도, 미끼 수 등..도 return</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>배의 내구도가 부족합니다.</t>
+  </si>
+  <si>
+    <t>배의 연료가 부족합니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuelShortage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>알 수 없는 오류</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>알 수 없는 아이템</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>알 수 없는 유저</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>알 수 없는 맵</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패 responseCode</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패 responseMsg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>boat_upgrade_data를 참조</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기서 아이템은 인벤토리 아이템이라 /inventory로 묶을지 /shop으로 묶을지 고민</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>User State 확인</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -979,7 +1189,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1172,6 +1382,19 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="42">
@@ -1679,7 +1902,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1758,14 +1981,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2124,37 +2366,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="7.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.58203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="72.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="72.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:11">
+    <row r="1" spans="1:12">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2165,24 +2409,27 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>176</v>
+        <v>270</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2193,13 +2440,21 @@
         <v>7</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>58</v>
+      </c>
+      <c r="G3" s="36">
+        <f>'API error 응답'!A$11</f>
+        <v>507</v>
+      </c>
+      <c r="H3" s="36" t="str">
+        <f>'API error 응답'!$B$11</f>
+        <v>UnknownHiveUID</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2210,761 +2465,1485 @@
         <v>9</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>58</v>
+      </c>
+      <c r="G4" s="36">
+        <f>'API error 응답'!A$11</f>
+        <v>507</v>
+      </c>
+      <c r="H4" s="36" t="str">
+        <f>'API error 응답'!$B$11</f>
+        <v>UnknownHiveUID</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>53</v>
+      </c>
+      <c r="G5" s="36">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H5" s="36" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
-        <v>164</v>
+      <c r="E6" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>53</v>
+      </c>
+      <c r="G6" s="36">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H6" s="36" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1">
+      <c r="G7" s="37">
+        <f>'API error 응답'!$A$21</f>
+        <v>607</v>
+      </c>
+      <c r="H7" s="37" t="str">
+        <f>'API error 응답'!$B$21</f>
+        <v>GoldShortage</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>100</v>
+      </c>
+      <c r="G8" s="36">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H8" s="36" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>190</v>
+      <c r="B9" t="s">
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>172</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="H9" s="36"/>
+      <c r="I9" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="36">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H10" s="36" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F10" t="s">
-        <v>182</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="5" customFormat="1">
-      <c r="A11" s="5" t="s">
+      <c r="E11" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="36">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H11" s="36" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1">
+      <c r="B12" s="24"/>
+      <c r="G12" s="36">
+        <f>'API error 응답'!$A$7</f>
+        <v>503</v>
+      </c>
+      <c r="H12" s="36" t="str">
+        <f>'API error 응답'!$B$7</f>
+        <v>UnknownItemType</v>
+      </c>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1">
+      <c r="B13" s="24"/>
+      <c r="G13" s="36">
+        <f>'API error 응답'!$A$8</f>
+        <v>504</v>
+      </c>
+      <c r="H13" s="36" t="str">
+        <f>'API error 응답'!$B$8</f>
+        <v>UnknownItem</v>
+      </c>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:12" s="5" customFormat="1">
+      <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="H11" s="25"/>
-    </row>
-    <row r="12" spans="1:11" s="5" customFormat="1">
-      <c r="A12" s="5" t="s">
+      <c r="B14" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="36">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H14" s="36" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:12" s="5" customFormat="1">
+      <c r="B15" s="24"/>
+      <c r="G15" s="36">
+        <f>'API error 응답'!$A$7</f>
+        <v>503</v>
+      </c>
+      <c r="H15" s="36" t="str">
+        <f>'API error 응답'!$B$7</f>
+        <v>UnknownItemType</v>
+      </c>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="1:12" s="5" customFormat="1">
+      <c r="B16" s="24"/>
+      <c r="G16" s="36">
+        <f>'API error 응답'!$A$8</f>
+        <v>504</v>
+      </c>
+      <c r="H16" s="36" t="str">
+        <f>'API error 응답'!$B$8</f>
+        <v>UnknownItem</v>
+      </c>
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="1:9" s="5" customFormat="1">
+      <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H12" s="25"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>224</v>
-      </c>
-      <c r="C13" t="s">
-        <v>183</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F13" t="s">
-        <v>185</v>
-      </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" t="s">
-        <v>186</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="H14" s="25"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>192</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
+      <c r="B17" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="C18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="H18" s="25"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="5" customFormat="1">
+        <v>137</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" s="36">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H17" s="36" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" s="5" customFormat="1">
+      <c r="B18" s="24"/>
+      <c r="G18" s="36">
+        <f>'API error 응답'!$A$7</f>
+        <v>503</v>
+      </c>
+      <c r="H18" s="36" t="str">
+        <f>'API error 응답'!$B$7</f>
+        <v>UnknownItemType</v>
+      </c>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="1:9" s="5" customFormat="1">
+      <c r="B19" s="24"/>
+      <c r="G19" s="36">
+        <f>'API error 응답'!$A$8</f>
+        <v>504</v>
+      </c>
+      <c r="H19" s="36" t="str">
+        <f>'API error 응답'!$B$8</f>
+        <v>UnknownItem</v>
+      </c>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>28</v>
+      <c r="B20" t="s">
+        <v>167</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="F20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" s="36">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H20" s="36" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F21" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8">
+        <v>137</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="36">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H21" s="36" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="1:9" s="5" customFormat="1">
+      <c r="G22" s="36">
+        <f>'API error 응답'!$A$7</f>
+        <v>503</v>
+      </c>
+      <c r="H22" s="36" t="str">
+        <f>'API error 응답'!$B$7</f>
+        <v>UnknownItemType</v>
+      </c>
+      <c r="I22" s="25"/>
+    </row>
+    <row r="23" spans="1:9" s="5" customFormat="1">
+      <c r="G23" s="36">
+        <f>'API error 응답'!$A$8</f>
+        <v>504</v>
+      </c>
+      <c r="H23" s="36" t="str">
+        <f>'API error 응답'!$B$8</f>
+        <v>UnknownItem</v>
+      </c>
+      <c r="I23" s="25"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>258</v>
+      <c r="B24" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>256</v>
+        <v>120</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>171</v>
+      </c>
+      <c r="G24" s="36">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H24" s="36" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="B25" t="s">
-        <v>36</v>
+      <c r="B25" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F25" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F26" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" s="36">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H25" s="36" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="5" customFormat="1">
+      <c r="B26" s="23"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="36">
+        <f>'API error 응답'!$A$24</f>
+        <v>610</v>
+      </c>
+      <c r="H26" s="36" t="str">
+        <f>'API error 응답'!$B$24</f>
+        <v>FuelShortage</v>
+      </c>
+      <c r="I26" s="25"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>40</v>
+      <c r="B27" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H28" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" s="36">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H27" s="36" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+      <c r="I27" s="25"/>
+    </row>
+    <row r="28" spans="1:9" s="5" customFormat="1">
+      <c r="B28" s="23"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="36">
+        <f>'API error 응답'!$A$21</f>
+        <v>607</v>
+      </c>
+      <c r="H28" s="36" t="str">
+        <f>'API error 응답'!$B$21</f>
+        <v>GoldShortage</v>
+      </c>
+      <c r="I28" s="25"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="20" t="s">
-        <v>44</v>
+      <c r="B29" s="23" t="s">
+        <v>156</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" t="s">
-        <v>164</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" t="s">
-        <v>178</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="H30" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" s="36">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H29" s="36" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+      <c r="I29" s="25"/>
+    </row>
+    <row r="30" spans="1:9" s="5" customFormat="1">
+      <c r="B30" s="23"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="36">
+        <f>'API error 응답'!$A$21</f>
+        <v>607</v>
+      </c>
+      <c r="H30" s="36" t="str">
+        <f>'API error 응답'!$B$21</f>
+        <v>GoldShortage</v>
+      </c>
+      <c r="I30" s="25"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>47</v>
+      <c r="B31" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E31" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" t="s">
+        <v>150</v>
+      </c>
+      <c r="G31" s="36">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H31" s="36" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="5" customFormat="1">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G32" s="36">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H32" s="36" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="5" customFormat="1">
+      <c r="B33" s="17"/>
+      <c r="G33" s="36">
+        <f>'API error 응답'!$A$10</f>
+        <v>506</v>
+      </c>
+      <c r="H33" s="36" t="str">
+        <f>'API error 응답'!$B$10</f>
+        <v>UnknownMail</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="5" customFormat="1">
+      <c r="B34" s="17"/>
+      <c r="G34" s="36">
+        <f>'API error 응답'!$A$27</f>
+        <v>613</v>
+      </c>
+      <c r="H34" s="36" t="str">
+        <f>'API error 응답'!$B$27</f>
+        <v>InventorySpaceShortage</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" t="s">
+        <v>148</v>
+      </c>
+      <c r="G35" s="36">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H35" s="36" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="G36" s="36">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H36" s="36" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="G37" s="36">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H37" s="36" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" s="5" customFormat="1">
+      <c r="B38" s="22"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="36">
+        <f>'API error 응답'!$A$8</f>
+        <v>504</v>
+      </c>
+      <c r="H38" s="36" t="str">
+        <f>'API error 응답'!$B$8</f>
+        <v>UnknownItem</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="5" customFormat="1">
+      <c r="B39" s="22"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="36">
+        <f>'API error 응답'!$A$21</f>
+        <v>607</v>
+      </c>
+      <c r="H39" s="36" t="str">
+        <f>'API error 응답'!$B$21</f>
+        <v>GoldShortage</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="5" customFormat="1">
+      <c r="B40" s="22"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="36">
+        <f>'API error 응답'!$A$22</f>
+        <v>608</v>
+      </c>
+      <c r="H40" s="36" t="str">
+        <f>'API error 응답'!$B$20</f>
+        <v>InvalidFishState</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="5" customFormat="1">
+      <c r="B41" s="22"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="36">
+        <f>'API error 응답'!$A$27</f>
+        <v>613</v>
+      </c>
+      <c r="H41" s="36" t="str">
+        <f>'API error 응답'!$B$27</f>
+        <v>InventorySpaceShortage</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="5" customFormat="1">
+      <c r="B42" s="22"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="36">
+        <f>'API error 응답'!$A$29</f>
+        <v>615</v>
+      </c>
+      <c r="H42" s="36" t="str">
+        <f>'API error 응답'!$B$29</f>
+        <v>CountShortage</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="G43" s="36">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H43" s="36" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="5" customFormat="1">
+      <c r="B44" s="22"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="36">
+        <f>'API error 응답'!$A$8</f>
+        <v>504</v>
+      </c>
+      <c r="H44" s="36" t="str">
+        <f>'API error 응답'!$B$8</f>
+        <v>UnknownItem</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="5" customFormat="1">
+      <c r="B45" s="22"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="36">
+        <f>'API error 응답'!$A$29</f>
+        <v>615</v>
+      </c>
+      <c r="H45" s="36" t="str">
+        <f>'API error 응답'!$B$29</f>
+        <v>CountShortage</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F46" t="s">
+        <v>161</v>
+      </c>
+      <c r="G46" s="36">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H46" s="36" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F47" t="s">
         <v>164</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="5" t="s">
+      <c r="G47" s="36">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H47" s="36" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
         <v>5</v>
       </c>
-      <c r="B32" t="s">
-        <v>234</v>
-      </c>
-      <c r="C32" t="s">
-        <v>235</v>
-      </c>
-      <c r="E32" t="s">
-        <v>164</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="H32" s="5"/>
+      <c r="B48" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G48" s="36">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H48" s="36" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="5" customFormat="1">
+      <c r="B49" s="21"/>
+      <c r="G49" s="36">
+        <f>'API error 응답'!$A$12</f>
+        <v>508</v>
+      </c>
+      <c r="H49" s="36" t="str">
+        <f>'API error 응답'!$B$12</f>
+        <v>UnknownFish</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G50" s="36">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H50" s="36" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="5" customFormat="1">
+      <c r="B51" s="20"/>
+      <c r="G51" s="36">
+        <f>'API error 응답'!$A$9</f>
+        <v>505</v>
+      </c>
+      <c r="H51" s="36" t="str">
+        <f>'API error 응답'!$B$9</f>
+        <v>UnknownMap</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="5" customFormat="1">
+      <c r="B52" s="20"/>
+      <c r="G52" s="36">
+        <f>'API error 응답'!$A$23</f>
+        <v>609</v>
+      </c>
+      <c r="H52" s="36" t="str">
+        <f>'API error 응답'!$B$23</f>
+        <v>FatigueShortage</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="5" customFormat="1">
+      <c r="B53" s="20"/>
+      <c r="G53" s="36">
+        <f>'API error 응답'!$A$24</f>
+        <v>610</v>
+      </c>
+      <c r="H53" s="36" t="str">
+        <f>'API error 응답'!$B$24</f>
+        <v>FuelShortage</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="5" customFormat="1">
+      <c r="B54" s="20"/>
+      <c r="G54" s="36">
+        <f>'API error 응답'!$A$28</f>
+        <v>614</v>
+      </c>
+      <c r="H54" s="36" t="str">
+        <f>'API error 응답'!$B$28</f>
+        <v>LevelShortage</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="5" customFormat="1">
+      <c r="B55" s="20"/>
+      <c r="G55" s="36">
+        <f>'API error 응답'!$A$30</f>
+        <v>616</v>
+      </c>
+      <c r="H55" s="36" t="str">
+        <f>'API error 응답'!$B$30</f>
+        <v>NotReady</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" t="s">
+        <v>120</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G56" s="36">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H56" s="36" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+      <c r="I56" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C57" t="s">
+        <v>131</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G57" s="36">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H57" s="36" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="5" customFormat="1">
+      <c r="B58" s="19"/>
+      <c r="G58" s="36">
+        <f>'API error 응답'!$A$26</f>
+        <v>612</v>
+      </c>
+      <c r="H58" s="36" t="str">
+        <f>'API error 응답'!$B$26</f>
+        <v>PrepDurabilityShortage</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="5" customFormat="1">
+      <c r="B59" s="19"/>
+      <c r="G59" s="36">
+        <f>'API error 응답'!$A$30</f>
+        <v>616</v>
+      </c>
+      <c r="H59" s="36" t="str">
+        <f>'API error 응답'!$B$30</f>
+        <v>NotReady</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="5" customFormat="1">
+      <c r="B60" s="19"/>
+      <c r="G60" s="36">
+        <f>'API error 응답'!$A$31</f>
+        <v>617</v>
+      </c>
+      <c r="H60" s="36" t="str">
+        <f>'API error 응답'!$B$31</f>
+        <v>InvalidWaterDepth</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" t="s">
+        <v>219</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="G61" s="36">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H61" s="36" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C62" t="s">
+        <v>177</v>
+      </c>
+      <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G62" s="36">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H62" s="36" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+      <c r="I62" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="G7:H7 G26:H49" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D026DD-3163-41FA-9329-52BDE255F628}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.58203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1">
+      <c r="A3" s="31">
+        <v>200</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>200</v>
-      </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>400</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>401</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" t="s">
-        <v>64</v>
+      <c r="C3" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="33"/>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1">
+      <c r="A4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="D4" s="33"/>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1">
+      <c r="A5" s="31">
+        <v>501</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6">
-        <v>403</v>
-      </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" t="s">
-        <v>66</v>
+      <c r="A6" s="31">
+        <v>502</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7">
-        <v>404</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" t="s">
-        <v>68</v>
-      </c>
+      <c r="A7" s="31">
+        <v>503</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8">
-        <v>500</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" t="s">
-        <v>71</v>
+      <c r="A8" s="31">
+        <v>504</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="31">
+        <v>505</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="31">
+        <v>506</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="31">
+        <v>507</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
+      <c r="A12" s="31">
+        <v>508</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" t="s">
-        <v>77</v>
-      </c>
+      <c r="A13" s="31">
+        <v>509</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1">
+      <c r="A14" s="31"/>
+      <c r="B14" s="30"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
+      <c r="A15" s="31">
+        <v>601</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
+      <c r="A16" s="31">
+        <v>602</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="31">
+        <v>603</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="31">
+        <v>604</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="31">
+        <v>605</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="31">
+        <v>606</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="31">
+        <v>607</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="31">
+        <v>608</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="31">
+        <v>609</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="5" customFormat="1">
+      <c r="A24" s="31">
+        <v>610</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="31">
+        <v>611</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>230</v>
+      </c>
       <c r="C25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" t="s">
-        <v>58</v>
-      </c>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="31">
+        <v>612</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="31">
+        <v>613</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="31">
+        <v>614</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="31">
+        <v>615</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="5" customFormat="1">
+      <c r="A30" s="31">
+        <v>616</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="31">
+        <v>617</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="31"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="31"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="31"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="31"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="31"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="31"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="C44" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2980,74 +3959,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79EE227B-0D66-4E24-950B-DE4C63847A18}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
         <v>170</v>
-      </c>
-      <c r="C3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="12" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="B7" s="5"/>
     </row>
@@ -3056,167 +4035,170 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="12" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="9" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="9" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="9" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="9" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="9" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="9" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="5" customFormat="1"/>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="5" customFormat="1">
       <c r="A19" s="12" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="12" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>255</v>
+        <v>197</v>
       </c>
       <c r="C20" t="s">
-        <v>257</v>
+        <v>198</v>
       </c>
       <c r="D20" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="9" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
-        <v>120</v>
+        <v>77</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D23" t="s">
-        <v>263</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="5" customFormat="1">
       <c r="A24" s="9" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="5" customFormat="1">
       <c r="A25" s="9" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="5" customFormat="1">
@@ -3224,76 +4206,73 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" t="s">
-        <v>262</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="12" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="9" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="9" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="13" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="13" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="13" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="5" customFormat="1">
@@ -3302,54 +4281,54 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="5" customFormat="1">
       <c r="A36" s="12" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="C36" s="16"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="12" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="9" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="9" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="9" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="B40" s="10"/>
     </row>
@@ -3359,61 +4338,61 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="8" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="5" customFormat="1">
-      <c r="A43" s="27" t="s">
-        <v>250</v>
+      <c r="A43" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="C43" s="16"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="12" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>162</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="9" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="C45" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="9" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="9" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="9" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="9" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="B49" s="6"/>
     </row>
@@ -3423,29 +4402,29 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="8" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="12" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="12" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="B53" s="6"/>
     </row>
@@ -3455,83 +4434,83 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="8" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="12" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="9" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="9" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="9" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="5" customFormat="1"/>
     <row r="61" spans="1:3">
       <c r="A61" s="14" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="B61" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="5" customFormat="1">
-      <c r="A62" s="27" t="s">
-        <v>250</v>
+      <c r="A62" s="26" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="13" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="15" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="15" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="B65" s="11"/>
     </row>
@@ -3541,67 +4520,67 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="14" t="s">
-        <v>243</v>
+        <v>185</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>249</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="5" customFormat="1">
-      <c r="A68" s="27" t="s">
-        <v>250</v>
+      <c r="A68" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="5" customFormat="1">
       <c r="A69" s="15" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="5" customFormat="1">
-      <c r="A70" s="27" t="s">
-        <v>251</v>
+      <c r="A70" s="26" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="5" customFormat="1">
-      <c r="A71" s="27" t="s">
-        <v>252</v>
+      <c r="A71" s="26" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="27" t="s">
-        <v>253</v>
+      <c r="A72" s="26" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="28" t="s">
-        <v>244</v>
+      <c r="A74" s="27" t="s">
+        <v>186</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>248</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="27" t="s">
-        <v>245</v>
+      <c r="A75" s="26" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="15" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="27" t="s">
-        <v>247</v>
+      <c r="A77" s="26" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/docs/우럭아왜우럭 API 설계.xlsx
+++ b/docs/우럭아왜우럭 API 설계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\UrukGame\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C152BB-4C55-4FAF-86EE-5A21BA4CEEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A415C5C-3DBC-42D1-B38A-39A5CDFD5728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{83EBD1F1-D894-4B36-90FB-EB8F16775886}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{83EBD1F1-D894-4B36-90FB-EB8F16775886}"/>
   </bookViews>
   <sheets>
     <sheet name="API 명세" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="DML" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="316">
   <si>
     <t>Method</t>
   </si>
@@ -498,10 +497,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>userId(int), itemTypeId(int), itemId(int)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>equipSlot(object)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -613,10 +608,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>DELETE FROM 'water_tank' WHERE user_id=?, num =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>/equipSlot</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -648,10 +639,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>userId(int), fishNum(int)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>/weeklyRanking</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -716,10 +703,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>num</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>item_type_id</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -740,10 +723,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>DELETE FROM 'inventory' WHERE user_id=?, num=?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>/shop/sell</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -752,10 +731,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>fish_num</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>InvalidError</t>
   </si>
   <si>
@@ -765,9 +740,6 @@
     <t>UnknownItemType</t>
   </si>
   <si>
-    <t>알 수 없는 아이템타입</t>
-  </si>
-  <si>
     <t>UnknownItem</t>
   </si>
   <si>
@@ -777,24 +749,12 @@
     <t>UnknownMail</t>
   </si>
   <si>
-    <t>알 수 없는 메일</t>
-  </si>
-  <si>
     <t>UnknownHiveUID</t>
   </si>
   <si>
-    <t>알 수 없는 HiveUID</t>
-  </si>
-  <si>
-    <t>알 수 없는 세션</t>
-  </si>
-  <si>
     <t>UnknownFish</t>
   </si>
   <si>
-    <t>알 수 없는 물고기</t>
-  </si>
-  <si>
     <t>UpgradeFailure</t>
   </si>
   <si>
@@ -858,14 +818,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>userId(int), itemNum(int), itemCount(int)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId(int), mailNum(int)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>SELECT * FROM 'mailbox’ WHERE user_id=?</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -882,10 +834,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>DELETE FROM 'mailbox' WHERE user_id=?, num=? + INSERT 재화면 User. 배면 Boat. 장비면 Inventory.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>LevelShortage</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -896,9 +844,6 @@
   <si>
     <t>NotReady</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>성공했습니다.</t>
   </si>
   <si>
     <t>세션이 만료되었습니다.</t>
@@ -1114,18 +1059,6 @@
     <t>피로도가 부족합니다.</t>
   </si>
   <si>
-    <t>UPDATE 'inventory' SET item_id=? WHERE user_id =?, num =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE 'inventory' SET durability=? WHERE user_id =?, num =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE 'inventory' SET is_equipped=? WHERE user_id =?, num =?, is_equipped =?</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>equip_upgrade_data를 참조</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1149,22 +1082,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>알 수 없는 오류</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>알 수 없는 아이템</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>알 수 없는 유저</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>알 수 없는 맵</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>실패 responseCode</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1182,6 +1099,241 @@
   </si>
   <si>
     <t>User State 확인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>알 수 없는 오류입니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>알 수 없는 유저입니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>알 수 없는 아이템타입입니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>알 수 없는 아이템입니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>알 수 없는 맵입니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>알 수 없는 메일입니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>알 수 없는 HiveUID입니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>알 수 없는 물고기입니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>알 수 없는 세션입니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공하였습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이브 아이디</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 아이디</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapId(int)</t>
+  </si>
+  <si>
+    <t>depth(int)</t>
+  </si>
+  <si>
+    <t>itemCount(int)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 인덱스</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>메일 인덱스</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 인덱스</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>수조 인덱스</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>auc_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>inv_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE FROM 'inventory' WHERE user_id=?, inv_id=?</t>
+  </si>
+  <si>
+    <t>UPDATE 'inventory' SET item_id=? WHERE user_id =?, inv_id =?</t>
+  </si>
+  <si>
+    <t>UPDATE 'inventory' SET durability=? WHERE user_id =?, inv_id =?</t>
+  </si>
+  <si>
+    <t>UPDATE 'inventory' SET is_equipped=? WHERE user_id =?, inv_id =?, is_equipped =?</t>
+  </si>
+  <si>
+    <t>DELETE FROM 'water_tank' WHERE user_id=?, fish_id =?</t>
+  </si>
+  <si>
+    <t>DELETE FROM 'mailbox' WHERE user_id=?, mail_id=? + INSERT 재화면 User. 배면 Boat. 장비면 Inventory.</t>
+  </si>
+  <si>
+    <t>tank_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId(int), invId(int)</t>
+  </si>
+  <si>
+    <t>userId(int), mailId(int)</t>
+  </si>
+  <si>
+    <t>userId(int), shopId(int), itemCount(int)</t>
+  </si>
+  <si>
+    <t>userId(int), invId(int), itemCount(int)</t>
+  </si>
+  <si>
+    <t>userId(int), fishId(int)</t>
+  </si>
+  <si>
+    <t>invId(int)</t>
+  </si>
+  <si>
+    <t>mailId(int)</t>
+  </si>
+  <si>
+    <t>shopId(int)</t>
+  </si>
+  <si>
+    <t>tankId(int)</t>
+  </si>
+  <si>
+    <t>맵 인덱스</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>찌를 던질 깊이</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 수량</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>requestBody 인자</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>responseBody</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish(object)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정info</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저info</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨info</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵info 리스트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비info</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비info 리스트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>배info</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>메일info 리스트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>도감물고기info 리스트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템info 리스트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>수조물고기info 리스트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매가능물고기info 리스트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>물고기info</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저누적판매info리스트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>//TODO: 개발하면서 채우기</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1902,7 +2054,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1987,27 +2139,29 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="21" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2366,1199 +2520,1400 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.25" customWidth="1"/>
+    <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.25" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="72.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="3:8" s="5" customFormat="1"/>
+    <row r="2" spans="3:8" s="5" customFormat="1">
+      <c r="C2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" s="5" customFormat="1">
+      <c r="C3" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" s="5" customFormat="1">
+      <c r="C4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" s="5" customFormat="1">
+      <c r="C5" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" s="5" customFormat="1">
+      <c r="C6" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" s="5" customFormat="1">
+      <c r="C7" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" s="5" customFormat="1">
+      <c r="C8" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" s="5" customFormat="1">
+      <c r="C9" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" s="5" customFormat="1">
+      <c r="C10" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" s="5" customFormat="1">
+      <c r="C11" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" s="5" customFormat="1">
+      <c r="F12" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" s="5" customFormat="1">
+      <c r="F13" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" s="5" customFormat="1">
+      <c r="F14" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" s="5" customFormat="1">
+      <c r="F15" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" s="5" customFormat="1">
+      <c r="F16" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="5" customFormat="1">
+      <c r="F17" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="5" customFormat="1">
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" spans="1:12" s="5" customFormat="1">
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="G21" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B22" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C22" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E22" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F22" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G22" s="30">
         <f>'API error 응답'!A$11</f>
         <v>507</v>
       </c>
-      <c r="H3" s="36" t="str">
+      <c r="H22" s="30" t="str">
         <f>'API error 응답'!$B$11</f>
         <v>UnknownHiveUID</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B23" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E23" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F23" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G23" s="30">
         <f>'API error 응답'!A$11</f>
         <v>507</v>
       </c>
-      <c r="H4" s="36" t="str">
+      <c r="H23" s="30" t="str">
         <f>'API error 응답'!$B$11</f>
         <v>UnknownHiveUID</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B24" t="s">
         <v>55</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C24" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F24" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G24" s="30">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H5" s="36" t="str">
+      <c r="H24" s="30" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G25" s="30">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H6" s="36" t="str">
+      <c r="H25" s="30" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="5" customFormat="1">
-      <c r="G7" s="37">
+    <row r="26" spans="1:12" s="5" customFormat="1">
+      <c r="G26" s="31">
         <f>'API error 응답'!$A$21</f>
         <v>607</v>
       </c>
-      <c r="H7" s="37" t="str">
+      <c r="H26" s="31" t="str">
         <f>'API error 응답'!$B$21</f>
         <v>GoldShortage</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B27" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C27" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G27" s="30">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H8" s="36" t="str">
+      <c r="H27" s="30" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B28" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C28" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="E28" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G9" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="H9" s="36"/>
-      <c r="I9" s="25" t="s">
+      <c r="G28" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="H28" s="30"/>
+      <c r="I28" s="25" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B29" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" t="s">
         <v>143</v>
       </c>
-      <c r="C10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F29" t="s">
         <v>133</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G29" s="30">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H10" s="36" t="str">
+      <c r="H29" s="30" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B30" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C30" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E30" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F30" t="s">
         <v>135</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G30" s="30">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H11" s="36" t="str">
+      <c r="H30" s="30" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
-      <c r="I11" s="25" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1">
-      <c r="B12" s="24"/>
-      <c r="G12" s="36">
+      <c r="I30" s="25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="5" customFormat="1">
+      <c r="B31" s="24"/>
+      <c r="G31" s="30">
         <f>'API error 응답'!$A$7</f>
         <v>503</v>
       </c>
-      <c r="H12" s="36" t="str">
+      <c r="H31" s="30" t="str">
         <f>'API error 응답'!$B$7</f>
         <v>UnknownItemType</v>
       </c>
-      <c r="I12" s="25"/>
-    </row>
-    <row r="13" spans="1:12" s="5" customFormat="1">
-      <c r="B13" s="24"/>
-      <c r="G13" s="36">
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32" spans="1:12" s="5" customFormat="1">
+      <c r="B32" s="24"/>
+      <c r="G32" s="30">
         <f>'API error 응답'!$A$8</f>
         <v>504</v>
       </c>
-      <c r="H13" s="36" t="str">
+      <c r="H32" s="30" t="str">
         <f>'API error 응답'!$B$8</f>
         <v>UnknownItem</v>
       </c>
-      <c r="I13" s="25"/>
-    </row>
-    <row r="14" spans="1:12" s="5" customFormat="1">
-      <c r="A14" s="5" t="s">
+      <c r="I32" s="25"/>
+    </row>
+    <row r="33" spans="1:9" s="5" customFormat="1">
+      <c r="A33" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B33" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="E33" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G33" s="30">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H14" s="36" t="str">
+      <c r="H33" s="30" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
-      <c r="I14" s="25"/>
-    </row>
-    <row r="15" spans="1:12" s="5" customFormat="1">
-      <c r="B15" s="24"/>
-      <c r="G15" s="36">
+      <c r="I33" s="25"/>
+    </row>
+    <row r="34" spans="1:9" s="5" customFormat="1">
+      <c r="B34" s="24"/>
+      <c r="G34" s="30">
         <f>'API error 응답'!$A$7</f>
         <v>503</v>
       </c>
-      <c r="H15" s="36" t="str">
+      <c r="H34" s="30" t="str">
         <f>'API error 응답'!$B$7</f>
         <v>UnknownItemType</v>
       </c>
-      <c r="I15" s="25"/>
-    </row>
-    <row r="16" spans="1:12" s="5" customFormat="1">
-      <c r="B16" s="24"/>
-      <c r="G16" s="36">
+      <c r="I34" s="25"/>
+    </row>
+    <row r="35" spans="1:9" s="5" customFormat="1">
+      <c r="B35" s="24"/>
+      <c r="G35" s="30">
         <f>'API error 응답'!$A$8</f>
         <v>504</v>
       </c>
-      <c r="H16" s="36" t="str">
+      <c r="H35" s="30" t="str">
         <f>'API error 응답'!$B$8</f>
         <v>UnknownItem</v>
       </c>
-      <c r="I16" s="25"/>
-    </row>
-    <row r="17" spans="1:9" s="5" customFormat="1">
-      <c r="A17" s="5" t="s">
+      <c r="I35" s="25"/>
+    </row>
+    <row r="36" spans="1:9" s="5" customFormat="1">
+      <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="B36" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G36" s="30">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H17" s="36" t="str">
+      <c r="H36" s="30" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
-      <c r="I17" s="25"/>
-    </row>
-    <row r="18" spans="1:9" s="5" customFormat="1">
-      <c r="B18" s="24"/>
-      <c r="G18" s="36">
+      <c r="I36" s="25"/>
+    </row>
+    <row r="37" spans="1:9" s="5" customFormat="1">
+      <c r="B37" s="24"/>
+      <c r="G37" s="30">
         <f>'API error 응답'!$A$7</f>
         <v>503</v>
       </c>
-      <c r="H18" s="36" t="str">
+      <c r="H37" s="30" t="str">
         <f>'API error 응답'!$B$7</f>
         <v>UnknownItemType</v>
       </c>
-      <c r="I18" s="25"/>
-    </row>
-    <row r="19" spans="1:9" s="5" customFormat="1">
-      <c r="B19" s="24"/>
-      <c r="G19" s="36">
+      <c r="I37" s="25"/>
+    </row>
+    <row r="38" spans="1:9" s="5" customFormat="1">
+      <c r="B38" s="24"/>
+      <c r="G38" s="30">
         <f>'API error 응답'!$A$8</f>
         <v>504</v>
       </c>
-      <c r="H19" s="36" t="str">
+      <c r="H38" s="30" t="str">
         <f>'API error 응답'!$B$8</f>
         <v>UnknownItem</v>
       </c>
-      <c r="I19" s="25"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
+      <c r="I38" s="25"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
         <v>5</v>
       </c>
-      <c r="B20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F20" t="s">
-        <v>138</v>
-      </c>
-      <c r="G20" s="36">
+      <c r="F39" t="s">
+        <v>137</v>
+      </c>
+      <c r="G39" s="30">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H20" s="36" t="str">
+      <c r="H39" s="30" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
         <v>5</v>
       </c>
-      <c r="B21" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B40" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="C40" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G21" s="36">
+      <c r="G40" s="30">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H21" s="36" t="str">
+      <c r="H40" s="30" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
-      <c r="I21" s="25"/>
-    </row>
-    <row r="22" spans="1:9" s="5" customFormat="1">
-      <c r="G22" s="36">
+      <c r="I40" s="25"/>
+    </row>
+    <row r="41" spans="1:9" s="5" customFormat="1">
+      <c r="G41" s="30">
         <f>'API error 응답'!$A$7</f>
         <v>503</v>
       </c>
-      <c r="H22" s="36" t="str">
+      <c r="H41" s="30" t="str">
         <f>'API error 응답'!$B$7</f>
         <v>UnknownItemType</v>
       </c>
-      <c r="I22" s="25"/>
-    </row>
-    <row r="23" spans="1:9" s="5" customFormat="1">
-      <c r="G23" s="36">
+      <c r="I41" s="25"/>
+    </row>
+    <row r="42" spans="1:9" s="5" customFormat="1">
+      <c r="G42" s="30">
         <f>'API error 응답'!$A$8</f>
         <v>504</v>
       </c>
-      <c r="H23" s="36" t="str">
+      <c r="H42" s="30" t="str">
         <f>'API error 응답'!$B$8</f>
         <v>UnknownItem</v>
       </c>
-      <c r="I23" s="25"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" t="s">
-        <v>145</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="G24" s="36">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H24" s="36" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="G25" s="36">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H25" s="36" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="5" customFormat="1">
-      <c r="B26" s="23"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="36">
-        <f>'API error 응답'!$A$24</f>
-        <v>610</v>
-      </c>
-      <c r="H26" s="36" t="str">
-        <f>'API error 응답'!$B$24</f>
-        <v>FuelShortage</v>
-      </c>
-      <c r="I26" s="25"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="G27" s="36">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H27" s="36" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-      <c r="I27" s="25"/>
-    </row>
-    <row r="28" spans="1:9" s="5" customFormat="1">
-      <c r="B28" s="23"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="36">
-        <f>'API error 응답'!$A$21</f>
-        <v>607</v>
-      </c>
-      <c r="H28" s="36" t="str">
-        <f>'API error 응답'!$B$21</f>
-        <v>GoldShortage</v>
-      </c>
-      <c r="I28" s="25"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="C29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="G29" s="36">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H29" s="36" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-      <c r="I29" s="25"/>
-    </row>
-    <row r="30" spans="1:9" s="5" customFormat="1">
-      <c r="B30" s="23"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="36">
-        <f>'API error 응답'!$A$21</f>
-        <v>607</v>
-      </c>
-      <c r="H30" s="36" t="str">
-        <f>'API error 응답'!$B$21</f>
-        <v>GoldShortage</v>
-      </c>
-      <c r="I30" s="25"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F31" t="s">
-        <v>150</v>
-      </c>
-      <c r="G31" s="36">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H31" s="36" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="5" customFormat="1">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="G32" s="36">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H32" s="36" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="5" customFormat="1">
-      <c r="B33" s="17"/>
-      <c r="G33" s="36">
-        <f>'API error 응답'!$A$10</f>
-        <v>506</v>
-      </c>
-      <c r="H33" s="36" t="str">
-        <f>'API error 응답'!$B$10</f>
-        <v>UnknownMail</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="5" customFormat="1">
-      <c r="B34" s="17"/>
-      <c r="G34" s="36">
-        <f>'API error 응답'!$A$27</f>
-        <v>613</v>
-      </c>
-      <c r="H34" s="36" t="str">
-        <f>'API error 응답'!$B$27</f>
-        <v>InventorySpaceShortage</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F35" t="s">
-        <v>148</v>
-      </c>
-      <c r="G35" s="36">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H35" s="36" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="G36" s="36">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H36" s="36" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="G37" s="36">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H37" s="36" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:9" s="5" customFormat="1">
-      <c r="B38" s="22"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="36">
-        <f>'API error 응답'!$A$8</f>
-        <v>504</v>
-      </c>
-      <c r="H38" s="36" t="str">
-        <f>'API error 응답'!$B$8</f>
-        <v>UnknownItem</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="5" customFormat="1">
-      <c r="B39" s="22"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="36">
-        <f>'API error 응답'!$A$21</f>
-        <v>607</v>
-      </c>
-      <c r="H39" s="36" t="str">
-        <f>'API error 응답'!$B$21</f>
-        <v>GoldShortage</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="5" customFormat="1">
-      <c r="B40" s="22"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="36">
-        <f>'API error 응답'!$A$22</f>
-        <v>608</v>
-      </c>
-      <c r="H40" s="36" t="str">
-        <f>'API error 응답'!$B$20</f>
-        <v>InvalidFishState</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="5" customFormat="1">
-      <c r="B41" s="22"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="36">
-        <f>'API error 응답'!$A$27</f>
-        <v>613</v>
-      </c>
-      <c r="H41" s="36" t="str">
-        <f>'API error 응답'!$B$27</f>
-        <v>InventorySpaceShortage</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="5" customFormat="1">
-      <c r="B42" s="22"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="36">
-        <f>'API error 응답'!$A$29</f>
-        <v>615</v>
-      </c>
-      <c r="H42" s="36" t="str">
-        <f>'API error 응답'!$B$29</f>
-        <v>CountShortage</v>
-      </c>
+      <c r="I42" s="25"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="22" t="s">
-        <v>199</v>
+      <c r="B43" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>232</v>
+        <v>120</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="G43" s="36">
+        <v>169</v>
+      </c>
+      <c r="G43" s="30">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H43" s="36" t="str">
+      <c r="H43" s="30" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
-      <c r="I43" s="5" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="5" customFormat="1">
-      <c r="B44" s="22"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="36">
-        <f>'API error 응답'!$A$8</f>
-        <v>504</v>
-      </c>
-      <c r="H44" s="36" t="str">
-        <f>'API error 응답'!$B$8</f>
-        <v>UnknownItem</v>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="G44" s="30">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H44" s="30" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+      <c r="I44" s="25" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="5" customFormat="1">
-      <c r="B45" s="22"/>
+      <c r="B45" s="23"/>
       <c r="F45" s="25"/>
-      <c r="G45" s="36">
-        <f>'API error 응답'!$A$29</f>
-        <v>615</v>
-      </c>
-      <c r="H45" s="36" t="str">
-        <f>'API error 응답'!$B$29</f>
-        <v>CountShortage</v>
-      </c>
+      <c r="G45" s="30">
+        <f>'API error 응답'!$A$24</f>
+        <v>610</v>
+      </c>
+      <c r="H45" s="30" t="str">
+        <f>'API error 응답'!$B$24</f>
+        <v>FuelShortage</v>
+      </c>
+      <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>5</v>
       </c>
-      <c r="B46" t="s">
-        <v>35</v>
+      <c r="B46" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F46" t="s">
-        <v>161</v>
-      </c>
-      <c r="G46" s="36">
+      <c r="F46" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="G46" s="30">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H46" s="36" t="str">
+      <c r="H46" s="30" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F47" t="s">
-        <v>164</v>
-      </c>
-      <c r="G47" s="36">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H47" s="36" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
+      <c r="I46" s="25"/>
+    </row>
+    <row r="47" spans="1:9" s="5" customFormat="1">
+      <c r="B47" s="23"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="30">
+        <f>'API error 응답'!$A$21</f>
+        <v>607</v>
+      </c>
+      <c r="H47" s="30" t="str">
+        <f>'API error 응답'!$B$21</f>
+        <v>GoldShortage</v>
+      </c>
+      <c r="I47" s="25"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="21" t="s">
-        <v>39</v>
+      <c r="B48" s="23" t="s">
+        <v>155</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="G48" s="36">
+        <v>120</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="G48" s="30">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H48" s="36" t="str">
+      <c r="H48" s="30" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
+      <c r="I48" s="25"/>
     </row>
     <row r="49" spans="1:9" s="5" customFormat="1">
-      <c r="B49" s="21"/>
-      <c r="G49" s="36">
-        <f>'API error 응답'!$A$12</f>
-        <v>508</v>
-      </c>
-      <c r="H49" s="36" t="str">
-        <f>'API error 응답'!$B$12</f>
-        <v>UnknownFish</v>
-      </c>
+      <c r="B49" s="23"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="30">
+        <f>'API error 응답'!$A$21</f>
+        <v>607</v>
+      </c>
+      <c r="H49" s="30" t="str">
+        <f>'API error 응답'!$B$21</f>
+        <v>GoldShortage</v>
+      </c>
+      <c r="I49" s="25"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="20" t="s">
-        <v>41</v>
+      <c r="B50" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="G50" s="36">
+        <v>120</v>
+      </c>
+      <c r="F50" t="s">
+        <v>149</v>
+      </c>
+      <c r="G50" s="30">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H50" s="36" t="str">
+      <c r="H50" s="30" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="5" customFormat="1">
-      <c r="B51" s="20"/>
-      <c r="G51" s="36">
-        <f>'API error 응답'!$A$9</f>
-        <v>505</v>
-      </c>
-      <c r="H51" s="36" t="str">
-        <f>'API error 응답'!$B$9</f>
-        <v>UnknownMap</v>
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G51" s="30">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H51" s="30" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="5" customFormat="1">
-      <c r="B52" s="20"/>
-      <c r="G52" s="36">
-        <f>'API error 응답'!$A$23</f>
-        <v>609</v>
-      </c>
-      <c r="H52" s="36" t="str">
-        <f>'API error 응답'!$B$23</f>
-        <v>FatigueShortage</v>
+      <c r="B52" s="17"/>
+      <c r="G52" s="30">
+        <f>'API error 응답'!$A$10</f>
+        <v>506</v>
+      </c>
+      <c r="H52" s="30" t="str">
+        <f>'API error 응답'!$B$10</f>
+        <v>UnknownMail</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="5" customFormat="1">
-      <c r="B53" s="20"/>
-      <c r="G53" s="36">
-        <f>'API error 응답'!$A$24</f>
-        <v>610</v>
-      </c>
-      <c r="H53" s="36" t="str">
-        <f>'API error 응답'!$B$24</f>
-        <v>FuelShortage</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="5" customFormat="1">
-      <c r="B54" s="20"/>
-      <c r="G54" s="36">
-        <f>'API error 응답'!$A$28</f>
-        <v>614</v>
-      </c>
-      <c r="H54" s="36" t="str">
-        <f>'API error 응답'!$B$28</f>
-        <v>LevelShortage</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="5" customFormat="1">
-      <c r="B55" s="20"/>
-      <c r="G55" s="36">
-        <f>'API error 응답'!$A$30</f>
-        <v>616</v>
-      </c>
-      <c r="H55" s="36" t="str">
-        <f>'API error 응답'!$B$30</f>
-        <v>NotReady</v>
-      </c>
+      <c r="B53" s="17"/>
+      <c r="G53" s="30">
+        <f>'API error 응답'!$A$27</f>
+        <v>613</v>
+      </c>
+      <c r="H53" s="30" t="str">
+        <f>'API error 응답'!$B$27</f>
+        <v>InventorySpaceShortage</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" t="s">
+        <v>147</v>
+      </c>
+      <c r="G54" s="30">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H54" s="30" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G55" s="30">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H55" s="30" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+      <c r="I55" s="5"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="20" t="s">
-        <v>43</v>
+      <c r="B56" s="22" t="s">
+        <v>130</v>
       </c>
       <c r="C56" t="s">
-        <v>44</v>
-      </c>
-      <c r="E56" t="s">
-        <v>120</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="G56" s="36">
+        <v>33</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="G56" s="30">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H56" s="36" t="str">
+      <c r="H56" s="30" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
-      <c r="I56" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" t="s">
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:9" s="5" customFormat="1">
+      <c r="B57" s="22"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="30">
+        <f>'API error 응답'!$A$8</f>
+        <v>504</v>
+      </c>
+      <c r="H57" s="30" t="str">
+        <f>'API error 응답'!$B$8</f>
+        <v>UnknownItem</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="5" customFormat="1">
+      <c r="B58" s="22"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="30">
+        <f>'API error 응답'!$A$21</f>
+        <v>607</v>
+      </c>
+      <c r="H58" s="30" t="str">
+        <f>'API error 응답'!$B$21</f>
+        <v>GoldShortage</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="5" customFormat="1">
+      <c r="B59" s="22"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="30">
+        <f>'API error 응답'!$A$22</f>
+        <v>608</v>
+      </c>
+      <c r="H59" s="30" t="str">
+        <f>'API error 응답'!$B$20</f>
+        <v>InvalidFishState</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="5" customFormat="1">
+      <c r="B60" s="22"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="30">
+        <f>'API error 응답'!$A$27</f>
+        <v>613</v>
+      </c>
+      <c r="H60" s="30" t="str">
+        <f>'API error 응답'!$B$27</f>
+        <v>InventorySpaceShortage</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="5" customFormat="1">
+      <c r="B61" s="22"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="30">
+        <f>'API error 응답'!$A$29</f>
+        <v>615</v>
+      </c>
+      <c r="H61" s="30" t="str">
+        <f>'API error 응답'!$B$29</f>
+        <v>CountShortage</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C57" t="s">
-        <v>131</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="G57" s="36">
+      <c r="B62" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="G62" s="30">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H57" s="36" t="str">
+      <c r="H62" s="30" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" s="5" customFormat="1">
-      <c r="B58" s="19"/>
-      <c r="G58" s="36">
+      <c r="I62" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="5" customFormat="1">
+      <c r="B63" s="22"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="30">
+        <f>'API error 응답'!$A$8</f>
+        <v>504</v>
+      </c>
+      <c r="H63" s="30" t="str">
+        <f>'API error 응답'!$B$8</f>
+        <v>UnknownItem</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="5" customFormat="1">
+      <c r="B64" s="22"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="30">
+        <f>'API error 응답'!$A$29</f>
+        <v>615</v>
+      </c>
+      <c r="H64" s="30" t="str">
+        <f>'API error 응답'!$B$29</f>
+        <v>CountShortage</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F65" t="s">
+        <v>160</v>
+      </c>
+      <c r="G65" s="30">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H65" s="30" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" t="s">
+        <v>38</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F66" t="s">
+        <v>163</v>
+      </c>
+      <c r="G66" s="30">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H66" s="30" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G67" s="30">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H67" s="30" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="5" customFormat="1">
+      <c r="B68" s="21"/>
+      <c r="G68" s="30">
+        <f>'API error 응답'!$A$12</f>
+        <v>508</v>
+      </c>
+      <c r="H68" s="30" t="str">
+        <f>'API error 응답'!$B$12</f>
+        <v>UnknownFish</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G69" s="30">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H69" s="30" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="5" customFormat="1">
+      <c r="B70" s="20"/>
+      <c r="G70" s="30">
+        <f>'API error 응답'!$A$9</f>
+        <v>505</v>
+      </c>
+      <c r="H70" s="30" t="str">
+        <f>'API error 응답'!$B$9</f>
+        <v>UnknownMap</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="5" customFormat="1">
+      <c r="B71" s="20"/>
+      <c r="G71" s="30">
+        <f>'API error 응답'!$A$23</f>
+        <v>609</v>
+      </c>
+      <c r="H71" s="30" t="str">
+        <f>'API error 응답'!$B$23</f>
+        <v>FatigueShortage</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="5" customFormat="1">
+      <c r="B72" s="20"/>
+      <c r="G72" s="30">
+        <f>'API error 응답'!$A$24</f>
+        <v>610</v>
+      </c>
+      <c r="H72" s="30" t="str">
+        <f>'API error 응답'!$B$24</f>
+        <v>FuelShortage</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="5" customFormat="1">
+      <c r="B73" s="20"/>
+      <c r="G73" s="30">
+        <f>'API error 응답'!$A$28</f>
+        <v>614</v>
+      </c>
+      <c r="H73" s="30" t="str">
+        <f>'API error 응답'!$B$28</f>
+        <v>LevelShortage</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="5" customFormat="1">
+      <c r="B74" s="20"/>
+      <c r="G74" s="30">
+        <f>'API error 응답'!$A$30</f>
+        <v>616</v>
+      </c>
+      <c r="H74" s="30" t="str">
+        <f>'API error 응답'!$B$30</f>
+        <v>NotReady</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75" t="s">
+        <v>120</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G75" s="30">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H75" s="30" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+      <c r="I75" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" t="s">
+        <v>131</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G76" s="30">
+        <f>'API error 응답'!$A$6</f>
+        <v>502</v>
+      </c>
+      <c r="H76" s="30" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownUser</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="5" customFormat="1">
+      <c r="B77" s="19"/>
+      <c r="G77" s="30">
         <f>'API error 응답'!$A$26</f>
         <v>612</v>
       </c>
-      <c r="H58" s="36" t="str">
+      <c r="H77" s="30" t="str">
         <f>'API error 응답'!$B$26</f>
         <v>PrepDurabilityShortage</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="5" customFormat="1">
-      <c r="B59" s="19"/>
-      <c r="G59" s="36">
+    <row r="78" spans="1:9" s="5" customFormat="1">
+      <c r="B78" s="19"/>
+      <c r="G78" s="30">
         <f>'API error 응답'!$A$30</f>
         <v>616</v>
       </c>
-      <c r="H59" s="36" t="str">
+      <c r="H78" s="30" t="str">
         <f>'API error 응답'!$B$30</f>
         <v>NotReady</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="5" customFormat="1">
-      <c r="B60" s="19"/>
-      <c r="G60" s="36">
+    <row r="79" spans="1:9" s="5" customFormat="1">
+      <c r="B79" s="19"/>
+      <c r="G79" s="30">
         <f>'API error 응답'!$A$31</f>
         <v>617</v>
       </c>
-      <c r="H60" s="36" t="str">
+      <c r="H79" s="30" t="str">
         <f>'API error 응답'!$B$31</f>
         <v>InvalidWaterDepth</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
-      <c r="A61" t="s">
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
         <v>5</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B80" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C61" t="s">
-        <v>219</v>
-      </c>
-      <c r="E61" s="5" t="s">
+      <c r="C80" t="s">
+        <v>208</v>
+      </c>
+      <c r="E80" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F61" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="G61" s="36">
+      <c r="F80" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="G80" s="30">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H61" s="36" t="str">
+      <c r="H80" s="30" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
-      <c r="I61" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="5" t="s">
+      <c r="I80" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B62" t="s">
-        <v>176</v>
-      </c>
-      <c r="C62" t="s">
-        <v>177</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="B81" t="s">
+        <v>173</v>
+      </c>
+      <c r="C81" t="s">
+        <v>174</v>
+      </c>
+      <c r="E81" t="s">
         <v>120</v>
       </c>
-      <c r="F62" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="G62" s="36">
+      <c r="F81" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="G81" s="30">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H62" s="36" t="str">
+      <c r="H81" s="30" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
-      <c r="I62" s="5"/>
+      <c r="I81" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A20:I20"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G7:H7 G26:H49" formula="1"/>
+    <ignoredError sqref="G26:H26 G45:H68" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3568,23 +3923,23 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.625" customWidth="1"/>
     <col min="6" max="6" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3604,334 +3959,338 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1">
-      <c r="A3" s="31">
+      <c r="A3" s="34">
         <v>200</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D3" s="33"/>
+      <c r="C3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3"/>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="A4" s="34"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1">
-      <c r="A5" s="31">
+      <c r="A5" s="34">
         <v>501</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="34">
+        <v>502</v>
+      </c>
+      <c r="B6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="34">
+        <v>503</v>
+      </c>
+      <c r="B7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="34">
+        <v>504</v>
+      </c>
+      <c r="B8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="34">
+        <v>505</v>
+      </c>
+      <c r="B9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="34">
+        <v>506</v>
+      </c>
+      <c r="B10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="34">
+        <v>507</v>
+      </c>
+      <c r="B11" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="31">
-        <v>502</v>
-      </c>
-      <c r="B6" s="30" t="s">
+      <c r="C11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="34">
+        <v>508</v>
+      </c>
+      <c r="B12" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="31">
-        <v>503</v>
-      </c>
-      <c r="B7" s="30" t="s">
+      <c r="C12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="34">
+        <v>509</v>
+      </c>
+      <c r="B13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1">
+      <c r="A14" s="34"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="34">
+        <v>601</v>
+      </c>
+      <c r="B15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="34">
+        <v>602</v>
+      </c>
+      <c r="B16" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="34">
+        <v>603</v>
+      </c>
+      <c r="B17" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="32"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="31">
-        <v>504</v>
-      </c>
-      <c r="B8" s="30" t="s">
+      <c r="C17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="34">
+        <v>604</v>
+      </c>
+      <c r="B18" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="31">
-        <v>505</v>
-      </c>
-      <c r="B9" s="30" t="s">
+      <c r="C18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="34">
+        <v>605</v>
+      </c>
+      <c r="B19" t="s">
         <v>207</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="31">
-        <v>506</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="C19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="34">
+        <v>606</v>
+      </c>
+      <c r="B20" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="34">
+        <v>607</v>
+      </c>
+      <c r="B21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="34">
+        <v>608</v>
+      </c>
+      <c r="B22" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="34">
+        <v>609</v>
+      </c>
+      <c r="B23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="5" customFormat="1">
+      <c r="A24" s="34">
+        <v>610</v>
+      </c>
+      <c r="B24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" t="s">
+        <v>246</v>
+      </c>
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="34">
+        <v>611</v>
+      </c>
+      <c r="B25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="34">
+        <v>612</v>
+      </c>
+      <c r="B26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="34">
+        <v>613</v>
+      </c>
+      <c r="B27" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="34">
+        <v>614</v>
+      </c>
+      <c r="B28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C28" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="34">
+        <v>615</v>
+      </c>
+      <c r="B29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="5" customFormat="1">
+      <c r="A30" s="34">
+        <v>616</v>
+      </c>
+      <c r="B30" t="s">
+        <v>227</v>
+      </c>
+      <c r="C30" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="34">
+        <v>617</v>
+      </c>
+      <c r="B31" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="31">
-        <v>507</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="31">
-        <v>508</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="31">
-        <v>509</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="5" customFormat="1">
-      <c r="A14" s="31"/>
-      <c r="B14" s="30"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="31">
-        <v>601</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="D15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="31">
-        <v>602</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="31">
-        <v>603</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="31">
-        <v>604</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D18" s="25"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="31">
-        <v>605</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="31">
-        <v>606</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="31">
-        <v>607</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="31">
-        <v>608</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="31">
-        <v>609</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="5" customFormat="1">
-      <c r="A24" s="31">
-        <v>610</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="31">
-        <v>611</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="C25" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="31">
-        <v>612</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="31">
-        <v>613</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="31">
-        <v>614</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="C28" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="31">
-        <v>615</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="5" customFormat="1">
-      <c r="A30" s="31">
-        <v>616</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="31">
-        <v>617</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>248</v>
+      <c r="C31" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="31"/>
+      <c r="A35" s="28"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="31"/>
+      <c r="A36" s="28"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="31"/>
+      <c r="A37" s="28"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="31"/>
+      <c r="A38" s="28"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="31"/>
+      <c r="A39" s="28"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="31"/>
+      <c r="A40" s="28"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="5"/>
@@ -3960,22 +4319,22 @@
   <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="92.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1"/>
@@ -4000,7 +4359,7 @@
         <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4129,7 +4488,7 @@
     </row>
     <row r="19" spans="1:4" s="5" customFormat="1">
       <c r="A19" s="12" t="s">
-        <v>192</v>
+        <v>276</v>
       </c>
       <c r="B19" t="s">
         <v>127</v>
@@ -4143,13 +4502,13 @@
         <v>64</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C20" t="s">
-        <v>198</v>
+        <v>277</v>
       </c>
       <c r="D20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4160,7 +4519,7 @@
         <v>136</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4168,10 +4527,10 @@
         <v>77</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4187,18 +4546,18 @@
         <v>118</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="5" customFormat="1">
       <c r="A25" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="5" customFormat="1">
@@ -4223,7 +4582,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4231,10 +4590,10 @@
         <v>80</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4245,7 +4604,7 @@
         <v>118</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4253,10 +4612,10 @@
         <v>82</v>
       </c>
       <c r="B31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4290,12 +4649,12 @@
         <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="5" customFormat="1">
       <c r="A36" s="12" t="s">
-        <v>192</v>
+        <v>275</v>
       </c>
       <c r="C36" s="16"/>
     </row>
@@ -4315,10 +4674,10 @@
         <v>86</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>166</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4341,7 +4700,7 @@
         <v>89</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>119</v>
@@ -4349,7 +4708,7 @@
     </row>
     <row r="43" spans="1:4" s="5" customFormat="1">
       <c r="A43" s="26" t="s">
-        <v>192</v>
+        <v>274</v>
       </c>
       <c r="C43" s="16"/>
     </row>
@@ -4361,7 +4720,7 @@
         <v>26</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4369,10 +4728,10 @@
         <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C45" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -4405,10 +4764,10 @@
         <v>92</v>
       </c>
       <c r="B51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4416,10 +4775,10 @@
         <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4440,7 +4799,7 @@
         <v>14</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4453,10 +4812,10 @@
         <v>94</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -4464,10 +4823,10 @@
         <v>95</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -4475,10 +4834,10 @@
         <v>96</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="5" customFormat="1"/>
@@ -4487,15 +4846,15 @@
         <v>97</v>
       </c>
       <c r="B61" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="5" customFormat="1">
       <c r="A62" s="26" t="s">
-        <v>192</v>
+        <v>273</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -4504,8 +4863,8 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="15" t="s">
-        <v>201</v>
+      <c r="A64" s="33" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -4520,67 +4879,67 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="5" customFormat="1">
       <c r="A68" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="5" customFormat="1">
       <c r="A69" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="5" customFormat="1">
       <c r="A70" s="26" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="5" customFormat="1">
       <c r="A71" s="26" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="26" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="26" t="s">
         <v>186</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="26" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="15" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="26" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/docs/우럭아왜우럭 API 설계.xlsx
+++ b/docs/우럭아왜우럭 API 설계.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\UrukGame\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\바탕 화면\jinha\우럭아왜우럭\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A415C5C-3DBC-42D1-B38A-39A5CDFD5728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD8DF9B-09E9-4B62-B1CD-07114E749C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{83EBD1F1-D894-4B36-90FB-EB8F16775886}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="351">
   <si>
     <t>Method</t>
   </si>
@@ -82,15 +82,9 @@
     <t>/map</t>
   </si>
   <si>
-    <t>맵 조회</t>
-  </si>
-  <si>
     <t>/inventory/upgrade</t>
   </si>
   <si>
-    <t>선택한 채비 업그레이드</t>
-  </si>
-  <si>
     <t>/boat</t>
   </si>
   <si>
@@ -398,10 +392,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>최초 로그인 시</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>물고기 획득</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -442,10 +432,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>hiveID(string)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>userId(int), mapId(int)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -485,10 +471,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT * FROM ‘map_data'</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>equipment(object)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -505,10 +487,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>/equipSlot/unequip</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>/inventory/equip</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -608,10 +586,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>/equipSlot</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>업그레이드</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -749,9 +723,6 @@
     <t>UnknownMail</t>
   </si>
   <si>
-    <t>UnknownHiveUID</t>
-  </si>
-  <si>
     <t>UnknownFish</t>
   </si>
   <si>
@@ -842,10 +813,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>NotReady</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>세션이 만료되었습니다.</t>
   </si>
   <si>
@@ -859,89 +826,6 @@
   </si>
   <si>
     <t>인벤토리의 공간이 부족합니다.</t>
-  </si>
-  <si>
-    <t>수심이 잘못 설정되었습니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가능한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>레벨보다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>낮습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1098,10 +982,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>User State 확인</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>알 수 없는 오류입니다.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1126,10 +1006,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>알 수 없는 HiveUID입니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>알 수 없는 물고기입니다.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1230,9 +1106,6 @@
     <t>userId(int), invId(int), itemCount(int)</t>
   </si>
   <si>
-    <t>userId(int), fishId(int)</t>
-  </si>
-  <si>
     <t>invId(int)</t>
   </si>
   <si>
@@ -1335,13 +1208,280 @@
   <si>
     <t>//TODO: 개발하면서 채우기</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerId(string), password(string)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerId(string)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnknownHiveID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>알 수 없는 HiveID입니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>510</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 형식이 잘못되었습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 피로도 초과</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 기획 데이터 조회</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 기획 데이터 조회</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvalidRequestBody</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비 업그레이드</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExcessMaxFatigue</t>
+  </si>
+  <si>
+    <t>최대 피로도를 초과하여 충전할 수 없습니다.</t>
+  </si>
+  <si>
+    <t>업그레이드 가능한 채비 타입이 아닙니다.</t>
+  </si>
+  <si>
+    <t>장착 또는 장착해제 가능한 상태가 아닙니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SameEquippedState</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/inventory/equipSlot</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>/inventory/unequip</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>같은 종류의 채비가 이미 장착중입니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlreadyEquippedType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>621</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnknownBoat</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>알 수 없는 배입니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>511</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>수령기한이 지난 메일입니다.</t>
+  </si>
+  <si>
+    <t>ExpiredMail</t>
+  </si>
+  <si>
+    <t>622</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvalidUpgradeEquipmen</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentNotReady</t>
+  </si>
+  <si>
+    <t>InvalidFishingState</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시 가능한 상태가 아닙니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>623</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 수심보다 깊게 내릴 수 없습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HookingFailed</t>
+  </si>
+  <si>
+    <t>SuppressFailed</t>
+  </si>
+  <si>
+    <t>후킹에 실패하였습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>제압에 실패하였습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입장</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>레벨보다</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>낮습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>내구도나 연료가 부족하여 강제 입항합니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForcedArrival</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회원가입 시 </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvalidUserState</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청한 행동을 할 수 없는 상태입니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId(int), aucId(int)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExcessMaxDurability</t>
+  </si>
+  <si>
+    <t>최대 내구도를 초과하여 충전할 수 없습니다.</t>
+  </si>
+  <si>
+    <t>InvalidRepairEquipment</t>
+  </si>
+  <si>
+    <t>내구도 수리가 가능한 장비가 아닙니다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1547,6 +1687,64 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="42">
@@ -2054,7 +2252,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2109,9 +2307,6 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2151,16 +2346,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="21" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2523,237 +2775,237 @@
   <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.58203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.25" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="72.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" s="5" customFormat="1"/>
-    <row r="2" spans="3:8" s="5" customFormat="1">
+    <row r="1" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C7" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="8" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C9" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C10" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C11" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F12" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F13" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F14" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="15" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F15" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="G2" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="H2" s="35" t="s">
+    </row>
+    <row r="16" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F16" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="3:8" s="5" customFormat="1">
-      <c r="C3" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8" s="5" customFormat="1">
-      <c r="C4" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" s="5" customFormat="1">
-      <c r="C5" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" s="5" customFormat="1">
-      <c r="C6" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" s="5" customFormat="1">
-      <c r="C7" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" s="5" customFormat="1">
-      <c r="C8" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" s="5" customFormat="1">
-      <c r="C9" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" s="5" customFormat="1">
-      <c r="C10" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" s="5" customFormat="1">
-      <c r="C11" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" s="5" customFormat="1">
-      <c r="F12" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" s="5" customFormat="1">
-      <c r="F13" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" s="5" customFormat="1">
-      <c r="F14" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" s="5" customFormat="1">
-      <c r="F15" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" s="5" customFormat="1">
-      <c r="F16" s="29" t="s">
+    <row r="17" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="F17" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="5" customFormat="1">
-      <c r="F17" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="5" customFormat="1">
-      <c r="H18" s="25"/>
-    </row>
-    <row r="19" spans="1:12" s="5" customFormat="1">
-      <c r="H19" s="25"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
+    </row>
+    <row r="18" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -2764,19 +3016,19 @@
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>4</v>
@@ -2784,1122 +3036,1132 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="25" t="s">
-        <v>123</v>
+      <c r="E22" s="24" t="s">
+        <v>302</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="30">
+        <v>56</v>
+      </c>
+      <c r="G22" s="29">
         <f>'API error 응답'!A$11</f>
         <v>507</v>
       </c>
-      <c r="H22" s="30" t="str">
+      <c r="H22" s="29" t="str">
         <f>'API error 응답'!$B$11</f>
-        <v>UnknownHiveUID</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>UnknownHiveID</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="25" t="s">
-        <v>123</v>
+      <c r="E23" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="30">
+        <v>56</v>
+      </c>
+      <c r="G23" s="29">
         <f>'API error 응답'!A$11</f>
         <v>507</v>
       </c>
-      <c r="H23" s="30" t="str">
+      <c r="H23" s="29" t="str">
         <f>'API error 응답'!$B$11</f>
-        <v>UnknownHiveUID</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>UnknownHiveID</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>5</v>
       </c>
-      <c r="B24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="30">
+        <v>51</v>
+      </c>
+      <c r="G24" s="29">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H24" s="30" t="str">
+      <c r="H24" s="29" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="36" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="30">
+        <v>51</v>
+      </c>
+      <c r="G25" s="29">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H25" s="30" t="str">
+      <c r="H25" s="29" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="5" customFormat="1">
-      <c r="G26" s="31">
-        <f>'API error 응답'!$A$21</f>
+    <row r="26" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="G26" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="G27" s="30">
+        <f>'API error 응답'!$A$23</f>
         <v>607</v>
       </c>
-      <c r="H26" s="31" t="str">
-        <f>'API error 응답'!$B$21</f>
+      <c r="H27" s="30" t="str">
+        <f>'API error 응답'!$B$23</f>
         <v>GoldShortage</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>5</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G27" s="30">
+      <c r="C28" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="29">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H27" s="30" t="str">
+      <c r="H28" s="29" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="H28" s="30"/>
-      <c r="I28" s="25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" t="s">
-        <v>143</v>
+      <c r="B29" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>311</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" t="s">
-        <v>133</v>
-      </c>
-      <c r="G29" s="30">
+        <v>163</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="H29" s="29"/>
+      <c r="I29" s="24"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="29">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H29" s="30" t="str">
+      <c r="H30" s="29" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="F30" t="s">
-        <v>135</v>
-      </c>
-      <c r="G30" s="30">
+      <c r="B31" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="29">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H30" s="30" t="str">
+      <c r="H31" s="29" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
-      <c r="I30" s="25" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="5" customFormat="1">
-      <c r="B31" s="24"/>
-      <c r="G31" s="30">
+      <c r="I31" s="24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="23"/>
+      <c r="G32" s="29">
         <f>'API error 응답'!$A$7</f>
         <v>503</v>
       </c>
-      <c r="H31" s="30" t="str">
+      <c r="H32" s="29" t="str">
         <f>'API error 응답'!$B$7</f>
         <v>UnknownItemType</v>
       </c>
-      <c r="I31" s="25"/>
-    </row>
-    <row r="32" spans="1:12" s="5" customFormat="1">
-      <c r="B32" s="24"/>
-      <c r="G32" s="30">
+      <c r="I32" s="24"/>
+    </row>
+    <row r="33" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="23"/>
+      <c r="G33" s="29">
         <f>'API error 응답'!$A$8</f>
         <v>504</v>
       </c>
-      <c r="H32" s="30" t="str">
+      <c r="H33" s="29" t="str">
         <f>'API error 응답'!$B$8</f>
         <v>UnknownItem</v>
       </c>
-      <c r="I32" s="25"/>
-    </row>
-    <row r="33" spans="1:9" s="5" customFormat="1">
-      <c r="A33" s="5" t="s">
+      <c r="I33" s="24"/>
+    </row>
+    <row r="34" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G33" s="30">
+      <c r="B34" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="39"/>
+      <c r="E34" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" s="29">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H33" s="30" t="str">
+      <c r="H34" s="29" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
-      <c r="I33" s="25"/>
-    </row>
-    <row r="34" spans="1:9" s="5" customFormat="1">
-      <c r="B34" s="24"/>
-      <c r="G34" s="30">
+      <c r="I34" s="24"/>
+    </row>
+    <row r="35" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="23"/>
+      <c r="G35" s="29">
         <f>'API error 응답'!$A$7</f>
         <v>503</v>
       </c>
-      <c r="H34" s="30" t="str">
+      <c r="H35" s="29" t="str">
         <f>'API error 응답'!$B$7</f>
         <v>UnknownItemType</v>
       </c>
-      <c r="I34" s="25"/>
-    </row>
-    <row r="35" spans="1:9" s="5" customFormat="1">
-      <c r="B35" s="24"/>
-      <c r="G35" s="30">
+      <c r="I35" s="24"/>
+    </row>
+    <row r="36" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="23"/>
+      <c r="G36" s="29">
         <f>'API error 응답'!$A$8</f>
         <v>504</v>
       </c>
-      <c r="H35" s="30" t="str">
+      <c r="H36" s="29" t="str">
         <f>'API error 응답'!$B$8</f>
         <v>UnknownItem</v>
       </c>
-      <c r="I35" s="25"/>
-    </row>
-    <row r="36" spans="1:9" s="5" customFormat="1">
-      <c r="A36" s="5" t="s">
+      <c r="I36" s="24"/>
+    </row>
+    <row r="37" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G36" s="30">
+      <c r="B37" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G37" s="29">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H36" s="30" t="str">
+      <c r="H37" s="29" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
-      <c r="I36" s="25"/>
-    </row>
-    <row r="37" spans="1:9" s="5" customFormat="1">
-      <c r="B37" s="24"/>
-      <c r="G37" s="30">
+      <c r="I37" s="24"/>
+    </row>
+    <row r="38" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="23"/>
+      <c r="G38" s="29">
         <f>'API error 응답'!$A$7</f>
         <v>503</v>
       </c>
-      <c r="H37" s="30" t="str">
+      <c r="H38" s="29" t="str">
         <f>'API error 응답'!$B$7</f>
         <v>UnknownItemType</v>
       </c>
-      <c r="I37" s="25"/>
-    </row>
-    <row r="38" spans="1:9" s="5" customFormat="1">
-      <c r="B38" s="24"/>
-      <c r="G38" s="30">
+      <c r="I38" s="24"/>
+    </row>
+    <row r="39" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="23"/>
+      <c r="G39" s="29">
         <f>'API error 응답'!$A$8</f>
         <v>504</v>
       </c>
-      <c r="H38" s="30" t="str">
+      <c r="H39" s="29" t="str">
         <f>'API error 응답'!$B$8</f>
         <v>UnknownItem</v>
       </c>
-      <c r="I38" s="25"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
+      <c r="I39" s="24"/>
+    </row>
+    <row r="40" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
         <v>5</v>
       </c>
-      <c r="B39" t="s">
-        <v>165</v>
-      </c>
-      <c r="C39" t="s">
-        <v>136</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F39" t="s">
-        <v>137</v>
-      </c>
-      <c r="G39" s="30">
+      <c r="B40" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="29">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H39" s="30" t="str">
+      <c r="H40" s="29" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
+      <c r="I40" s="24"/>
+    </row>
+    <row r="41" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B40" t="s">
-        <v>139</v>
-      </c>
-      <c r="C40" t="s">
-        <v>138</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G40" s="30">
+      <c r="B41" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G41" s="29">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H40" s="30" t="str">
+      <c r="H41" s="29" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
-      <c r="I40" s="25"/>
-    </row>
-    <row r="41" spans="1:9" s="5" customFormat="1">
-      <c r="G41" s="30">
+      <c r="I41" s="24"/>
+    </row>
+    <row r="42" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="23"/>
+      <c r="G42" s="29">
         <f>'API error 응답'!$A$7</f>
         <v>503</v>
       </c>
-      <c r="H41" s="30" t="str">
+      <c r="H42" s="29" t="str">
         <f>'API error 응답'!$B$7</f>
         <v>UnknownItemType</v>
       </c>
-      <c r="I41" s="25"/>
-    </row>
-    <row r="42" spans="1:9" s="5" customFormat="1">
-      <c r="G42" s="30">
+      <c r="I42" s="24"/>
+    </row>
+    <row r="43" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="23"/>
+      <c r="G43" s="29">
         <f>'API error 응답'!$A$8</f>
         <v>504</v>
       </c>
-      <c r="H42" s="30" t="str">
+      <c r="H43" s="29" t="str">
         <f>'API error 응답'!$B$8</f>
         <v>UnknownItem</v>
       </c>
-      <c r="I42" s="25"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
+      <c r="I43" s="24"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" t="s">
-        <v>144</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F43" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="G43" s="30">
+      <c r="B44" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G44" s="29">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H43" s="30" t="str">
+      <c r="H44" s="29" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="G44" s="30">
+      <c r="B45" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="24"/>
+      <c r="E45" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G45" s="29">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H44" s="30" t="str">
+      <c r="H45" s="29" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
-      <c r="I44" s="25" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="5" customFormat="1">
-      <c r="B45" s="23"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="30">
-        <f>'API error 응답'!$A$24</f>
+      <c r="I45" s="24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="22"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="41">
+        <f>'API error 응답'!$A$26</f>
         <v>610</v>
       </c>
-      <c r="H45" s="30" t="str">
-        <f>'API error 응답'!$B$24</f>
+      <c r="H46" s="41" t="str">
+        <f>'API error 응답'!$B$26</f>
         <v>FuelShortage</v>
       </c>
-      <c r="I45" s="25"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
+      <c r="I46" s="24"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="G46" s="30">
+      <c r="B47" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G47" s="29">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H46" s="30" t="str">
+      <c r="H47" s="29" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
-      <c r="I46" s="25"/>
-    </row>
-    <row r="47" spans="1:9" s="5" customFormat="1">
-      <c r="B47" s="23"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="30">
-        <f>'API error 응답'!$A$21</f>
+      <c r="I47" s="24"/>
+    </row>
+    <row r="48" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="53"/>
+      <c r="C48" s="37"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="29">
+        <f>'API error 응답'!$A$23</f>
         <v>607</v>
       </c>
-      <c r="H47" s="30" t="str">
-        <f>'API error 응답'!$B$21</f>
+      <c r="H48" s="29" t="str">
+        <f>'API error 응답'!$B$23</f>
         <v>GoldShortage</v>
       </c>
-      <c r="I47" s="25"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
+      <c r="I48" s="24"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="C48" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F48" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="G48" s="30">
+      <c r="B49" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G49" s="29">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H48" s="30" t="str">
+      <c r="H49" s="29" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
-      <c r="I48" s="25"/>
-    </row>
-    <row r="49" spans="1:9" s="5" customFormat="1">
-      <c r="B49" s="23"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="30">
-        <f>'API error 응답'!$A$21</f>
+      <c r="I49" s="24"/>
+    </row>
+    <row r="50" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="53"/>
+      <c r="C50" s="37"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="29">
+        <f>'API error 응답'!$A$23</f>
         <v>607</v>
       </c>
-      <c r="H49" s="30" t="str">
-        <f>'API error 응답'!$B$21</f>
+      <c r="H50" s="29" t="str">
+        <f>'API error 응답'!$B$23</f>
         <v>GoldShortage</v>
       </c>
-      <c r="I49" s="25"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
+      <c r="I50" s="24"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F50" t="s">
-        <v>149</v>
-      </c>
-      <c r="G50" s="30">
+      <c r="B51" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F51" t="s">
+        <v>143</v>
+      </c>
+      <c r="G51" s="29">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H50" s="30" t="str">
+      <c r="H51" s="29" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="5" customFormat="1">
-      <c r="A51" t="s">
+    <row r="52" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="G51" s="30">
+      <c r="B52" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G52" s="29">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H51" s="30" t="str">
+      <c r="H52" s="29" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="5" customFormat="1">
-      <c r="B52" s="17"/>
-      <c r="G52" s="30">
+    <row r="53" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="17"/>
+      <c r="G53" s="29">
         <f>'API error 응답'!$A$10</f>
         <v>506</v>
       </c>
-      <c r="H52" s="30" t="str">
+      <c r="H53" s="29" t="str">
         <f>'API error 응답'!$B$10</f>
         <v>UnknownMail</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="5" customFormat="1">
-      <c r="B53" s="17"/>
-      <c r="G53" s="30">
-        <f>'API error 응답'!$A$27</f>
+    <row r="54" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="17"/>
+      <c r="G54" s="29">
+        <f>'API error 응답'!$A$29</f>
         <v>613</v>
       </c>
-      <c r="H53" s="30" t="str">
-        <f>'API error 응답'!$B$27</f>
+      <c r="H54" s="29" t="str">
+        <f>'API error 응답'!$B$29</f>
         <v>InventorySpaceShortage</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
-      <c r="A54" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
         <v>5</v>
       </c>
-      <c r="B54" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F54" t="s">
-        <v>147</v>
-      </c>
-      <c r="G54" s="30">
+      <c r="B55" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" t="s">
+        <v>141</v>
+      </c>
+      <c r="G55" s="29">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H54" s="30" t="str">
+      <c r="H55" s="29" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
-      <c r="A55" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F55" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="G55" s="30">
+      <c r="B56" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G56" s="29">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H55" s="30" t="str">
+      <c r="H56" s="29" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
-      <c r="I55" s="5"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" t="s">
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C56" t="s">
-        <v>33</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="F56" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="G56" s="30">
+      <c r="B57" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="G57" s="29">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H56" s="30" t="str">
+      <c r="H57" s="29" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
-      <c r="I56" s="5"/>
-    </row>
-    <row r="57" spans="1:9" s="5" customFormat="1">
-      <c r="B57" s="22"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="30">
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="52"/>
+      <c r="C58" s="37"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="29">
         <f>'API error 응답'!$A$8</f>
         <v>504</v>
       </c>
-      <c r="H57" s="30" t="str">
+      <c r="H58" s="29" t="str">
         <f>'API error 응답'!$B$8</f>
         <v>UnknownItem</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="5" customFormat="1">
-      <c r="B58" s="22"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="30">
-        <f>'API error 응답'!$A$21</f>
+    <row r="59" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="52"/>
+      <c r="C59" s="37"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="29">
+        <f>'API error 응답'!$A$23</f>
         <v>607</v>
       </c>
-      <c r="H58" s="30" t="str">
-        <f>'API error 응답'!$B$21</f>
+      <c r="H59" s="29" t="str">
+        <f>'API error 응답'!$B$23</f>
         <v>GoldShortage</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="5" customFormat="1">
-      <c r="B59" s="22"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="30">
-        <f>'API error 응답'!$A$22</f>
-        <v>608</v>
-      </c>
-      <c r="H59" s="30" t="str">
-        <f>'API error 응답'!$B$20</f>
-        <v>InvalidFishState</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="5" customFormat="1">
-      <c r="B60" s="22"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="30">
-        <f>'API error 응답'!$A$27</f>
+    <row r="60" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="52"/>
+      <c r="C60" s="37"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="29">
+        <f>'API error 응답'!$A$29</f>
         <v>613</v>
       </c>
-      <c r="H60" s="30" t="str">
-        <f>'API error 응답'!$B$27</f>
+      <c r="H60" s="29" t="str">
+        <f>'API error 응답'!$B$29</f>
         <v>InventorySpaceShortage</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="5" customFormat="1">
-      <c r="B61" s="22"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="30">
-        <f>'API error 응답'!$A$29</f>
+    <row r="61" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="52"/>
+      <c r="C61" s="37"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="29">
+        <f>'API error 응답'!$A$31</f>
         <v>615</v>
       </c>
-      <c r="H61" s="30" t="str">
-        <f>'API error 응답'!$B$29</f>
+      <c r="H61" s="29" t="str">
+        <f>'API error 응답'!$B$31</f>
         <v>CountShortage</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>5</v>
       </c>
-      <c r="B62" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="C62" t="s">
-        <v>34</v>
+      <c r="B62" s="52" t="s">
+        <v>187</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>32</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F62" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="G62" s="30">
+        <v>274</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="G62" s="29">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H62" s="30" t="str">
+      <c r="H62" s="29" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="5" customFormat="1">
-      <c r="B63" s="22"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="30">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="50"/>
+      <c r="C63" s="49"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="29">
         <f>'API error 응답'!$A$8</f>
         <v>504</v>
       </c>
-      <c r="H63" s="30" t="str">
+      <c r="H63" s="29" t="str">
         <f>'API error 응답'!$B$8</f>
         <v>UnknownItem</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="5" customFormat="1">
-      <c r="B64" s="22"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="30">
-        <f>'API error 응답'!$A$29</f>
+    <row r="64" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="21"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="29">
+        <f>'API error 응답'!$A$31</f>
         <v>615</v>
       </c>
-      <c r="H64" s="30" t="str">
-        <f>'API error 응답'!$B$29</f>
+      <c r="H64" s="29" t="str">
+        <f>'API error 응답'!$B$31</f>
         <v>CountShortage</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>5</v>
       </c>
-      <c r="B65" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65" t="s">
-        <v>36</v>
+      <c r="B65" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F65" t="s">
-        <v>160</v>
-      </c>
-      <c r="G65" s="30">
+        <v>154</v>
+      </c>
+      <c r="G65" s="29">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H65" s="30" t="str">
+      <c r="H65" s="29" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66" t="s">
-        <v>38</v>
+      <c r="B66" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>36</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F66" t="s">
-        <v>163</v>
-      </c>
-      <c r="G66" s="30">
+        <v>157</v>
+      </c>
+      <c r="G66" s="29">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H66" s="30" t="str">
+      <c r="H66" s="29" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C67" t="s">
-        <v>40</v>
+      <c r="B67" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>38</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>288</v>
+        <v>346</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="G67" s="30">
+        <v>163</v>
+      </c>
+      <c r="G67" s="29">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H67" s="30" t="str">
+      <c r="H67" s="29" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="5" customFormat="1">
-      <c r="B68" s="21"/>
-      <c r="G68" s="30">
+    <row r="68" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="20"/>
+      <c r="G68" s="29">
         <f>'API error 응답'!$A$12</f>
         <v>508</v>
       </c>
-      <c r="H68" s="30" t="str">
+      <c r="H68" s="29" t="str">
         <f>'API error 응답'!$B$12</f>
         <v>UnknownFish</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C69" t="s">
-        <v>42</v>
-      </c>
+      <c r="B69" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D69" s="24"/>
       <c r="E69" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="G69" s="30">
+        <v>163</v>
+      </c>
+      <c r="G69" s="29">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H69" s="30" t="str">
+      <c r="H69" s="29" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="5" customFormat="1">
-      <c r="B70" s="20"/>
-      <c r="G70" s="30">
+    <row r="70" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="19"/>
+      <c r="G70" s="29">
         <f>'API error 응답'!$A$9</f>
         <v>505</v>
       </c>
-      <c r="H70" s="30" t="str">
+      <c r="H70" s="29" t="str">
         <f>'API error 응답'!$B$9</f>
         <v>UnknownMap</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="5" customFormat="1">
-      <c r="B71" s="20"/>
-      <c r="G71" s="30">
-        <f>'API error 응답'!$A$23</f>
+    <row r="71" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="19"/>
+      <c r="G71" s="29">
+        <f>'API error 응답'!$A$25</f>
         <v>609</v>
       </c>
-      <c r="H71" s="30" t="str">
-        <f>'API error 응답'!$B$23</f>
+      <c r="H71" s="29" t="str">
+        <f>'API error 응답'!$B$25</f>
         <v>FatigueShortage</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="5" customFormat="1">
-      <c r="B72" s="20"/>
-      <c r="G72" s="30">
-        <f>'API error 응답'!$A$24</f>
+    <row r="72" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="19"/>
+      <c r="G72" s="29">
+        <f>'API error 응답'!$A$26</f>
         <v>610</v>
       </c>
-      <c r="H72" s="30" t="str">
-        <f>'API error 응답'!$B$24</f>
+      <c r="H72" s="29" t="str">
+        <f>'API error 응답'!$B$26</f>
         <v>FuelShortage</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="5" customFormat="1">
-      <c r="B73" s="20"/>
-      <c r="G73" s="30">
-        <f>'API error 응답'!$A$28</f>
+    <row r="73" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="19"/>
+      <c r="G73" s="29">
+        <f>'API error 응답'!$A$30</f>
         <v>614</v>
       </c>
-      <c r="H73" s="30" t="str">
-        <f>'API error 응답'!$B$28</f>
+      <c r="H73" s="29" t="str">
+        <f>'API error 응답'!$B$30</f>
         <v>LevelShortage</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="5" customFormat="1">
-      <c r="B74" s="20"/>
-      <c r="G74" s="30">
-        <f>'API error 응답'!$A$30</f>
+    <row r="74" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="19"/>
+      <c r="G74" s="29">
+        <f>'API error 응답'!$A$32</f>
         <v>616</v>
       </c>
-      <c r="H74" s="30" t="str">
-        <f>'API error 응답'!$B$30</f>
-        <v>NotReady</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="H74" s="29" t="str">
+        <f>'API error 응답'!$B$32</f>
+        <v>EquipmentNotReady</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C75" t="s">
-        <v>44</v>
+      <c r="B75" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>42</v>
       </c>
       <c r="E75" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="G75" s="30">
+        <v>163</v>
+      </c>
+      <c r="G75" s="29">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H75" s="30" t="str">
+      <c r="H75" s="29" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
-      <c r="I75" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C76" t="s">
-        <v>131</v>
+      <c r="B76" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="34" t="s">
+        <v>127</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="G76" s="30">
+        <v>163</v>
+      </c>
+      <c r="G76" s="29">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H76" s="30" t="str">
+      <c r="H76" s="29" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="5" customFormat="1">
-      <c r="B77" s="19"/>
-      <c r="G77" s="30">
-        <f>'API error 응답'!$A$26</f>
+    <row r="77" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="18"/>
+      <c r="G77" s="29">
+        <f>'API error 응답'!$A$28</f>
         <v>612</v>
       </c>
-      <c r="H77" s="30" t="str">
-        <f>'API error 응답'!$B$26</f>
+      <c r="H77" s="29" t="str">
+        <f>'API error 응답'!$B$28</f>
         <v>PrepDurabilityShortage</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="5" customFormat="1">
-      <c r="B78" s="19"/>
-      <c r="G78" s="30">
-        <f>'API error 응답'!$A$30</f>
+    <row r="78" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="18"/>
+      <c r="G78" s="29">
+        <f>'API error 응답'!$A$32</f>
         <v>616</v>
       </c>
-      <c r="H78" s="30" t="str">
-        <f>'API error 응답'!$B$30</f>
-        <v>NotReady</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" s="5" customFormat="1">
-      <c r="B79" s="19"/>
-      <c r="G79" s="30">
-        <f>'API error 응답'!$A$31</f>
+      <c r="H78" s="29" t="str">
+        <f>'API error 응답'!$B$32</f>
+        <v>EquipmentNotReady</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="18"/>
+      <c r="G79" s="29">
+        <f>'API error 응답'!$A$33</f>
         <v>617</v>
       </c>
-      <c r="H79" s="30" t="str">
-        <f>'API error 응답'!$B$31</f>
+      <c r="H79" s="29" t="str">
+        <f>'API error 응답'!$B$33</f>
         <v>InvalidWaterDepth</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C80" t="s">
-        <v>208</v>
+      <c r="B80" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80" s="34" t="s">
+        <v>200</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F80" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="G80" s="30">
+        <v>117</v>
+      </c>
+      <c r="F80" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="G80" s="29">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H80" s="30" t="str">
+      <c r="H80" s="29" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B81" t="s">
-        <v>173</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B81" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D81" s="24"/>
+      <c r="E81" t="s">
+        <v>117</v>
+      </c>
+      <c r="F81" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="E81" t="s">
-        <v>120</v>
-      </c>
-      <c r="F81" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="G81" s="30">
+      <c r="G81" s="29">
         <f>'API error 응답'!$A$6</f>
         <v>502</v>
       </c>
-      <c r="H81" s="30" t="str">
+      <c r="H81" s="29" t="str">
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
@@ -3913,396 +4175,524 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G26:H26 G45:H68" formula="1"/>
+    <ignoredError sqref="G27:H27 G46:H59 G60:H68" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D026DD-3163-41FA-9329-52BDE255F628}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.625" customWidth="1"/>
+    <col min="3" max="3" width="38.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.58203125" customWidth="1"/>
     <col min="6" max="6" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="32">
+        <v>200</v>
+      </c>
+      <c r="B3" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="5" customFormat="1">
-      <c r="A3" s="34">
-        <v>200</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
       <c r="C3" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D3"/>
     </row>
-    <row r="4" spans="1:7" s="5" customFormat="1">
-      <c r="A4" s="34"/>
+    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="32"/>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
     </row>
-    <row r="5" spans="1:7" s="5" customFormat="1">
-      <c r="A5" s="34">
+    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="32">
         <v>501</v>
       </c>
       <c r="B5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="32">
+        <v>502</v>
+      </c>
+      <c r="B6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="32">
+        <v>503</v>
+      </c>
+      <c r="B7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="32">
+        <v>504</v>
+      </c>
+      <c r="B8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="32">
+        <v>505</v>
+      </c>
+      <c r="B9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="32">
+        <v>506</v>
+      </c>
+      <c r="B10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="32">
+        <v>507</v>
+      </c>
+      <c r="B11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="32">
+        <v>508</v>
+      </c>
+      <c r="B12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="32">
+        <v>509</v>
+      </c>
+      <c r="B13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="32"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="32">
+        <v>601</v>
+      </c>
+      <c r="B17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="32">
+        <v>602</v>
+      </c>
+      <c r="B18" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="C5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D5"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="34">
-        <v>502</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C18" s="34" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="32">
+        <v>603</v>
+      </c>
+      <c r="B19" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="C6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="34">
-        <v>503</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C19" s="34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="32">
+        <v>604</v>
+      </c>
+      <c r="B20" t="s">
         <v>198</v>
       </c>
-      <c r="C7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="34">
-        <v>504</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C20" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="32">
+        <v>605</v>
+      </c>
+      <c r="B21" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="C8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="34">
-        <v>505</v>
-      </c>
-      <c r="B9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="34">
-        <v>506</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C21" s="34" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="32">
+        <v>606</v>
+      </c>
+      <c r="B22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="32">
+        <v>607</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="32">
+        <v>608</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="32">
+        <v>609</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="32">
+        <v>610</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="32">
+        <v>611</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="32">
+        <v>612</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="32">
+        <v>613</v>
+      </c>
+      <c r="B29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="32">
+        <v>614</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="32">
+        <v>615</v>
+      </c>
+      <c r="B31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="32">
+        <v>616</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="32">
+        <v>617</v>
+      </c>
+      <c r="B33" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="C10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="34">
-        <v>507</v>
-      </c>
-      <c r="B11" t="s">
-        <v>202</v>
-      </c>
-      <c r="C11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="34">
-        <v>508</v>
-      </c>
-      <c r="B12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C12" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="34">
-        <v>509</v>
-      </c>
-      <c r="B13" t="s">
-        <v>210</v>
-      </c>
-      <c r="C13" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="5" customFormat="1">
-      <c r="A14" s="34"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="34">
-        <v>601</v>
-      </c>
-      <c r="B15" t="s">
-        <v>211</v>
-      </c>
-      <c r="C15" t="s">
-        <v>228</v>
-      </c>
-      <c r="D15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="34">
-        <v>602</v>
-      </c>
-      <c r="B16" t="s">
-        <v>204</v>
-      </c>
-      <c r="C16" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="34">
-        <v>603</v>
-      </c>
-      <c r="B17" t="s">
-        <v>205</v>
-      </c>
-      <c r="C17" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="34">
-        <v>604</v>
-      </c>
-      <c r="B18" t="s">
-        <v>206</v>
-      </c>
-      <c r="C18" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="34">
-        <v>605</v>
-      </c>
-      <c r="B19" t="s">
-        <v>207</v>
-      </c>
-      <c r="C19" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="34">
-        <v>606</v>
-      </c>
-      <c r="B20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C20" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="34">
-        <v>607</v>
-      </c>
-      <c r="B21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C21" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="34">
-        <v>608</v>
-      </c>
-      <c r="B22" t="s">
-        <v>213</v>
-      </c>
-      <c r="C22" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="34">
-        <v>609</v>
-      </c>
-      <c r="B23" t="s">
-        <v>214</v>
-      </c>
-      <c r="C23" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="5" customFormat="1">
-      <c r="A24" s="34">
-        <v>610</v>
-      </c>
-      <c r="B24" t="s">
-        <v>247</v>
-      </c>
-      <c r="C24" t="s">
-        <v>246</v>
-      </c>
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="34">
-        <v>611</v>
-      </c>
-      <c r="B25" t="s">
-        <v>219</v>
-      </c>
-      <c r="C25" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="34">
-        <v>612</v>
-      </c>
-      <c r="B26" t="s">
-        <v>220</v>
-      </c>
-      <c r="C26" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="34">
-        <v>613</v>
-      </c>
-      <c r="B27" t="s">
-        <v>215</v>
-      </c>
-      <c r="C27" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="34">
-        <v>614</v>
-      </c>
-      <c r="B28" t="s">
-        <v>225</v>
-      </c>
-      <c r="C28" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="34">
-        <v>615</v>
-      </c>
-      <c r="B29" t="s">
-        <v>226</v>
-      </c>
-      <c r="C29" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="5" customFormat="1">
-      <c r="A30" s="34">
-        <v>616</v>
-      </c>
-      <c r="B30" t="s">
-        <v>227</v>
-      </c>
-      <c r="C30" t="s">
-        <v>217</v>
-      </c>
-      <c r="D30"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="34">
-        <v>617</v>
-      </c>
-      <c r="B31" t="s">
-        <v>209</v>
-      </c>
-      <c r="C31" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="28"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="28"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="28"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="28"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="28"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="28"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="C44" s="5"/>
+      <c r="C33" s="34" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="32">
+        <v>618</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="32">
+        <v>619</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="32">
+        <v>620</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="27">
+        <v>624</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="27">
+        <v>625</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="27">
+        <v>626</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="27">
+        <v>627</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="27">
+        <v>628</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="27">
+        <v>629</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C46" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4311,6 +4701,9 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A14" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -4318,628 +4711,628 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79EE227B-0D66-4E24-950B-DE4C63847A18}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="92.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-    </row>
-    <row r="2" spans="1:4">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="8" t="s">
+      <c r="C4" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="12" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="13" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="9" t="s">
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" s="5" customFormat="1">
-      <c r="A8" s="7"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>343</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="9" t="s">
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="9" t="s">
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
         <v>59</v>
       </c>
-      <c r="C12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C15" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="5" customFormat="1"/>
-    <row r="18" spans="1:4">
-      <c r="A18" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="5" customFormat="1">
-      <c r="A19" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="B19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C20" t="s">
-        <v>277</v>
-      </c>
-      <c r="D20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="9" t="s">
+      <c r="B28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="9" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" s="5" customFormat="1">
-      <c r="A24" s="9" t="s">
+      <c r="B29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="5" customFormat="1">
-      <c r="A25" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="5" customFormat="1">
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="5" customFormat="1">
+    </row>
+    <row r="34" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C36" s="16"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D35" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="5" customFormat="1">
-      <c r="A36" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="C36" s="16"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="9" t="s">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="9" t="s">
-        <v>88</v>
-      </c>
       <c r="B40" s="10"/>
     </row>
-    <row r="41" spans="1:4" s="5" customFormat="1">
+    <row r="41" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="C43" s="16"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="5" customFormat="1">
-      <c r="A43" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="C43" s="16"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" t="s">
-        <v>157</v>
-      </c>
-      <c r="C45" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="9" t="s">
-        <v>91</v>
-      </c>
       <c r="B49" s="6"/>
     </row>
-    <row r="50" spans="1:3" s="5" customFormat="1">
+    <row r="50" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B51" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B53" s="6"/>
     </row>
-    <row r="54" spans="1:3" s="5" customFormat="1">
+    <row r="54" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="9" t="s">
+      <c r="B59" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="9" t="s">
+      <c r="B61" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="25" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="31" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" s="5" customFormat="1"/>
-    <row r="61" spans="1:3">
-      <c r="A61" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B61" t="s">
-        <v>161</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" s="5" customFormat="1">
-      <c r="A62" s="26" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="33" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="15" t="s">
-        <v>98</v>
-      </c>
       <c r="B65" s="11"/>
     </row>
-    <row r="66" spans="1:3" s="5" customFormat="1">
+    <row r="66" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" s="5" customFormat="1">
-      <c r="A68" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" s="5" customFormat="1">
-      <c r="A69" s="15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" s="5" customFormat="1">
-      <c r="A70" s="26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" s="5" customFormat="1">
-      <c r="A71" s="26" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="26" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="27" t="s">
+    </row>
+    <row r="71" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="25" t="s">
         <v>183</v>
       </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="26" t="s">
+        <v>176</v>
+      </c>
       <c r="B74" s="5" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="26" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="26" t="s">
-        <v>184</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="25" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/docs/우럭아왜우럭 API 설계.xlsx
+++ b/docs/우럭아왜우럭 API 설계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\바탕 화면\jinha\우럭아왜우럭\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD8DF9B-09E9-4B62-B1CD-07114E749C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75454C26-E923-4036-ABC7-604C0F1AE885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{83EBD1F1-D894-4B36-90FB-EB8F16775886}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="348">
   <si>
     <t>Method</t>
   </si>
@@ -943,10 +943,6 @@
     <t>피로도가 부족합니다.</t>
   </si>
   <si>
-    <t>equip_upgrade_data를 참조</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>fish(object) or equipment(object)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -974,14 +970,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>boat_upgrade_data를 참조</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>여기서 아이템은 인벤토리 아이템이라 /inventory로 묶을지 /shop으로 묶을지 고민</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>알 수 없는 오류입니다.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1142,10 +1130,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>속성</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>fish(object)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1203,10 +1187,6 @@
   </si>
   <si>
     <t>유저누적판매info리스트</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>//TODO: 개발하면서 채우기</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1476,12 +1456,18 @@
   <si>
     <t>내구도 수리가 가능한 장비가 아닙니다.</t>
   </si>
+  <si>
+    <t>ExcessMaxFuel</t>
+  </si>
+  <si>
+    <t>최대 연료를 초과하여 충전할 수 없습니다.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1711,15 +1697,6 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -2252,7 +2229,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2376,44 +2353,50 @@
     <xf numFmtId="0" fontId="26" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2775,237 +2758,231 @@
   <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.75" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.25" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="72.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="3:7" s="5" customFormat="1"/>
+    <row r="2" spans="3:7" s="5" customFormat="1">
       <c r="C2" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" s="5" customFormat="1">
+      <c r="C3" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>287</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="3:7" s="5" customFormat="1">
       <c r="C4" s="5" t="s">
         <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F4" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="47" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G4" s="45" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" s="5" customFormat="1">
       <c r="C5" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="F5" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="51" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G5" s="49" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" s="5" customFormat="1">
       <c r="C6" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="F6" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="F6" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="G6" s="51" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="G6" s="49" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" s="5" customFormat="1">
       <c r="C7" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>129</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" s="5" customFormat="1">
       <c r="C8" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>130</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" s="5" customFormat="1">
       <c r="C9" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>132</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" s="5" customFormat="1">
       <c r="C10" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>162</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" s="5" customFormat="1">
       <c r="C11" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>143</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" s="5" customFormat="1">
       <c r="F12" s="5" t="s">
         <v>141</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" s="5" customFormat="1">
       <c r="F13" s="24" t="s">
         <v>188</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" s="5" customFormat="1">
       <c r="F14" s="5" t="s">
         <v>154</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" s="5" customFormat="1">
       <c r="F15" s="5" t="s">
         <v>157</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" s="5" customFormat="1">
       <c r="F16" s="28" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="5" customFormat="1">
       <c r="F17" s="24" t="s">
         <v>174</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="5" customFormat="1">
       <c r="H18" s="24"/>
     </row>
-    <row r="19" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" s="5" customFormat="1">
       <c r="H19" s="24"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
+    <row r="20" spans="1:12">
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -3025,10 +3002,10 @@
         <v>125</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>4</v>
@@ -3036,7 +3013,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -3047,7 +3024,7 @@
         <v>7</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F22" t="s">
         <v>56</v>
@@ -3061,7 +3038,7 @@
         <v>UnknownHiveID</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -3086,7 +3063,7 @@
         <v>UnknownHiveID</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -3111,7 +3088,7 @@
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -3136,17 +3113,17 @@
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" s="5" customFormat="1">
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
       <c r="G26" s="29" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="5" customFormat="1">
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
       <c r="G27" s="30">
@@ -3158,7 +3135,7 @@
         <v>GoldShortage</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -3166,7 +3143,7 @@
         <v>13</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>163</v>
@@ -3183,7 +3160,7 @@
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -3191,7 +3168,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>163</v>
@@ -3205,7 +3182,7 @@
       <c r="H29" s="29"/>
       <c r="I29" s="24"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -3230,7 +3207,7 @@
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -3238,11 +3215,11 @@
         <v>16</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F31" t="s">
         <v>130</v>
@@ -3255,11 +3232,9 @@
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
-      <c r="I31" s="24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" spans="1:12" s="5" customFormat="1">
       <c r="B32" s="23"/>
       <c r="G32" s="29">
         <f>'API error 응답'!$A$7</f>
@@ -3271,7 +3246,7 @@
       </c>
       <c r="I32" s="24"/>
     </row>
-    <row r="33" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" s="5" customFormat="1">
       <c r="B33" s="23"/>
       <c r="G33" s="29">
         <f>'API error 응답'!$A$8</f>
@@ -3283,7 +3258,7 @@
       </c>
       <c r="I33" s="24"/>
     </row>
-    <row r="34" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" s="5" customFormat="1">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -3295,7 +3270,7 @@
       </c>
       <c r="D34" s="39"/>
       <c r="E34" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>129</v>
@@ -3310,7 +3285,7 @@
       </c>
       <c r="I34" s="24"/>
     </row>
-    <row r="35" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" s="5" customFormat="1">
       <c r="B35" s="23"/>
       <c r="G35" s="29">
         <f>'API error 응답'!$A$7</f>
@@ -3322,7 +3297,7 @@
       </c>
       <c r="I35" s="24"/>
     </row>
-    <row r="36" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" s="5" customFormat="1">
       <c r="B36" s="23"/>
       <c r="G36" s="29">
         <f>'API error 응답'!$A$8</f>
@@ -3334,18 +3309,18 @@
       </c>
       <c r="I36" s="24"/>
     </row>
-    <row r="37" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" s="5" customFormat="1">
       <c r="A37" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C37" s="34" t="s">
         <v>133</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>132</v>
@@ -3360,7 +3335,7 @@
       </c>
       <c r="I37" s="24"/>
     </row>
-    <row r="38" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" s="5" customFormat="1">
       <c r="B38" s="23"/>
       <c r="G38" s="29">
         <f>'API error 응답'!$A$7</f>
@@ -3372,7 +3347,7 @@
       </c>
       <c r="I38" s="24"/>
     </row>
-    <row r="39" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" s="5" customFormat="1">
       <c r="B39" s="23"/>
       <c r="G39" s="29">
         <f>'API error 응답'!$A$8</f>
@@ -3384,12 +3359,12 @@
       </c>
       <c r="I39" s="24"/>
     </row>
-    <row r="40" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" s="5" customFormat="1">
       <c r="A40" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C40" s="34" t="s">
         <v>131</v>
@@ -3410,7 +3385,7 @@
       </c>
       <c r="I40" s="24"/>
     </row>
-    <row r="41" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" s="5" customFormat="1">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -3421,7 +3396,7 @@
         <v>150</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>130</v>
@@ -3436,7 +3411,7 @@
       </c>
       <c r="I41" s="24"/>
     </row>
-    <row r="42" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" s="5" customFormat="1">
       <c r="B42" s="23"/>
       <c r="G42" s="29">
         <f>'API error 응답'!$A$7</f>
@@ -3448,7 +3423,7 @@
       </c>
       <c r="I42" s="24"/>
     </row>
-    <row r="43" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" s="5" customFormat="1">
       <c r="B43" s="23"/>
       <c r="G43" s="29">
         <f>'API error 응답'!$A$8</f>
@@ -3460,7 +3435,7 @@
       </c>
       <c r="I43" s="24"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -3485,7 +3460,7 @@
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -3510,31 +3485,29 @@
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
-      <c r="I45" s="24" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="I45" s="24"/>
+    </row>
+    <row r="46" spans="1:9" s="5" customFormat="1">
       <c r="B46" s="22"/>
       <c r="F46" s="24"/>
-      <c r="G46" s="41">
+      <c r="G46" s="55">
         <f>'API error 응답'!$A$26</f>
         <v>610</v>
       </c>
-      <c r="H46" s="41" t="str">
+      <c r="H46" s="55" t="str">
         <f>'API error 응답'!$B$26</f>
         <v>FuelShortage</v>
       </c>
       <c r="I46" s="24"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="36" t="s">
         <v>22</v>
       </c>
       <c r="E47" s="5" t="s">
@@ -3553,8 +3526,8 @@
       </c>
       <c r="I47" s="24"/>
     </row>
-    <row r="48" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="53"/>
+    <row r="48" spans="1:9" s="5" customFormat="1">
+      <c r="B48" s="51"/>
       <c r="C48" s="37"/>
       <c r="F48" s="24"/>
       <c r="G48" s="29">
@@ -3567,11 +3540,11 @@
       </c>
       <c r="I48" s="24"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="51" t="s">
         <v>149</v>
       </c>
       <c r="C49" s="37" t="s">
@@ -3594,8 +3567,8 @@
       </c>
       <c r="I49" s="24"/>
     </row>
-    <row r="50" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="53"/>
+    <row r="50" spans="1:9" s="5" customFormat="1">
+      <c r="B50" s="51"/>
       <c r="C50" s="37"/>
       <c r="F50" s="24"/>
       <c r="G50" s="29">
@@ -3608,11 +3581,11 @@
       </c>
       <c r="I50" s="24"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="41" t="s">
         <v>23</v>
       </c>
       <c r="C51" s="34" t="s">
@@ -3633,18 +3606,18 @@
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" s="5" customFormat="1">
       <c r="A52" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="41" t="s">
         <v>25</v>
       </c>
       <c r="C52" s="34" t="s">
         <v>26</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>163</v>
@@ -3658,7 +3631,7 @@
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" s="5" customFormat="1">
       <c r="B53" s="17"/>
       <c r="G53" s="29">
         <f>'API error 응답'!$A$10</f>
@@ -3669,7 +3642,7 @@
         <v>UnknownMail</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" s="5" customFormat="1">
       <c r="B54" s="17"/>
       <c r="G54" s="29">
         <f>'API error 응답'!$A$29</f>
@@ -3680,7 +3653,7 @@
         <v>InventorySpaceShortage</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -3705,14 +3678,14 @@
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>5</v>
       </c>
       <c r="B56" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="37" t="s">
+      <c r="C56" s="36" t="s">
         <v>30</v>
       </c>
       <c r="E56" s="5" t="s">
@@ -3731,18 +3704,18 @@
       </c>
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>5</v>
       </c>
       <c r="B57" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="36" t="s">
         <v>31</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F57" s="24" t="s">
         <v>163</v>
@@ -3757,8 +3730,8 @@
       </c>
       <c r="I57" s="5"/>
     </row>
-    <row r="58" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="52"/>
+    <row r="58" spans="1:9" s="5" customFormat="1">
+      <c r="B58" s="50"/>
       <c r="C58" s="37"/>
       <c r="F58" s="24"/>
       <c r="G58" s="29">
@@ -3770,8 +3743,8 @@
         <v>UnknownItem</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="52"/>
+    <row r="59" spans="1:9" s="5" customFormat="1">
+      <c r="B59" s="50"/>
       <c r="C59" s="37"/>
       <c r="F59" s="24"/>
       <c r="G59" s="29">
@@ -3783,8 +3756,8 @@
         <v>GoldShortage</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="52"/>
+    <row r="60" spans="1:9" s="5" customFormat="1">
+      <c r="B60" s="50"/>
       <c r="C60" s="37"/>
       <c r="F60" s="24"/>
       <c r="G60" s="29">
@@ -3796,8 +3769,8 @@
         <v>InventorySpaceShortage</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="52"/>
+    <row r="61" spans="1:9" s="5" customFormat="1">
+      <c r="B61" s="50"/>
       <c r="C61" s="37"/>
       <c r="F61" s="24"/>
       <c r="G61" s="29">
@@ -3809,18 +3782,18 @@
         <v>CountShortage</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>5</v>
       </c>
-      <c r="B62" s="52" t="s">
+      <c r="B62" s="50" t="s">
         <v>187</v>
       </c>
       <c r="C62" s="37" t="s">
         <v>32</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F62" s="24" t="s">
         <v>163</v>
@@ -3833,13 +3806,11 @@
         <f>'API error 응답'!$B$6</f>
         <v>UnknownUser</v>
       </c>
-      <c r="I62" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="50"/>
-      <c r="C63" s="49"/>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="1:9" s="5" customFormat="1">
+      <c r="B63" s="48"/>
+      <c r="C63" s="47"/>
       <c r="F63" s="24"/>
       <c r="G63" s="29">
         <f>'API error 응답'!$A$8</f>
@@ -3850,7 +3821,7 @@
         <v>UnknownItem</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" s="5" customFormat="1">
       <c r="B64" s="21"/>
       <c r="F64" s="24"/>
       <c r="G64" s="29">
@@ -3862,7 +3833,7 @@
         <v>CountShortage</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -3887,11 +3858,11 @@
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="48" t="s">
+      <c r="B66" s="46" t="s">
         <v>35</v>
       </c>
       <c r="C66" s="34" t="s">
@@ -3912,18 +3883,18 @@
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="48" t="s">
+      <c r="B67" s="46" t="s">
         <v>37</v>
       </c>
       <c r="C67" s="34" t="s">
         <v>38</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>163</v>
@@ -3937,7 +3908,7 @@
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" s="5" customFormat="1">
       <c r="B68" s="20"/>
       <c r="G68" s="29">
         <f>'API error 응답'!$A$12</f>
@@ -3948,11 +3919,11 @@
         <v>UnknownFish</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="46" t="s">
+      <c r="B69" s="44" t="s">
         <v>39</v>
       </c>
       <c r="C69" s="34" t="s">
@@ -3974,7 +3945,7 @@
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" s="5" customFormat="1">
       <c r="B70" s="19"/>
       <c r="G70" s="29">
         <f>'API error 응답'!$A$9</f>
@@ -3985,7 +3956,7 @@
         <v>UnknownMap</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" s="5" customFormat="1">
       <c r="B71" s="19"/>
       <c r="G71" s="29">
         <f>'API error 응답'!$A$25</f>
@@ -3996,7 +3967,7 @@
         <v>FatigueShortage</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" s="5" customFormat="1">
       <c r="B72" s="19"/>
       <c r="G72" s="29">
         <f>'API error 응답'!$A$26</f>
@@ -4007,7 +3978,7 @@
         <v>FuelShortage</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" s="5" customFormat="1">
       <c r="B73" s="19"/>
       <c r="G73" s="29">
         <f>'API error 응답'!$A$30</f>
@@ -4018,7 +3989,7 @@
         <v>LevelShortage</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" s="5" customFormat="1">
       <c r="B74" s="19"/>
       <c r="G74" s="29">
         <f>'API error 응답'!$A$32</f>
@@ -4029,11 +4000,11 @@
         <v>EquipmentNotReady</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="46" t="s">
+      <c r="B75" s="44" t="s">
         <v>41</v>
       </c>
       <c r="C75" s="34" t="s">
@@ -4054,11 +4025,11 @@
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="43" t="s">
+      <c r="B76" s="42" t="s">
         <v>43</v>
       </c>
       <c r="C76" s="34" t="s">
@@ -4079,7 +4050,7 @@
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" s="5" customFormat="1">
       <c r="B77" s="18"/>
       <c r="G77" s="29">
         <f>'API error 응답'!$A$28</f>
@@ -4090,7 +4061,7 @@
         <v>PrepDurabilityShortage</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" s="5" customFormat="1">
       <c r="B78" s="18"/>
       <c r="G78" s="29">
         <f>'API error 응답'!$A$32</f>
@@ -4101,7 +4072,7 @@
         <v>EquipmentNotReady</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" s="5" customFormat="1">
       <c r="B79" s="18"/>
       <c r="G79" s="29">
         <f>'API error 응답'!$A$33</f>
@@ -4112,11 +4083,11 @@
         <v>InvalidWaterDepth</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="43" t="s">
+      <c r="B80" s="42" t="s">
         <v>44</v>
       </c>
       <c r="C80" s="34" t="s">
@@ -4126,7 +4097,7 @@
         <v>117</v>
       </c>
       <c r="F80" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G80" s="29">
         <f>'API error 응답'!$A$6</f>
@@ -4137,10 +4108,10 @@
         <v>UnknownUser</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="5" t="s">
         <v>5</v>
       </c>
@@ -4184,29 +4155,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D026DD-3163-41FA-9329-52BDE255F628}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.58203125" customWidth="1"/>
+    <col min="3" max="3" width="38.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.625" customWidth="1"/>
     <col min="6" max="6" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="44"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+    <row r="1" spans="1:7">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -4220,7 +4191,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" s="5" customFormat="1">
       <c r="A3" s="32">
         <v>200</v>
       </c>
@@ -4228,17 +4199,17 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D3"/>
     </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" s="5" customFormat="1">
       <c r="A4" s="32"/>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
     </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" s="5" customFormat="1">
       <c r="A5" s="32">
         <v>501</v>
       </c>
@@ -4246,11 +4217,11 @@
         <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7">
       <c r="A6" s="32">
         <v>502</v>
       </c>
@@ -4258,10 +4229,10 @@
         <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="32">
         <v>503</v>
       </c>
@@ -4269,10 +4240,10 @@
         <v>191</v>
       </c>
       <c r="C7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="32">
         <v>504</v>
       </c>
@@ -4280,10 +4251,10 @@
         <v>192</v>
       </c>
       <c r="C8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="32">
         <v>505</v>
       </c>
@@ -4291,10 +4262,10 @@
         <v>193</v>
       </c>
       <c r="C9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="32">
         <v>506</v>
       </c>
@@ -4302,21 +4273,21 @@
         <v>194</v>
       </c>
       <c r="C10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="32">
         <v>507</v>
       </c>
       <c r="B11" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C11" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="32">
         <v>508</v>
       </c>
@@ -4324,10 +4295,10 @@
         <v>195</v>
       </c>
       <c r="C12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="32">
         <v>509</v>
       </c>
@@ -4335,38 +4306,38 @@
         <v>202</v>
       </c>
       <c r="C13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1">
       <c r="A14" s="32" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="5" customFormat="1">
       <c r="A15" s="32" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="5" customFormat="1">
       <c r="A16" s="32"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4">
       <c r="A17" s="32">
         <v>601</v>
       </c>
@@ -4380,7 +4351,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4">
       <c r="A18" s="32">
         <v>602</v>
       </c>
@@ -4391,7 +4362,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4">
       <c r="A19" s="32">
         <v>603</v>
       </c>
@@ -4402,7 +4373,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4">
       <c r="A20" s="32">
         <v>604</v>
       </c>
@@ -4413,7 +4384,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4">
       <c r="A21" s="32">
         <v>605</v>
       </c>
@@ -4424,7 +4395,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4">
       <c r="A22" s="32">
         <v>606</v>
       </c>
@@ -4435,7 +4406,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4">
       <c r="A23" s="32">
         <v>607</v>
       </c>
@@ -4446,7 +4417,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4">
       <c r="A24" s="32">
         <v>608</v>
       </c>
@@ -4457,7 +4428,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4">
       <c r="A25" s="32">
         <v>609</v>
       </c>
@@ -4468,19 +4439,19 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" s="5" customFormat="1">
       <c r="A26" s="32">
         <v>610</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D26"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4">
       <c r="A27" s="32">
         <v>611</v>
       </c>
@@ -4488,21 +4459,21 @@
         <v>211</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="32">
         <v>612</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="45" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4">
       <c r="A29" s="32">
         <v>613</v>
       </c>
@@ -4513,18 +4484,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4">
       <c r="A30" s="32">
         <v>614</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="C30" s="45" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C30" s="43" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="32">
         <v>615</v>
       </c>
@@ -4535,19 +4506,19 @@
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" s="5" customFormat="1">
       <c r="A32" s="32">
         <v>616</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C32" s="34" t="s">
         <v>209</v>
       </c>
       <c r="D32"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4">
       <c r="A33" s="32">
         <v>617</v>
       </c>
@@ -4555,144 +4526,152 @@
         <v>201</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="32">
         <v>618</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="32">
         <v>619</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="32">
         <v>620</v>
       </c>
       <c r="B36" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="B37" s="34" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" s="32" t="s">
+      <c r="C37" s="34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="B38" s="34" t="s">
         <v>323</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="C38" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="C37" s="34" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A38" s="32" t="s">
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B39" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="C39" s="34" t="s">
         <v>328</v>
       </c>
-      <c r="C38" s="34" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A39" s="32" t="s">
-        <v>334</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>332</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="27">
         <v>624</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="27">
         <v>625</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="27">
         <v>626</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="27">
         <v>627</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="27">
         <v>628</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="27">
         <v>629</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C46" s="5"/>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="27">
+        <v>630</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>347</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4715,21 +4694,21 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="92.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="44"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="5" customFormat="1">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>119</v>
@@ -4741,7 +4720,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
         <v>61</v>
       </c>
@@ -4755,7 +4734,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4">
       <c r="A4" s="12" t="s">
         <v>62</v>
       </c>
@@ -4766,37 +4745,37 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4">
       <c r="A6" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" s="5" customFormat="1">
       <c r="A8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
         <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4">
       <c r="A10" s="12" t="s">
         <v>62</v>
       </c>
@@ -4807,12 +4786,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4">
       <c r="A11" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4">
       <c r="A12" s="9" t="s">
         <v>68</v>
       </c>
@@ -4823,7 +4802,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4">
       <c r="A13" s="9" t="s">
         <v>69</v>
       </c>
@@ -4834,7 +4813,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4">
       <c r="A14" s="9" t="s">
         <v>70</v>
       </c>
@@ -4845,7 +4824,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4">
       <c r="A15" s="9" t="s">
         <v>71</v>
       </c>
@@ -4856,7 +4835,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4">
       <c r="A16" s="9" t="s">
         <v>72</v>
       </c>
@@ -4867,8 +4846,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" s="5" customFormat="1"/>
+    <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
         <v>73</v>
       </c>
@@ -4879,9 +4858,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" s="5" customFormat="1">
       <c r="A19" s="12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B19" t="s">
         <v>123</v>
@@ -4890,7 +4869,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4">
       <c r="A20" s="12" t="s">
         <v>62</v>
       </c>
@@ -4898,13 +4877,13 @@
         <v>186</v>
       </c>
       <c r="C20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D20" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4">
       <c r="A21" s="9" t="s">
         <v>74</v>
       </c>
@@ -4915,7 +4894,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
         <v>75</v>
       </c>
@@ -4923,15 +4902,15 @@
         <v>159</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" s="5" customFormat="1">
       <c r="A24" s="9" t="s">
         <v>79</v>
       </c>
@@ -4939,10 +4918,10 @@
         <v>115</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="5" customFormat="1">
       <c r="A25" s="9" t="s">
         <v>145</v>
       </c>
@@ -4950,13 +4929,13 @@
         <v>147</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="5" customFormat="1">
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
         <v>77</v>
       </c>
@@ -4967,7 +4946,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4">
       <c r="A28" s="12" t="s">
         <v>62</v>
       </c>
@@ -4978,7 +4957,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4">
       <c r="A29" s="9" t="s">
         <v>78</v>
       </c>
@@ -4989,7 +4968,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4">
       <c r="A30" s="9" t="s">
         <v>79</v>
       </c>
@@ -5000,7 +4979,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4">
       <c r="A31" s="13" t="s">
         <v>80</v>
       </c>
@@ -5011,12 +4990,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4">
       <c r="A32" s="13" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4">
       <c r="A33" s="13" t="s">
         <v>82</v>
       </c>
@@ -5027,11 +5006,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" s="5" customFormat="1">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
         <v>83</v>
       </c>
@@ -5045,13 +5024,13 @@
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" s="5" customFormat="1">
       <c r="A36" s="12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C36" s="16"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4">
       <c r="A37" s="12" t="s">
         <v>62</v>
       </c>
@@ -5062,7 +5041,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4">
       <c r="A38" s="9" t="s">
         <v>84</v>
       </c>
@@ -5070,25 +5049,25 @@
         <v>164</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4">
       <c r="A40" s="9" t="s">
         <v>86</v>
       </c>
       <c r="B40" s="10"/>
     </row>
-    <row r="41" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" s="5" customFormat="1">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4">
       <c r="A42" s="8" t="s">
         <v>87</v>
       </c>
@@ -5099,13 +5078,13 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" s="5" customFormat="1">
       <c r="A43" s="25" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C43" s="16"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4">
       <c r="A44" s="12" t="s">
         <v>62</v>
       </c>
@@ -5116,7 +5095,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4">
       <c r="A45" s="9" t="s">
         <v>74</v>
       </c>
@@ -5124,35 +5103,35 @@
         <v>151</v>
       </c>
       <c r="C45" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4">
       <c r="A47" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4">
       <c r="A48" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3">
       <c r="A49" s="9" t="s">
         <v>89</v>
       </c>
       <c r="B49" s="6"/>
     </row>
-    <row r="50" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" s="5" customFormat="1">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3">
       <c r="A51" s="8" t="s">
         <v>90</v>
       </c>
@@ -5163,7 +5142,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3">
       <c r="A52" s="12" t="s">
         <v>62</v>
       </c>
@@ -5174,17 +5153,17 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3">
       <c r="A53" s="12" t="s">
         <v>84</v>
       </c>
       <c r="B53" s="6"/>
     </row>
-    <row r="54" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" s="5" customFormat="1">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3">
       <c r="A55" s="8" t="s">
         <v>91</v>
       </c>
@@ -5195,12 +5174,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3">
       <c r="A56" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3">
       <c r="A57" s="9" t="s">
         <v>92</v>
       </c>
@@ -5211,7 +5190,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3">
       <c r="A58" s="9" t="s">
         <v>93</v>
       </c>
@@ -5222,7 +5201,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3">
       <c r="A59" s="9" t="s">
         <v>94</v>
       </c>
@@ -5233,8 +5212,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" s="5" customFormat="1"/>
+    <row r="61" spans="1:3">
       <c r="A61" s="14" t="s">
         <v>95</v>
       </c>
@@ -5245,32 +5224,32 @@
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" s="5" customFormat="1">
       <c r="A62" s="25" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3">
       <c r="A64" s="31" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="15" t="s">
         <v>96</v>
       </c>
       <c r="B65" s="11"/>
     </row>
-    <row r="66" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" s="5" customFormat="1">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3">
       <c r="A67" s="14" t="s">
         <v>175</v>
       </c>
@@ -5281,35 +5260,35 @@
         <v>181</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" s="5" customFormat="1">
       <c r="A68" s="25" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" s="5" customFormat="1">
       <c r="A69" s="15" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" s="5" customFormat="1">
       <c r="A70" s="25" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" s="5" customFormat="1">
       <c r="A71" s="25" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3">
       <c r="A72" s="25" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3">
       <c r="A74" s="26" t="s">
         <v>176</v>
       </c>
@@ -5320,17 +5299,17 @@
         <v>180</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3">
       <c r="A75" s="15" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3">
       <c r="A76" s="25" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3">
       <c r="A77" s="25" t="s">
         <v>177</v>
       </c>

--- a/docs/우럭아왜우럭 API 설계.xlsx
+++ b/docs/우럭아왜우럭 API 설계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\바탕 화면\jinha\우럭아왜우럭\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75454C26-E923-4036-ABC7-604C0F1AE885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EC40E6-C358-4D25-8992-89279E373DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{83EBD1F1-D894-4B36-90FB-EB8F16775886}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="330">
   <si>
     <t>Method</t>
   </si>
@@ -43,9 +43,6 @@
     <t>기능</t>
   </si>
   <si>
-    <t>requestBody</t>
-  </si>
-  <si>
     <t>비고</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t>상점 아이템 구매</t>
   </si>
   <si>
-    <t>상점에 아이템 판매</t>
-  </si>
-  <si>
     <t>/waterTank</t>
   </si>
   <si>
@@ -189,14 +183,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>배 내구도 수리</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>user(object)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>sql</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -213,10 +199,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>account(object)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>레벨업</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -345,10 +327,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>weather(object)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>INSERT INTO 'boat' VALUES(...)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -420,10 +398,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>userId(int)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>SELECT * FROM ‘inventory' WHERE 'user_id'=?</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -432,10 +406,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>userId(int), mapId(int)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -463,26 +433,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>map[array]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>inventory[array]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>equipment(object)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>장착한 채비 조회</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>equipSlot(object)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>선택한 채비 장착해제</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -515,18 +469,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>collection[array]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId(int), depth(int)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>mailBox[array]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>SELECT * FROM ‘inventory’ WHERE 'user_id'=?, is_equipped=1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -546,10 +488,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>/boat/repair</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>장비 내구도 수리</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -566,10 +504,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>waterTank[array]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>경매 조회</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -578,10 +512,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>auction[array]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>우선 delete로 하고 추후에 flag속성으로 바꿀 예정</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -597,10 +527,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>boat(object)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -645,10 +571,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>ranking[array]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>shop</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -697,14 +619,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>/shop/sell</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop[array]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>InvalidError</t>
   </si>
   <si>
@@ -775,10 +689,6 @@
   </si>
   <si>
     <t>채비가 완료되지 않았습니다.</t>
-  </si>
-  <si>
-    <t>로그인중인 유저가 아니라 다른 유저로 요청하면? 그래서 세션도 넘겨야하나</t>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>BoatDurabilityShortage</t>
@@ -943,14 +853,6 @@
     <t>피로도가 부족합니다.</t>
   </si>
   <si>
-    <t>fish(object) or equipment(object)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리고 남은 내구도, 미끼 수 등..도 return</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>배의 내구도가 부족합니다.</t>
   </si>
   <si>
@@ -1014,16 +916,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>mapId(int)</t>
-  </si>
-  <si>
-    <t>depth(int)</t>
-  </si>
-  <si>
-    <t>itemCount(int)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>인벤토리 인덱스</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1036,10 +928,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>수조 인덱스</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>shop_id</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -1085,116 +973,18 @@
     <t>userId(int), invId(int)</t>
   </si>
   <si>
-    <t>userId(int), mailId(int)</t>
-  </si>
-  <si>
     <t>userId(int), shopId(int), itemCount(int)</t>
   </si>
   <si>
-    <t>userId(int), invId(int), itemCount(int)</t>
-  </si>
-  <si>
-    <t>invId(int)</t>
-  </si>
-  <si>
-    <t>mailId(int)</t>
-  </si>
-  <si>
-    <t>shopId(int)</t>
-  </si>
-  <si>
-    <t>tankId(int)</t>
-  </si>
-  <si>
-    <t>맵 인덱스</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>찌를 던질 깊이</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>아이템 수량</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>requestBody 인자</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>설명</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>responseBody</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish(object)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>계정info</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저info</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>날씨info</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵info 리스트</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>채비info</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>채비info 리스트</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>배info</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>메일info 리스트</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>도감물고기info 리스트</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템info 리스트</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>수조물고기info 리스트</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매가능물고기info 리스트</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>물고기info</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저누적판매info리스트</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>playerId(string), password(string)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>playerId(string)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1441,10 +1231,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>userId(int), aucId(int)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>ExcessMaxDurability</t>
   </si>
   <si>
@@ -1461,13 +1247,305 @@
   </si>
   <si>
     <t>최대 연료를 초과하여 충전할 수 없습니다.</t>
+  </si>
+  <si>
+    <t>맵 인덱스</t>
+  </si>
+  <si>
+    <t>하이브 패스워드</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "user_id": "0",
+    "player_id": "string",
+    "password": "string",
+    "nation": "string",
+    "language": "string"
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "player_id": "string",
+    "password": "string"
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "user_id": 0
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>requestBody (Example Value)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "user_id": "0",
+    "user_name": "string",
+    "level": "0",
+    "exp": "0",
+    "fatigue": "0",
+    "gold": "0",
+    "pearl": "0"
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "temperature": {
+        "default_temperature": 0,
+        "min_temperature": 0,
+        "max_temperature": 0,
+        "iter_term": 0,
+        "change_range": 0
+    }
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    {
+        "map_id": 0,
+        "map_name": "string",
+        "max_water_depth": 0,
+        "distance": 0,
+        "level_limit": 0,
+        "departure_cost": 0,
+        "departure_time": 0,
+        "reduce_fatigue_per_min": 0,
+        "reduce_durability_per_meter": 0
+    }
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    {
+        "inv_id": "0",
+        "user_id": "0",
+        "item_type_id": "0",
+        "item_id": "0",
+        "item_count": "0",
+        "durability": "0",
+        "is_equipped": "0"
+    }
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "inv_id": 0,
+    "user_id": 0,
+    "item_type_id": 0,
+    "item_id": "0",
+    "item_count": "0",
+    "durability": "0",
+    "is_equipped": "0"
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "user_id": 0,
+    "inv_id": 0
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "user_id": "0",
+    "boat_id": "0",
+    "durability": "0",
+    "fuel": "0",
+    "departure_time": "2022-03-24 08:21:24",
+    "map_id": "0"
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "user_id": 0,
+    "mail_id": 0
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    {
+        "mail_id": "0",
+        "user_id": "0",
+        "item_type_id": "0",
+        "item_id": "0",
+        "item_count": "0",
+        "recv_date": "2022-03-23 22:11:19",
+        "expr_date": "2022-03-30 22:11:19"
+    }
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 200,
+    "message": "Success"
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    {
+        "user_id": "0",
+        "fish_id": "0"
+    }
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    {
+        "shop_id": "0",
+        "user_id": "0",
+        "item_type_id": "0",
+        "item_id": "0",
+        "item_count": "0",
+        "need_item_type_id": "0",
+        "need_count": "0"
+    }
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    {
+        "tank_id": "0",
+        "user_id": "0",
+        "fish_id": "0",
+        "length": "0",
+        "caught_time": "2022-03-23 22:11:11"
+    }
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    {
+        "auc_id": "0",
+        "user_id": "0",
+        "tank_id": "0",
+        "price": "0"
+    }
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "user_id": 0,
+    "auc_id": 0
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "user_id": 0,
+    "map_id": 0
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "user_id": 0,
+    "gold_sum": 0,
+    "ranking": 0
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "user_id": 0,
+    "depth": 0
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료형</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>depth</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>inv_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>auc_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>경매 인덱스</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "fish_id": 0,
+    "fish_name": "string"
+    "length": 0,
+    "caught_time": 2022-03-24 11:12:11 
+}
+또는
+{
+    "inv_id": "0",
+    "user_id": "0",
+    "item_type_id": "0",
+    "item_id": "0",
+    "item_count": "0",
+    "durability": "0",
+    "is_equipped": "0"
+}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content-Type : application/json</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1662,12 +1740,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -1692,15 +1764,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1714,14 +1777,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="42">
@@ -2229,7 +2284,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2293,9 +2348,6 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2309,12 +2361,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2329,74 +2375,86 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2755,1934 +2813,1807 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="72.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" s="5" customFormat="1"/>
-    <row r="2" spans="3:7" s="5" customFormat="1">
+    <row r="1" spans="1:12" s="5" customFormat="1"/>
+    <row r="2" spans="1:12" s="5" customFormat="1">
       <c r="C2" s="1" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="3:7" s="5" customFormat="1">
-      <c r="C3" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="5" customFormat="1">
+      <c r="C3" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="5" customFormat="1">
+      <c r="C4" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1">
+      <c r="C5" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1">
+      <c r="C6" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1">
+      <c r="C7" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1">
+      <c r="C8" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="5" customFormat="1">
+      <c r="C9" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1">
+      <c r="C10" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1">
+      <c r="C11" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1">
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" ht="115.5">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="G15" s="26">
+        <f>'API error 응답'!A$10</f>
+        <v>507</v>
+      </c>
+      <c r="H15" s="26" t="str">
+        <f>'API error 응답'!$B$10</f>
+        <v>UnknownHiveID</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="115.5">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="G16" s="26">
+        <f>'API error 응답'!A$10</f>
+        <v>507</v>
+      </c>
+      <c r="H16" s="26" t="str">
+        <f>'API error 응답'!$B$10</f>
+        <v>UnknownHiveID</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="148.5">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="45" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7" s="5" customFormat="1">
-      <c r="C4" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="G17" s="26">
+        <f>'API error 응답'!$A$5</f>
+        <v>502</v>
+      </c>
+      <c r="H17" s="26" t="str">
+        <f>'API error 응답'!$B$5</f>
+        <v>UnknownUser</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="148.5">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="G18" s="26">
+        <f>'API error 응답'!$A$5</f>
+        <v>502</v>
+      </c>
+      <c r="H18" s="26" t="str">
+        <f>'API error 응답'!$B$5</f>
+        <v>UnknownUser</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="5" customFormat="1">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="G19" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="H19" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="F4" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" s="5" customFormat="1">
-      <c r="C5" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" s="5" customFormat="1">
-      <c r="C6" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="D6" s="5" t="s">
+    </row>
+    <row r="20" spans="1:9" s="5" customFormat="1">
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="G20" s="27">
+        <f>'API error 응답'!$A$22</f>
+        <v>607</v>
+      </c>
+      <c r="H20" s="27" t="str">
+        <f>'API error 응답'!$B$22</f>
+        <v>GoldShortage</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="148.5">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="48" t="s">
+        <v>299</v>
+      </c>
+      <c r="G21" s="26">
+        <f>'API error 응답'!$A$5</f>
+        <v>502</v>
+      </c>
+      <c r="H21" s="26" t="str">
+        <f>'API error 응답'!$B$5</f>
+        <v>UnknownUser</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="214.5">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="48" t="s">
+        <v>300</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" s="26"/>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="1:9" ht="181.5">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="G23" s="26">
+        <f>'API error 응답'!$A$5</f>
+        <v>502</v>
+      </c>
+      <c r="H23" s="26" t="str">
+        <f>'API error 응답'!$B$5</f>
+        <v>UnknownUser</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="148.5">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="F6" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" s="5" customFormat="1">
-      <c r="C7" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" s="5" customFormat="1">
-      <c r="C8" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" s="5" customFormat="1">
-      <c r="C9" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" s="5" customFormat="1">
-      <c r="C10" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" s="5" customFormat="1">
-      <c r="C11" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" s="5" customFormat="1">
-      <c r="F12" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" s="5" customFormat="1">
-      <c r="F13" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7" s="5" customFormat="1">
-      <c r="F14" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" s="5" customFormat="1">
-      <c r="F15" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" s="5" customFormat="1">
-      <c r="F16" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="5" customFormat="1">
-      <c r="F17" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="D24" s="23"/>
+      <c r="E24" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="G24" s="26">
+        <f>'API error 응답'!$A$5</f>
+        <v>502</v>
+      </c>
+      <c r="H24" s="26" t="str">
+        <f>'API error 응답'!$B$5</f>
+        <v>UnknownUser</v>
+      </c>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="1:9" s="5" customFormat="1">
+      <c r="B25" s="22"/>
+      <c r="G25" s="26">
+        <f>'API error 응답'!$A$6</f>
+        <v>503</v>
+      </c>
+      <c r="H25" s="26" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownItemType</v>
+      </c>
+      <c r="I25" s="23"/>
+    </row>
+    <row r="26" spans="1:9" s="5" customFormat="1">
+      <c r="B26" s="22"/>
+      <c r="G26" s="26">
+        <f>'API error 응답'!$A$7</f>
+        <v>504</v>
+      </c>
+      <c r="H26" s="26" t="str">
+        <f>'API error 응답'!$B$7</f>
+        <v>UnknownItem</v>
+      </c>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="1:9" s="5" customFormat="1" ht="181.5">
+      <c r="A27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="G27" s="26">
+        <f>'API error 응답'!$A$5</f>
+        <v>502</v>
+      </c>
+      <c r="H27" s="26" t="str">
+        <f>'API error 응답'!$B$5</f>
+        <v>UnknownUser</v>
+      </c>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="1:9" s="5" customFormat="1">
+      <c r="B28" s="22"/>
+      <c r="G28" s="26">
+        <f>'API error 응답'!$A$6</f>
+        <v>503</v>
+      </c>
+      <c r="H28" s="26" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownItemType</v>
+      </c>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="1:9" s="5" customFormat="1">
+      <c r="B29" s="22"/>
+      <c r="G29" s="26">
+        <f>'API error 응답'!$A$7</f>
+        <v>504</v>
+      </c>
+      <c r="H29" s="26" t="str">
+        <f>'API error 응답'!$B$7</f>
+        <v>UnknownItem</v>
+      </c>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="1:9" s="5" customFormat="1" ht="181.5">
+      <c r="A30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="G30" s="26">
+        <f>'API error 응답'!$A$5</f>
+        <v>502</v>
+      </c>
+      <c r="H30" s="26" t="str">
+        <f>'API error 응답'!$B$5</f>
+        <v>UnknownUser</v>
+      </c>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" spans="1:9" s="5" customFormat="1">
+      <c r="B31" s="22"/>
+      <c r="G31" s="26">
+        <f>'API error 응답'!$A$6</f>
+        <v>503</v>
+      </c>
+      <c r="H31" s="26" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownItemType</v>
+      </c>
+      <c r="I31" s="23"/>
+    </row>
+    <row r="32" spans="1:9" s="5" customFormat="1">
+      <c r="B32" s="22"/>
+      <c r="G32" s="26">
+        <f>'API error 응답'!$A$7</f>
+        <v>504</v>
+      </c>
+      <c r="H32" s="26" t="str">
+        <f>'API error 응답'!$B$7</f>
+        <v>UnknownItem</v>
+      </c>
+      <c r="I32" s="23"/>
+    </row>
+    <row r="33" spans="1:9" s="5" customFormat="1" ht="181.5">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" s="5" customFormat="1">
-      <c r="H18" s="24"/>
-    </row>
-    <row r="19" spans="1:12" s="5" customFormat="1">
-      <c r="H19" s="24"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="I21" s="1" t="s">
+      <c r="F33" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="G33" s="26">
+        <f>'API error 응답'!$A$5</f>
+        <v>502</v>
+      </c>
+      <c r="H33" s="26" t="str">
+        <f>'API error 응답'!$B$5</f>
+        <v>UnknownUser</v>
+      </c>
+      <c r="I33" s="23"/>
+    </row>
+    <row r="34" spans="1:9" s="5" customFormat="1" ht="181.5">
+      <c r="A34" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="F22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="29">
-        <f>'API error 응답'!A$11</f>
-        <v>507</v>
-      </c>
-      <c r="H22" s="29" t="str">
+      <c r="B34" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="G34" s="26">
+        <f>'API error 응답'!$A$5</f>
+        <v>502</v>
+      </c>
+      <c r="H34" s="26" t="str">
+        <f>'API error 응답'!$B$5</f>
+        <v>UnknownUser</v>
+      </c>
+      <c r="I34" s="23"/>
+    </row>
+    <row r="35" spans="1:9" s="5" customFormat="1">
+      <c r="B35" s="22"/>
+      <c r="G35" s="26">
+        <f>'API error 응답'!$A$6</f>
+        <v>503</v>
+      </c>
+      <c r="H35" s="26" t="str">
+        <f>'API error 응답'!$B$6</f>
+        <v>UnknownItemType</v>
+      </c>
+      <c r="I35" s="23"/>
+    </row>
+    <row r="36" spans="1:9" s="5" customFormat="1">
+      <c r="B36" s="22"/>
+      <c r="G36" s="26">
+        <f>'API error 응답'!$A$7</f>
+        <v>504</v>
+      </c>
+      <c r="H36" s="26" t="str">
+        <f>'API error 응답'!$B$7</f>
+        <v>UnknownItem</v>
+      </c>
+      <c r="I36" s="23"/>
+    </row>
+    <row r="37" spans="1:9" ht="132">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F37" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="G37" s="26">
+        <f>'API error 응답'!$A$5</f>
+        <v>502</v>
+      </c>
+      <c r="H37" s="26" t="str">
+        <f>'API error 응답'!$B$5</f>
+        <v>UnknownUser</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="132">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F38" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="G38" s="26">
+        <f>'API error 응답'!$A$5</f>
+        <v>502</v>
+      </c>
+      <c r="H38" s="26" t="str">
+        <f>'API error 응답'!$B$5</f>
+        <v>UnknownUser</v>
+      </c>
+      <c r="I38" s="23"/>
+    </row>
+    <row r="39" spans="1:9" s="5" customFormat="1">
+      <c r="B39" s="21"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="46">
+        <f>'API error 응답'!$A$25</f>
+        <v>610</v>
+      </c>
+      <c r="H39" s="46" t="str">
+        <f>'API error 응답'!$B$25</f>
+        <v>FuelShortage</v>
+      </c>
+      <c r="I39" s="23"/>
+    </row>
+    <row r="40" spans="1:9" ht="132">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F40" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="G40" s="26">
+        <f>'API error 응답'!$A$5</f>
+        <v>502</v>
+      </c>
+      <c r="H40" s="26" t="str">
+        <f>'API error 응답'!$B$5</f>
+        <v>UnknownUser</v>
+      </c>
+      <c r="I40" s="23"/>
+    </row>
+    <row r="41" spans="1:9" s="5" customFormat="1">
+      <c r="B41" s="43"/>
+      <c r="C41" s="33"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="26">
+        <f>'API error 응답'!$A$22</f>
+        <v>607</v>
+      </c>
+      <c r="H41" s="26" t="str">
+        <f>'API error 응답'!$B$22</f>
+        <v>GoldShortage</v>
+      </c>
+      <c r="I41" s="23"/>
+    </row>
+    <row r="42" spans="1:9" ht="181.5">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="G42" s="26">
+        <f>'API error 응답'!$A$5</f>
+        <v>502</v>
+      </c>
+      <c r="H42" s="26" t="str">
+        <f>'API error 응답'!$B$5</f>
+        <v>UnknownUser</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="5" customFormat="1" ht="66">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="G43" s="26">
+        <f>'API error 응답'!$A$5</f>
+        <v>502</v>
+      </c>
+      <c r="H43" s="26" t="str">
+        <f>'API error 응답'!$B$5</f>
+        <v>UnknownUser</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="5" customFormat="1">
+      <c r="B44" s="17"/>
+      <c r="G44" s="26">
+        <f>'API error 응답'!$A$9</f>
+        <v>506</v>
+      </c>
+      <c r="H44" s="26" t="str">
+        <f>'API error 응답'!$B$9</f>
+        <v>UnknownMail</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="5" customFormat="1">
+      <c r="B45" s="17"/>
+      <c r="G45" s="26">
+        <f>'API error 응답'!$A$28</f>
+        <v>613</v>
+      </c>
+      <c r="H45" s="26" t="str">
+        <f>'API error 응답'!$B$28</f>
+        <v>InventorySpaceShortage</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="99">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="G46" s="26">
+        <f>'API error 응답'!$A$5</f>
+        <v>502</v>
+      </c>
+      <c r="H46" s="26" t="str">
+        <f>'API error 응답'!$B$5</f>
+        <v>UnknownUser</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="181.5">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F47" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="G47" s="26">
+        <f>'API error 응답'!$A$5</f>
+        <v>502</v>
+      </c>
+      <c r="H47" s="26" t="str">
+        <f>'API error 응답'!$B$5</f>
+        <v>UnknownUser</v>
+      </c>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" ht="181.5">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F48" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="G48" s="26">
+        <f>'API error 응답'!$A$5</f>
+        <v>502</v>
+      </c>
+      <c r="H48" s="26" t="str">
+        <f>'API error 응답'!$B$5</f>
+        <v>UnknownUser</v>
+      </c>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" s="5" customFormat="1">
+      <c r="B49" s="42"/>
+      <c r="C49" s="33"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="26">
+        <f>'API error 응답'!$A$7</f>
+        <v>504</v>
+      </c>
+      <c r="H49" s="26" t="str">
+        <f>'API error 응답'!$B$7</f>
+        <v>UnknownItem</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="5" customFormat="1">
+      <c r="B50" s="42"/>
+      <c r="C50" s="33"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="26">
+        <f>'API error 응답'!$A$22</f>
+        <v>607</v>
+      </c>
+      <c r="H50" s="26" t="str">
+        <f>'API error 응답'!$B$22</f>
+        <v>GoldShortage</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="5" customFormat="1">
+      <c r="B51" s="42"/>
+      <c r="C51" s="33"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="26">
+        <f>'API error 응답'!$A$28</f>
+        <v>613</v>
+      </c>
+      <c r="H51" s="26" t="str">
+        <f>'API error 응답'!$B$28</f>
+        <v>InventorySpaceShortage</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="5" customFormat="1">
+      <c r="B52" s="42"/>
+      <c r="C52" s="33"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="26">
+        <f>'API error 응답'!$A$30</f>
+        <v>615</v>
+      </c>
+      <c r="H52" s="26" t="str">
+        <f>'API error 응답'!$B$30</f>
+        <v>CountShortage</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="148.5">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="G53" s="26">
+        <f>'API error 응답'!$A$5</f>
+        <v>502</v>
+      </c>
+      <c r="H53" s="26" t="str">
+        <f>'API error 응답'!$B$5</f>
+        <v>UnknownUser</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="132">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="G54" s="26">
+        <f>'API error 응답'!$A$5</f>
+        <v>502</v>
+      </c>
+      <c r="H54" s="26" t="str">
+        <f>'API error 응답'!$B$5</f>
+        <v>UnknownUser</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="132">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="G55" s="26">
+        <f>'API error 응답'!$A$5</f>
+        <v>502</v>
+      </c>
+      <c r="H55" s="26" t="str">
+        <f>'API error 응답'!$B$5</f>
+        <v>UnknownUser</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="5" customFormat="1">
+      <c r="B56" s="20"/>
+      <c r="G56" s="26">
+        <f>'API error 응답'!$A$11</f>
+        <v>508</v>
+      </c>
+      <c r="H56" s="26" t="str">
         <f>'API error 응답'!$B$11</f>
-        <v>UnknownHiveID</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="29">
-        <f>'API error 응답'!A$11</f>
-        <v>507</v>
-      </c>
-      <c r="H23" s="29" t="str">
-        <f>'API error 응답'!$B$11</f>
-        <v>UnknownHiveID</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="29">
-        <f>'API error 응답'!$A$6</f>
+        <v>UnknownFish</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="66">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="G57" s="26">
+        <f>'API error 응답'!$A$5</f>
         <v>502</v>
       </c>
-      <c r="H24" s="29" t="str">
-        <f>'API error 응답'!$B$6</f>
+      <c r="H57" s="26" t="str">
+        <f>'API error 응답'!$B$5</f>
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="29">
-        <f>'API error 응답'!$A$6</f>
+    <row r="58" spans="1:8" s="5" customFormat="1">
+      <c r="B58" s="19"/>
+      <c r="G58" s="26">
+        <f>'API error 응답'!$A$8</f>
+        <v>505</v>
+      </c>
+      <c r="H58" s="26" t="str">
+        <f>'API error 응답'!$B$8</f>
+        <v>UnknownMap</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="5" customFormat="1">
+      <c r="B59" s="19"/>
+      <c r="G59" s="26">
+        <f>'API error 응답'!$A$24</f>
+        <v>609</v>
+      </c>
+      <c r="H59" s="26" t="str">
+        <f>'API error 응답'!$B$24</f>
+        <v>FatigueShortage</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="5" customFormat="1">
+      <c r="B60" s="19"/>
+      <c r="G60" s="26">
+        <f>'API error 응답'!$A$25</f>
+        <v>610</v>
+      </c>
+      <c r="H60" s="26" t="str">
+        <f>'API error 응답'!$B$25</f>
+        <v>FuelShortage</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="5" customFormat="1">
+      <c r="B61" s="19"/>
+      <c r="G61" s="26">
+        <f>'API error 응답'!$A$29</f>
+        <v>614</v>
+      </c>
+      <c r="H61" s="26" t="str">
+        <f>'API error 응답'!$B$29</f>
+        <v>LevelShortage</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="5" customFormat="1">
+      <c r="B62" s="19"/>
+      <c r="G62" s="26">
+        <f>'API error 응답'!$A$31</f>
+        <v>616</v>
+      </c>
+      <c r="H62" s="26" t="str">
+        <f>'API error 응답'!$B$31</f>
+        <v>EquipmentNotReady</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="66">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="G63" s="26">
+        <f>'API error 응답'!$A$5</f>
         <v>502</v>
       </c>
-      <c r="H25" s="29" t="str">
-        <f>'API error 응답'!$B$6</f>
+      <c r="H63" s="26" t="str">
+        <f>'API error 응답'!$B$5</f>
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="5" customFormat="1">
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="G26" s="29" t="s">
-        <v>304</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="5" customFormat="1">
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="G27" s="30">
-        <f>'API error 응답'!$A$23</f>
-        <v>607</v>
-      </c>
-      <c r="H27" s="30" t="str">
-        <f>'API error 응답'!$B$23</f>
-        <v>GoldShortage</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>305</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" s="29">
-        <f>'API error 응답'!$A$6</f>
+    <row r="64" spans="1:8" ht="66">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="G64" s="26">
+        <f>'API error 응답'!$A$5</f>
         <v>502</v>
       </c>
-      <c r="H28" s="29" t="str">
-        <f>'API error 응답'!$B$6</f>
+      <c r="H64" s="26" t="str">
+        <f>'API error 응답'!$B$5</f>
         <v>UnknownUser</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G29" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="H29" s="29"/>
-      <c r="I29" s="24"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F30" t="s">
-        <v>129</v>
-      </c>
-      <c r="G30" s="29">
-        <f>'API error 응답'!$A$6</f>
+    <row r="65" spans="1:9" s="5" customFormat="1">
+      <c r="B65" s="18"/>
+      <c r="G65" s="26">
+        <f>'API error 응답'!$A$27</f>
+        <v>612</v>
+      </c>
+      <c r="H65" s="26" t="str">
+        <f>'API error 응답'!$B$27</f>
+        <v>PrepDurabilityShortage</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="5" customFormat="1">
+      <c r="B66" s="18"/>
+      <c r="G66" s="26">
+        <f>'API error 응답'!$A$31</f>
+        <v>616</v>
+      </c>
+      <c r="H66" s="26" t="str">
+        <f>'API error 응답'!$B$31</f>
+        <v>EquipmentNotReady</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="5" customFormat="1">
+      <c r="B67" s="18"/>
+      <c r="G67" s="26">
+        <f>'API error 응답'!$A$32</f>
+        <v>617</v>
+      </c>
+      <c r="H67" s="26" t="str">
+        <f>'API error 응답'!$B$32</f>
+        <v>InvalidWaterDepth</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="264">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F68" s="56" t="s">
+        <v>328</v>
+      </c>
+      <c r="G68" s="26">
+        <f>'API error 응답'!$A$5</f>
         <v>502</v>
       </c>
-      <c r="H30" s="29" t="str">
-        <f>'API error 응답'!$B$6</f>
+      <c r="H68" s="26" t="str">
+        <f>'API error 응답'!$B$5</f>
         <v>UnknownUser</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F31" t="s">
-        <v>130</v>
-      </c>
-      <c r="G31" s="29">
-        <f>'API error 응답'!$A$6</f>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="1:9" ht="82.5">
+      <c r="A69" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F69" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="G69" s="26">
+        <f>'API error 응답'!$A$5</f>
         <v>502</v>
       </c>
-      <c r="H31" s="29" t="str">
-        <f>'API error 응답'!$B$6</f>
+      <c r="H69" s="26" t="str">
+        <f>'API error 응답'!$B$5</f>
         <v>UnknownUser</v>
       </c>
-      <c r="I31" s="24"/>
-    </row>
-    <row r="32" spans="1:12" s="5" customFormat="1">
-      <c r="B32" s="23"/>
-      <c r="G32" s="29">
-        <f>'API error 응답'!$A$7</f>
-        <v>503</v>
-      </c>
-      <c r="H32" s="29" t="str">
-        <f>'API error 응답'!$B$7</f>
-        <v>UnknownItemType</v>
-      </c>
-      <c r="I32" s="24"/>
-    </row>
-    <row r="33" spans="1:9" s="5" customFormat="1">
-      <c r="B33" s="23"/>
-      <c r="G33" s="29">
-        <f>'API error 응답'!$A$8</f>
-        <v>504</v>
-      </c>
-      <c r="H33" s="29" t="str">
-        <f>'API error 응답'!$B$8</f>
-        <v>UnknownItem</v>
-      </c>
-      <c r="I33" s="24"/>
-    </row>
-    <row r="34" spans="1:9" s="5" customFormat="1">
-      <c r="A34" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G34" s="29">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H34" s="29" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-      <c r="I34" s="24"/>
-    </row>
-    <row r="35" spans="1:9" s="5" customFormat="1">
-      <c r="B35" s="23"/>
-      <c r="G35" s="29">
-        <f>'API error 응답'!$A$7</f>
-        <v>503</v>
-      </c>
-      <c r="H35" s="29" t="str">
-        <f>'API error 응답'!$B$7</f>
-        <v>UnknownItemType</v>
-      </c>
-      <c r="I35" s="24"/>
-    </row>
-    <row r="36" spans="1:9" s="5" customFormat="1">
-      <c r="B36" s="23"/>
-      <c r="G36" s="29">
-        <f>'API error 응답'!$A$8</f>
-        <v>504</v>
-      </c>
-      <c r="H36" s="29" t="str">
-        <f>'API error 응답'!$B$8</f>
-        <v>UnknownItem</v>
-      </c>
-      <c r="I36" s="24"/>
-    </row>
-    <row r="37" spans="1:9" s="5" customFormat="1">
-      <c r="A37" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="38" t="s">
-        <v>315</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G37" s="29">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H37" s="29" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-      <c r="I37" s="24"/>
-    </row>
-    <row r="38" spans="1:9" s="5" customFormat="1">
-      <c r="B38" s="23"/>
-      <c r="G38" s="29">
-        <f>'API error 응답'!$A$7</f>
-        <v>503</v>
-      </c>
-      <c r="H38" s="29" t="str">
-        <f>'API error 응답'!$B$7</f>
-        <v>UnknownItemType</v>
-      </c>
-      <c r="I38" s="24"/>
-    </row>
-    <row r="39" spans="1:9" s="5" customFormat="1">
-      <c r="B39" s="23"/>
-      <c r="G39" s="29">
-        <f>'API error 응답'!$A$8</f>
-        <v>504</v>
-      </c>
-      <c r="H39" s="29" t="str">
-        <f>'API error 응답'!$B$8</f>
-        <v>UnknownItem</v>
-      </c>
-      <c r="I39" s="24"/>
-    </row>
-    <row r="40" spans="1:9" s="5" customFormat="1">
-      <c r="A40" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F40" t="s">
-        <v>132</v>
-      </c>
-      <c r="G40" s="29">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H40" s="29" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-      <c r="I40" s="24"/>
-    </row>
-    <row r="41" spans="1:9" s="5" customFormat="1">
-      <c r="A41" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G41" s="29">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H41" s="29" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-      <c r="I41" s="24"/>
-    </row>
-    <row r="42" spans="1:9" s="5" customFormat="1">
-      <c r="B42" s="23"/>
-      <c r="G42" s="29">
-        <f>'API error 응답'!$A$7</f>
-        <v>503</v>
-      </c>
-      <c r="H42" s="29" t="str">
-        <f>'API error 응답'!$B$7</f>
-        <v>UnknownItemType</v>
-      </c>
-      <c r="I42" s="24"/>
-    </row>
-    <row r="43" spans="1:9" s="5" customFormat="1">
-      <c r="B43" s="23"/>
-      <c r="G43" s="29">
-        <f>'API error 응답'!$A$8</f>
-        <v>504</v>
-      </c>
-      <c r="H43" s="29" t="str">
-        <f>'API error 응답'!$B$8</f>
-        <v>UnknownItem</v>
-      </c>
-      <c r="I43" s="24"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="G44" s="29">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H44" s="29" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="24"/>
-      <c r="E45" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F45" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="G45" s="29">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H45" s="29" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-      <c r="I45" s="24"/>
-    </row>
-    <row r="46" spans="1:9" s="5" customFormat="1">
-      <c r="B46" s="22"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="55">
-        <f>'API error 응답'!$A$26</f>
-        <v>610</v>
-      </c>
-      <c r="H46" s="55" t="str">
-        <f>'API error 응답'!$B$26</f>
-        <v>FuelShortage</v>
-      </c>
-      <c r="I46" s="24"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F47" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="G47" s="29">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H47" s="29" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-      <c r="I47" s="24"/>
-    </row>
-    <row r="48" spans="1:9" s="5" customFormat="1">
-      <c r="B48" s="51"/>
-      <c r="C48" s="37"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="29">
-        <f>'API error 응답'!$A$23</f>
-        <v>607</v>
-      </c>
-      <c r="H48" s="29" t="str">
-        <f>'API error 응답'!$B$23</f>
-        <v>GoldShortage</v>
-      </c>
-      <c r="I48" s="24"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F49" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="G49" s="29">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H49" s="29" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-      <c r="I49" s="24"/>
-    </row>
-    <row r="50" spans="1:9" s="5" customFormat="1">
-      <c r="B50" s="51"/>
-      <c r="C50" s="37"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="29">
-        <f>'API error 응답'!$A$23</f>
-        <v>607</v>
-      </c>
-      <c r="H50" s="29" t="str">
-        <f>'API error 응답'!$B$23</f>
-        <v>GoldShortage</v>
-      </c>
-      <c r="I50" s="24"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F51" t="s">
-        <v>143</v>
-      </c>
-      <c r="G51" s="29">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H51" s="29" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="5" customFormat="1">
-      <c r="A52" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G52" s="29">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H52" s="29" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="5" customFormat="1">
-      <c r="B53" s="17"/>
-      <c r="G53" s="29">
-        <f>'API error 응답'!$A$10</f>
-        <v>506</v>
-      </c>
-      <c r="H53" s="29" t="str">
-        <f>'API error 응답'!$B$10</f>
-        <v>UnknownMail</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="5" customFormat="1">
-      <c r="B54" s="17"/>
-      <c r="G54" s="29">
-        <f>'API error 응답'!$A$29</f>
-        <v>613</v>
-      </c>
-      <c r="H54" s="29" t="str">
-        <f>'API error 응답'!$B$29</f>
-        <v>InventorySpaceShortage</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F55" t="s">
-        <v>141</v>
-      </c>
-      <c r="G55" s="29">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H55" s="29" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F56" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="G56" s="29">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H56" s="29" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-      <c r="I56" s="5"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="F57" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="G57" s="29">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H57" s="29" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-      <c r="I57" s="5"/>
-    </row>
-    <row r="58" spans="1:9" s="5" customFormat="1">
-      <c r="B58" s="50"/>
-      <c r="C58" s="37"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="29">
-        <f>'API error 응답'!$A$8</f>
-        <v>504</v>
-      </c>
-      <c r="H58" s="29" t="str">
-        <f>'API error 응답'!$B$8</f>
-        <v>UnknownItem</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="5" customFormat="1">
-      <c r="B59" s="50"/>
-      <c r="C59" s="37"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="29">
-        <f>'API error 응답'!$A$23</f>
-        <v>607</v>
-      </c>
-      <c r="H59" s="29" t="str">
-        <f>'API error 응답'!$B$23</f>
-        <v>GoldShortage</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="5" customFormat="1">
-      <c r="B60" s="50"/>
-      <c r="C60" s="37"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="29">
-        <f>'API error 응답'!$A$29</f>
-        <v>613</v>
-      </c>
-      <c r="H60" s="29" t="str">
-        <f>'API error 응답'!$B$29</f>
-        <v>InventorySpaceShortage</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="5" customFormat="1">
-      <c r="B61" s="50"/>
-      <c r="C61" s="37"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="29">
-        <f>'API error 응답'!$A$31</f>
-        <v>615</v>
-      </c>
-      <c r="H61" s="29" t="str">
-        <f>'API error 응답'!$B$31</f>
-        <v>CountShortage</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="C62" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="F62" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="G62" s="29">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H62" s="29" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-      <c r="I62" s="5"/>
-    </row>
-    <row r="63" spans="1:9" s="5" customFormat="1">
-      <c r="B63" s="48"/>
-      <c r="C63" s="47"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="29">
-        <f>'API error 응답'!$A$8</f>
-        <v>504</v>
-      </c>
-      <c r="H63" s="29" t="str">
-        <f>'API error 응답'!$B$8</f>
-        <v>UnknownItem</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="5" customFormat="1">
-      <c r="B64" s="21"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="29">
-        <f>'API error 응답'!$A$31</f>
-        <v>615</v>
-      </c>
-      <c r="H64" s="29" t="str">
-        <f>'API error 응답'!$B$31</f>
-        <v>CountShortage</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C65" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F65" t="s">
-        <v>154</v>
-      </c>
-      <c r="G65" s="29">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H65" s="29" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C66" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F66" t="s">
-        <v>157</v>
-      </c>
-      <c r="G66" s="29">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H66" s="29" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="C67" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G67" s="29">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H67" s="29" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="5" customFormat="1">
-      <c r="B68" s="20"/>
-      <c r="G68" s="29">
-        <f>'API error 응답'!$A$12</f>
-        <v>508</v>
-      </c>
-      <c r="H68" s="29" t="str">
-        <f>'API error 응답'!$B$12</f>
-        <v>UnknownFish</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C69" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D69" s="24"/>
-      <c r="E69" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G69" s="29">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H69" s="29" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" s="5" customFormat="1">
-      <c r="B70" s="19"/>
-      <c r="G70" s="29">
-        <f>'API error 응답'!$A$9</f>
-        <v>505</v>
-      </c>
-      <c r="H70" s="29" t="str">
-        <f>'API error 응답'!$B$9</f>
-        <v>UnknownMap</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" s="5" customFormat="1">
-      <c r="B71" s="19"/>
-      <c r="G71" s="29">
-        <f>'API error 응답'!$A$25</f>
-        <v>609</v>
-      </c>
-      <c r="H71" s="29" t="str">
-        <f>'API error 응답'!$B$25</f>
-        <v>FatigueShortage</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" s="5" customFormat="1">
-      <c r="B72" s="19"/>
-      <c r="G72" s="29">
-        <f>'API error 응답'!$A$26</f>
-        <v>610</v>
-      </c>
-      <c r="H72" s="29" t="str">
-        <f>'API error 응답'!$B$26</f>
-        <v>FuelShortage</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="5" customFormat="1">
-      <c r="B73" s="19"/>
-      <c r="G73" s="29">
-        <f>'API error 응답'!$A$30</f>
-        <v>614</v>
-      </c>
-      <c r="H73" s="29" t="str">
-        <f>'API error 응답'!$B$30</f>
-        <v>LevelShortage</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="5" customFormat="1">
-      <c r="B74" s="19"/>
-      <c r="G74" s="29">
-        <f>'API error 응답'!$A$32</f>
-        <v>616</v>
-      </c>
-      <c r="H74" s="29" t="str">
-        <f>'API error 응답'!$B$32</f>
-        <v>EquipmentNotReady</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" t="s">
-        <v>5</v>
-      </c>
-      <c r="B75" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C75" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E75" t="s">
-        <v>117</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G75" s="29">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H75" s="29" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C76" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G76" s="29">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H76" s="29" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" s="5" customFormat="1">
-      <c r="B77" s="18"/>
-      <c r="G77" s="29">
-        <f>'API error 응답'!$A$28</f>
-        <v>612</v>
-      </c>
-      <c r="H77" s="29" t="str">
-        <f>'API error 응답'!$B$28</f>
-        <v>PrepDurabilityShortage</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" s="5" customFormat="1">
-      <c r="B78" s="18"/>
-      <c r="G78" s="29">
-        <f>'API error 응답'!$A$32</f>
-        <v>616</v>
-      </c>
-      <c r="H78" s="29" t="str">
-        <f>'API error 응답'!$B$32</f>
-        <v>EquipmentNotReady</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" s="5" customFormat="1">
-      <c r="B79" s="18"/>
-      <c r="G79" s="29">
-        <f>'API error 응답'!$A$33</f>
-        <v>617</v>
-      </c>
-      <c r="H79" s="29" t="str">
-        <f>'API error 응답'!$B$33</f>
-        <v>InvalidWaterDepth</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" t="s">
-        <v>5</v>
-      </c>
-      <c r="B80" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C80" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F80" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="G80" s="29">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H80" s="29" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B81" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="C81" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="D81" s="24"/>
-      <c r="E81" t="s">
-        <v>117</v>
-      </c>
-      <c r="F81" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="G81" s="29">
-        <f>'API error 응답'!$A$6</f>
-        <v>502</v>
-      </c>
-      <c r="H81" s="29" t="str">
-        <f>'API error 응답'!$B$6</f>
-        <v>UnknownUser</v>
-      </c>
-      <c r="I81" s="5"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="F71" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A13:I13"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="G27:H27 G46:H59 G60:H68" formula="1"/>
+    <ignoredError sqref="G20:H20 G39:H41 G51:H52 G42:H50 G53:H56" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D026DD-3163-41FA-9329-52BDE255F628}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.625" customWidth="1"/>
-    <col min="6" max="6" width="48.25" customWidth="1"/>
+    <col min="2" max="2" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" s="5" customFormat="1">
+      <c r="A2" s="53">
+        <v>200</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="5" customFormat="1">
-      <c r="A3" s="32">
+      <c r="C2" s="30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="5" customFormat="1">
+      <c r="A3" s="29"/>
+    </row>
+    <row r="4" spans="1:3" s="5" customFormat="1">
+      <c r="A4" s="53">
+        <v>501</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="53">
+        <v>502</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="53">
+        <v>503</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="29">
+        <v>504</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="53">
+        <v>505</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="53">
+        <v>506</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="53">
+        <v>507</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="53">
+        <v>508</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="29">
+        <v>509</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="5" customFormat="1">
+      <c r="A13" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="5" customFormat="1">
+      <c r="A14" s="53" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="5" customFormat="1">
+      <c r="A15" s="29"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="50">
+        <v>601</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="53">
+        <v>602</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="53">
+        <v>603</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="53">
+        <v>604</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="53">
+        <v>605</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="29">
+        <v>606</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="53">
+        <v>607</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="53">
+        <v>608</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="53">
+        <v>609</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="5" customFormat="1">
+      <c r="A25" s="53">
+        <v>610</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="53">
+        <v>611</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="53">
+        <v>612</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="50">
+        <v>613</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3"/>
-    </row>
-    <row r="4" spans="1:7" s="5" customFormat="1">
-      <c r="A4" s="32"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-    </row>
-    <row r="5" spans="1:7" s="5" customFormat="1">
-      <c r="A5" s="32">
-        <v>501</v>
-      </c>
-      <c r="B5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D5"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="32">
-        <v>502</v>
-      </c>
-      <c r="B6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="32">
-        <v>503</v>
-      </c>
-      <c r="B7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="32">
-        <v>504</v>
-      </c>
-      <c r="B8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="32">
-        <v>505</v>
-      </c>
-      <c r="B9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="32">
-        <v>506</v>
-      </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="54">
+        <v>614</v>
+      </c>
+      <c r="B29" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="C10" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="32">
-        <v>507</v>
-      </c>
-      <c r="B11" t="s">
-        <v>299</v>
-      </c>
-      <c r="C11" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="32">
-        <v>508</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C29" s="38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="51">
+        <v>615</v>
+      </c>
+      <c r="B30" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="C12" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="32">
-        <v>509</v>
-      </c>
-      <c r="B13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="5" customFormat="1">
-      <c r="A14" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="5" customFormat="1">
-      <c r="A15" s="32" t="s">
-        <v>321</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="5" customFormat="1">
-      <c r="A16" s="32"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="32">
-        <v>601</v>
-      </c>
-      <c r="B17" t="s">
-        <v>203</v>
-      </c>
-      <c r="C17" t="s">
-        <v>219</v>
-      </c>
-      <c r="D17" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="32">
-        <v>602</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="32">
-        <v>603</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="32">
-        <v>604</v>
-      </c>
-      <c r="B20" t="s">
-        <v>198</v>
-      </c>
-      <c r="C20" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="32">
-        <v>605</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="32">
-        <v>606</v>
-      </c>
-      <c r="B22" t="s">
-        <v>208</v>
-      </c>
-      <c r="C22" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="32">
-        <v>607</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="32">
-        <v>608</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="32">
-        <v>609</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="5" customFormat="1">
-      <c r="A26" s="32">
-        <v>610</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="D26"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="32">
-        <v>611</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="32">
-        <v>612</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="32">
-        <v>613</v>
-      </c>
-      <c r="B29" t="s">
-        <v>207</v>
-      </c>
-      <c r="C29" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="32">
-        <v>614</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="32">
-        <v>615</v>
-      </c>
-      <c r="B31" t="s">
-        <v>218</v>
-      </c>
-      <c r="C31" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="5" customFormat="1">
-      <c r="A32" s="32">
+      <c r="C30" s="52" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="5" customFormat="1">
+      <c r="A31" s="53">
         <v>616</v>
       </c>
-      <c r="B32" s="34" t="s">
-        <v>326</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="D32"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="32">
+      <c r="B31" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="53">
         <v>617</v>
       </c>
-      <c r="B33" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="32">
+      <c r="B32" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="53">
         <v>618</v>
       </c>
-      <c r="B34" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="32">
+      <c r="B33" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="53">
         <v>619</v>
       </c>
-      <c r="B35" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="32">
+      <c r="B34" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="53">
         <v>620</v>
       </c>
-      <c r="B36" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="B38" s="34" t="s">
-        <v>323</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="32" t="s">
-        <v>329</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>327</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="27">
+      <c r="B35" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="53" t="s">
+        <v>274</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="55">
         <v>624</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="27">
+      <c r="B39" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="55">
         <v>625</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="27">
+      <c r="B40" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="55">
         <v>626</v>
       </c>
-      <c r="B42" s="34" t="s">
-        <v>337</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="27">
+      <c r="B41" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="55">
         <v>627</v>
       </c>
-      <c r="B43" s="34" t="s">
-        <v>339</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>340</v>
-      </c>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="27">
+      <c r="B42" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="55">
         <v>628</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="27">
+      <c r="B43" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="55">
         <v>629</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="27">
+      <c r="B44" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="55">
         <v>630</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>347</v>
+      <c r="B45" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A14" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -4703,61 +4634,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="A1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B7" s="5"/>
     </row>
@@ -4766,170 +4697,170 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="5" customFormat="1"/>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="5" customFormat="1">
       <c r="A19" s="12" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C20" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="D20" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="5" customFormat="1">
       <c r="A24" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="5" customFormat="1">
       <c r="A25" s="9" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="5" customFormat="1">
@@ -4937,73 +4868,73 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="5" customFormat="1">
@@ -5012,54 +4943,54 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="5" customFormat="1">
       <c r="A36" s="12" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="C36" s="16"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B40" s="10"/>
     </row>
@@ -5069,61 +5000,61 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="5" customFormat="1">
-      <c r="A43" s="25" t="s">
-        <v>258</v>
+      <c r="A43" s="24" t="s">
+        <v>229</v>
       </c>
       <c r="C43" s="16"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B45" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B49" s="6"/>
     </row>
@@ -5133,29 +5064,29 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B53" s="6"/>
     </row>
@@ -5165,83 +5096,83 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:3" s="5" customFormat="1"/>
     <row r="61" spans="1:3">
       <c r="A61" s="14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B61" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="5" customFormat="1">
-      <c r="A62" s="25" t="s">
-        <v>257</v>
+      <c r="A62" s="24" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="31" t="s">
-        <v>267</v>
+      <c r="A64" s="28" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B65" s="11"/>
     </row>
@@ -5251,67 +5182,67 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="14" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="5" customFormat="1">
-      <c r="A68" s="25" t="s">
-        <v>256</v>
+      <c r="A68" s="24" t="s">
+        <v>227</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="5" customFormat="1">
       <c r="A69" s="15" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="5" customFormat="1">
-      <c r="A70" s="25" t="s">
-        <v>182</v>
+      <c r="A70" s="24" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="5" customFormat="1">
-      <c r="A71" s="25" t="s">
-        <v>183</v>
+      <c r="A71" s="24" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="25" t="s">
-        <v>184</v>
+      <c r="A72" s="24" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="26" t="s">
-        <v>176</v>
+      <c r="A74" s="25" t="s">
+        <v>156</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="15" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="25" t="s">
-        <v>179</v>
+      <c r="A76" s="24" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="25" t="s">
-        <v>177</v>
+      <c r="A77" s="24" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
